--- a/GATEWAY/A1#111DELTAINFORMATICASRLXX/Delta_Informatica_srl/MYSANITA_LDO/25/report-checklist-LDO_V8.2.6.1_MYSANITA_LDO.xlsx
+++ b/GATEWAY/A1#111DELTAINFORMATICASRLXX/Delta_Informatica_srl/MYSANITA_LDO/25/report-checklist-LDO_V8.2.6.1_MYSANITA_LDO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irene.stacchiotti\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14F1F53C-26BC-4261-8436-0576DBBBBA7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{37473C85-A5C9-4CEC-A80D-6ADA9FE5C972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33720" yWindow="975" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="173">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -585,13 +585,16 @@
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 17" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-11-12T10:29:18Z</t>
-  </si>
-  <si>
-    <t>51b1edec8c99d92c5b7969ded1ca6d81</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.eb54817f525019dc3de6a95f43b03d53d017aaf12e33863a9c932a978f19c2ff.2bc0a20f89^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>14/11/2025</t>
+  </si>
+  <si>
+    <t>2025-11-14T17:25:30Z</t>
+  </si>
+  <si>
+    <t>db0fe3d09700d6078bd04d36e503b06c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.eb54817f525019dc3de6a95f43b03d53d017aaf12e33863a9c932a978f19c2ff.3e17a7e921^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>OK</t>
@@ -604,13 +607,13 @@
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 18" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-11-12T10:34:09Z</t>
-  </si>
-  <si>
-    <t>88ebb1e8eb60928ebf123a52f420142f</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.eb54817f525019dc3de6a95f43b03d53d017aaf12e33863a9c932a978f19c2ff.2e72ed2d25^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-11-14T17:32:05Z</t>
+  </si>
+  <si>
+    <t>5c05642501243b9cbf15a757f0b42abf</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.eb54817f525019dc3de6a95f43b03d53d017aaf12e33863a9c932a978f19c2ff.e3906d84c8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_LDO_CT19_KO</t>
@@ -1355,6 +1358,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1369,9 +1375,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2831,8 +2834,8 @@
   <dimension ref="A1:W580"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10:I25"/>
+      <pane ySplit="9" topLeftCell="E23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -2885,11 +2888,11 @@
       <c r="W1" s="8"/>
     </row>
     <row r="2" spans="1:23" ht="18.75">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="51" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="55"/>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="55"/>
@@ -2913,11 +2916,11 @@
       <c r="W2" s="8"/>
     </row>
     <row r="3" spans="1:23" ht="15.75">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="53" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="56"/>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="54" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="55"/>
@@ -2943,7 +2946,7 @@
     <row r="4" spans="1:23" ht="15.75">
       <c r="A4" s="57"/>
       <c r="B4" s="58"/>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="54" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="55"/>
@@ -2970,7 +2973,7 @@
     <row r="5" spans="1:23" ht="15.75">
       <c r="A5" s="59"/>
       <c r="B5" s="60"/>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="54" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="55"/>
@@ -2994,7 +2997,7 @@
       <c r="W5" s="8"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="49"/>
+      <c r="A6" s="50"/>
       <c r="B6" s="61"/>
       <c r="C6" s="9"/>
       <c r="F6" s="5"/>
@@ -3146,7 +3149,7 @@
       <c r="E10" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="54">
+      <c r="F10" s="49">
         <v>45972</v>
       </c>
       <c r="G10" s="30" t="s">
@@ -3207,7 +3210,7 @@
       <c r="E11" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="54">
+      <c r="F11" s="49">
         <v>45972</v>
       </c>
       <c r="G11" s="30" t="s">
@@ -3268,7 +3271,7 @@
       <c r="E12" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="54"/>
+      <c r="F12" s="49"/>
       <c r="G12" s="30" t="str">
         <f>"-"</f>
         <v>-</v>
@@ -3332,7 +3335,7 @@
       <c r="E13" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="54"/>
+      <c r="F13" s="49"/>
       <c r="G13" s="30"/>
       <c r="H13" s="30"/>
       <c r="I13" s="35"/>
@@ -3375,7 +3378,7 @@
       <c r="E14" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="54"/>
+      <c r="F14" s="49"/>
       <c r="G14" s="30"/>
       <c r="H14" s="30"/>
       <c r="I14" s="35"/>
@@ -3418,7 +3421,7 @@
       <c r="E15" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="F15" s="54"/>
+      <c r="F15" s="49"/>
       <c r="G15" s="30"/>
       <c r="H15" s="30"/>
       <c r="I15" s="35"/>
@@ -3461,7 +3464,7 @@
       <c r="E16" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="F16" s="54"/>
+      <c r="F16" s="49"/>
       <c r="G16" s="30"/>
       <c r="H16" s="30"/>
       <c r="I16" s="35"/>
@@ -3504,7 +3507,7 @@
       <c r="E17" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="F17" s="54">
+      <c r="F17" s="49">
         <v>45972</v>
       </c>
       <c r="G17" s="30" t="s">
@@ -3565,7 +3568,7 @@
       <c r="E18" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="F18" s="54">
+      <c r="F18" s="49">
         <v>45972</v>
       </c>
       <c r="G18" s="30" t="s">
@@ -3626,7 +3629,7 @@
       <c r="E19" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="F19" s="54">
+      <c r="F19" s="49">
         <v>45972</v>
       </c>
       <c r="G19" s="30" t="s">
@@ -3687,7 +3690,7 @@
       <c r="E20" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="F20" s="54">
+      <c r="F20" s="49">
         <v>45972</v>
       </c>
       <c r="G20" s="30" t="s">
@@ -3748,7 +3751,7 @@
       <c r="E21" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="F21" s="54">
+      <c r="F21" s="49">
         <v>45972</v>
       </c>
       <c r="G21" s="30" t="s">
@@ -3809,7 +3812,7 @@
       <c r="E22" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="F22" s="54">
+      <c r="F22" s="49">
         <v>45972</v>
       </c>
       <c r="G22" s="30" t="s">
@@ -3870,17 +3873,17 @@
       <c r="E23" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="F23" s="54">
-        <v>46002</v>
+      <c r="F23" s="49" t="s">
+        <v>114</v>
       </c>
       <c r="G23" s="30" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H23" s="30" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I23" s="35" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J23" s="31" t="s">
         <v>54</v>
@@ -3898,7 +3901,7 @@
       <c r="U23" s="32"/>
       <c r="V23" s="33"/>
       <c r="W23" s="31" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="137.25" thickBot="1">
@@ -3912,22 +3915,22 @@
         <v>48</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E24" s="48" t="s">
-        <v>119</v>
-      </c>
-      <c r="F24" s="54">
-        <v>46002</v>
+        <v>120</v>
+      </c>
+      <c r="F24" s="49" t="s">
+        <v>114</v>
       </c>
       <c r="G24" s="30" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H24" s="30" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I24" s="35" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J24" s="31" t="s">
         <v>54</v>
@@ -3945,7 +3948,7 @@
       <c r="U24" s="32"/>
       <c r="V24" s="33"/>
       <c r="W24" s="31" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="106.5" thickBot="1">
@@ -3959,22 +3962,22 @@
         <v>48</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E25" s="48" t="s">
-        <v>124</v>
-      </c>
-      <c r="F25" s="54">
+        <v>125</v>
+      </c>
+      <c r="F25" s="49">
         <v>46002</v>
       </c>
       <c r="G25" s="29" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H25" s="29" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I25" s="31" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J25" s="31" t="s">
         <v>54</v>
@@ -8074,37 +8077,37 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -8139,36 +8142,36 @@
   <sheetData>
     <row r="1" spans="1:7" ht="27" customHeight="1" thickBot="1">
       <c r="A1" s="25" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>25</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1">
@@ -8176,125 +8179,125 @@
         <v>48</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.45">
       <c r="A7" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.45">
       <c r="A8" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.45">
       <c r="A9" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="45.75">
       <c r="A10" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.25" customHeight="1">
@@ -9280,7 +9283,7 @@
     </row>
     <row r="2" spans="1:2" ht="14.25" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>54</v>
@@ -9288,7 +9291,7 @@
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>56</v>
@@ -10305,15 +10308,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -10571,6 +10565,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -10584,11 +10587,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACB08642-5694-4F88-BF6F-98521E3A5E0B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACB08642-5694-4F88-BF6F-98521E3A5E0B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/GATEWAY/A1#111DELTAINFORMATICASRLXX/Delta_Informatica_srl/MYSANITA_LDO/25/report-checklist-LDO_V8.2.6.1_MYSANITA_LDO.xlsx
+++ b/GATEWAY/A1#111DELTAINFORMATICASRLXX/Delta_Informatica_srl/MYSANITA_LDO/25/report-checklist-LDO_V8.2.6.1_MYSANITA_LDO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29518"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irene.stacchiotti\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{37473C85-A5C9-4CEC-A80D-6ADA9FE5C972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{678A7490-5354-4AD1-B50B-3A92AC7C08B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33720" yWindow="975" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -585,16 +585,16 @@
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 17" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>14/11/2025</t>
-  </si>
-  <si>
-    <t>2025-11-14T17:25:30Z</t>
-  </si>
-  <si>
-    <t>db0fe3d09700d6078bd04d36e503b06c</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.eb54817f525019dc3de6a95f43b03d53d017aaf12e33863a9c932a978f19c2ff.3e17a7e921^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>21/11/2025</t>
+  </si>
+  <si>
+    <t>2025-11-21T09:39:57Z</t>
+  </si>
+  <si>
+    <t>d1788bff196d93684dee813a5e763f19</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.eb54817f525019dc3de6a95f43b03d53d017aaf12e33863a9c932a978f19c2ff.7de2237f1e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>OK</t>
@@ -607,13 +607,13 @@
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 18" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-11-14T17:32:05Z</t>
-  </si>
-  <si>
-    <t>5c05642501243b9cbf15a757f0b42abf</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.eb54817f525019dc3de6a95f43b03d53d017aaf12e33863a9c932a978f19c2ff.e3906d84c8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-11-21T10:43:39Z</t>
+  </si>
+  <si>
+    <t>25f3b2ea8cd65ea6286205263afb6a85</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.eb54817f525019dc3de6a95f43b03d53d017aaf12e33863a9c932a978f19c2ff.9f4ef2ee81^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_LDO_CT19_KO</t>
@@ -2834,8 +2834,8 @@
   <dimension ref="A1:W580"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="E23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
+      <pane ySplit="9" topLeftCell="D21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I24" sqref="I24"/>
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -10308,6 +10308,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -10565,29 +10586,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACB08642-5694-4F88-BF6F-98521E3A5E0B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10595,7 +10595,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACB08642-5694-4F88-BF6F-98521E3A5E0B}"/>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>

--- a/GATEWAY/A1#111DELTAINFORMATICASRLXX/Delta_Informatica_srl/MYSANITA_LDO/25/report-checklist-LDO_V8.2.6.1_MYSANITA_LDO.xlsx
+++ b/GATEWAY/A1#111DELTAINFORMATICASRLXX/Delta_Informatica_srl/MYSANITA_LDO/25/report-checklist-LDO_V8.2.6.1_MYSANITA_LDO.xlsx
@@ -1077,223 +1077,223 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1606,7 +1606,7 @@
   </sheetPr>
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -1622,7 +1622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1694,75 +1694,75 @@
   </sheetPr>
   <dimension ref="A1:B996"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="194.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="8.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="3.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="194.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="7" width="8.86"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="8"/>
+      <c r="B3" s="9"/>
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="n">
+      <c r="A4" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="n">
+      <c r="A5" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="n">
+      <c r="A6" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="n">
+    <row r="7" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="n">
+      <c r="A8" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="14" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14" t="n">
+      <c r="A9" s="15" t="n">
         <v>6</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2771,5195 +2771,5195 @@
   </sheetPr>
   <dimension ref="A1:W580"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="9" topLeftCell="D10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="9" topLeftCell="D11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
+      <selection pane="bottomLeft" activeCell="S11" activeCellId="0" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="47.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="16" width="104.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="28.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="38.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="49.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="26.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="43.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="40.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="47.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="36.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="43.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="0" width="38.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="24.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="31.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="19.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="30.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="11.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="25.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="47.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="17" width="104.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="7" width="28.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="7" width="21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="7" width="38.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="7" width="49.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="7" width="26.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="7" width="43.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="7" width="56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="7" width="40.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="7" width="47.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="7" width="36.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="7" width="43.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="7" width="38.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="7" width="32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="7" width="24.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="7" width="31.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="7" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="7" width="19.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="7" width="30.85"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1" s="8"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="18"/>
-    </row>
-    <row r="2" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="21" t="s">
+      <c r="C1" s="9"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="19"/>
+    </row>
+    <row r="2" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="18"/>
+      <c r="D2" s="23"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="19"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="24" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="18"/>
+      <c r="D3" s="25"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="19"/>
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="24" t="s">
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="18"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="19"/>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="24" t="s">
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="18"/>
+      <c r="D5" s="25"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="19"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="27"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="20"/>
-      <c r="W6" s="18"/>
-    </row>
-    <row r="7" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="20"/>
-      <c r="W7" s="18"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="28"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="19"/>
+    </row>
+    <row r="7" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="19"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="19"/>
-      <c r="V8" s="20"/>
-      <c r="W8" s="18"/>
-    </row>
-    <row r="9" s="32" customFormat="true" ht="86.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="28" t="s">
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="19"/>
+    </row>
+    <row r="9" s="33" customFormat="true" ht="84.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="F9" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="29" t="s">
+      <c r="G9" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="29" t="s">
+      <c r="H9" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="29" t="s">
+      <c r="I9" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="J9" s="29" t="s">
+      <c r="J9" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="K9" s="29" t="s">
+      <c r="K9" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="L9" s="29" t="s">
+      <c r="L9" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="M9" s="29" t="s">
+      <c r="M9" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="N9" s="29" t="s">
+      <c r="N9" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="O9" s="29" t="s">
+      <c r="O9" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="P9" s="29" t="s">
+      <c r="P9" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="Q9" s="29" t="s">
+      <c r="Q9" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="R9" s="29" t="s">
+      <c r="R9" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="S9" s="29" t="s">
+      <c r="S9" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="T9" s="29" t="s">
+      <c r="T9" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="U9" s="30" t="s">
+      <c r="U9" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="V9" s="29" t="s">
+      <c r="V9" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="W9" s="31" t="s">
+      <c r="W9" s="32" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="180.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="33" t="n">
+    <row r="10" customFormat="false" ht="185.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="34" t="n">
         <v>29</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="35" t="s">
+      <c r="E10" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="36" t="n">
+      <c r="F10" s="37" t="n">
         <v>45972</v>
       </c>
-      <c r="G10" s="37" t="s">
+      <c r="G10" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="37" t="s">
+      <c r="H10" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="I10" s="38" t="s">
+      <c r="I10" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="J10" s="39" t="s">
+      <c r="J10" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="39" t="s">
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="N10" s="39" t="s">
+      <c r="N10" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="O10" s="39" t="s">
+      <c r="O10" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="P10" s="39" t="s">
+      <c r="P10" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="Q10" s="39" t="s">
+      <c r="Q10" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="R10" s="39" t="s">
+      <c r="R10" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="S10" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="T10" s="34"/>
+      <c r="U10" s="41"/>
+      <c r="V10" s="42"/>
+      <c r="W10" s="40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="185.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="34" t="n">
+        <v>37</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="37" t="n">
+        <v>45972</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="N11" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="O11" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="P11" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="S10" s="39" t="s">
+      <c r="Q11" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="R11" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="S11" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="T10" s="33"/>
-      <c r="U10" s="40"/>
-      <c r="V10" s="41"/>
-      <c r="W10" s="39" t="s">
+      <c r="T11" s="34"/>
+      <c r="U11" s="41"/>
+      <c r="V11" s="42"/>
+      <c r="W11" s="40" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="180.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="33" t="n">
-        <v>37</v>
-      </c>
-      <c r="B11" s="33" t="s">
+    <row r="12" customFormat="false" ht="105" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="34" t="n">
+        <v>45</v>
+      </c>
+      <c r="B12" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C12" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" s="36" t="n">
-        <v>45972</v>
-      </c>
-      <c r="G11" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="H11" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="I11" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="J11" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="N11" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="O11" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="P11" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q11" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="R11" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="S11" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="T11" s="33"/>
-      <c r="U11" s="40"/>
-      <c r="V11" s="41"/>
-      <c r="W11" s="39" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="105" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="33" t="n">
-        <v>45</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="43" t="s">
+      <c r="E12" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="36"/>
-      <c r="G12" s="37" t="str">
+      <c r="F12" s="37"/>
+      <c r="G12" s="38" t="str">
         <f aca="false">"-"</f>
         <v>-</v>
       </c>
-      <c r="H12" s="37" t="str">
+      <c r="H12" s="38" t="str">
         <f aca="false">"-"</f>
         <v>-</v>
       </c>
-      <c r="I12" s="37" t="str">
+      <c r="I12" s="38" t="str">
         <f aca="false">"-"</f>
         <v>-</v>
       </c>
-      <c r="J12" s="39" t="s">
+      <c r="J12" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="39" t="s">
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="N12" s="39" t="s">
+      <c r="N12" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="O12" s="39" t="s">
+      <c r="O12" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="P12" s="39" t="s">
+      <c r="P12" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="Q12" s="39" t="s">
+      <c r="Q12" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="R12" s="39" t="s">
+      <c r="R12" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="S12" s="39" t="s">
+      <c r="S12" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="T12" s="33"/>
-      <c r="U12" s="44" t="s">
+      <c r="T12" s="34"/>
+      <c r="U12" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="V12" s="41"/>
-      <c r="W12" s="39" t="s">
+      <c r="V12" s="42"/>
+      <c r="W12" s="40" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="33" t="n">
+    <row r="13" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="34" t="n">
         <v>64</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="E13" s="43" t="s">
+      <c r="E13" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="36"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="39" t="s">
+      <c r="F13" s="37"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="K13" s="39" t="s">
+      <c r="K13" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="L13" s="39" t="s">
+      <c r="L13" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="33"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="39"/>
-      <c r="S13" s="33"/>
-      <c r="T13" s="33"/>
-      <c r="U13" s="40"/>
-      <c r="V13" s="41"/>
-      <c r="W13" s="39" t="s">
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="34"/>
+      <c r="T13" s="34"/>
+      <c r="U13" s="41"/>
+      <c r="V13" s="42"/>
+      <c r="W13" s="40" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="33" t="n">
+    <row r="14" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="34" t="n">
         <v>66</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="33" t="s">
+      <c r="D14" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="E14" s="43" t="s">
+      <c r="E14" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="36"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="39" t="s">
+      <c r="F14" s="37"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="K14" s="39" t="s">
+      <c r="K14" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="L14" s="39" t="s">
+      <c r="L14" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="39"/>
-      <c r="R14" s="39"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="33"/>
-      <c r="U14" s="40"/>
-      <c r="V14" s="41"/>
-      <c r="W14" s="39" t="s">
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="34"/>
+      <c r="T14" s="34"/>
+      <c r="U14" s="41"/>
+      <c r="V14" s="42"/>
+      <c r="W14" s="40" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="33" t="n">
+    <row r="15" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="34" t="n">
         <v>67</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="33" t="s">
+      <c r="D15" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="43" t="s">
+      <c r="E15" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="36"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="39" t="s">
+      <c r="F15" s="37"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="K15" s="39" t="s">
+      <c r="K15" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="L15" s="39" t="s">
+      <c r="L15" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="39"/>
-      <c r="S15" s="33"/>
-      <c r="T15" s="33"/>
-      <c r="U15" s="40"/>
-      <c r="V15" s="41"/>
-      <c r="W15" s="39" t="s">
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="34"/>
+      <c r="T15" s="34"/>
+      <c r="U15" s="41"/>
+      <c r="V15" s="42"/>
+      <c r="W15" s="40" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="33" t="n">
+    <row r="16" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="34" t="n">
         <v>68</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="D16" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="E16" s="43" t="s">
+      <c r="E16" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="F16" s="36"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="39" t="s">
+      <c r="F16" s="37"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="K16" s="39" t="s">
+      <c r="K16" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="L16" s="39" t="s">
+      <c r="L16" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="39"/>
-      <c r="R16" s="39"/>
-      <c r="S16" s="33"/>
-      <c r="T16" s="33"/>
-      <c r="U16" s="40"/>
-      <c r="V16" s="41"/>
-      <c r="W16" s="39" t="s">
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="40"/>
+      <c r="S16" s="34"/>
+      <c r="T16" s="34"/>
+      <c r="U16" s="41"/>
+      <c r="V16" s="42"/>
+      <c r="W16" s="40" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="33" t="n">
+    <row r="17" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="34" t="n">
         <v>69</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="33" t="s">
+      <c r="D17" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="43" t="s">
+      <c r="E17" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="F17" s="36" t="n">
+      <c r="F17" s="37" t="n">
         <v>45972</v>
       </c>
-      <c r="G17" s="37" t="s">
+      <c r="G17" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="H17" s="37" t="s">
+      <c r="H17" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="I17" s="38" t="s">
+      <c r="I17" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="J17" s="39" t="s">
+      <c r="J17" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="39" t="s">
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="N17" s="39" t="s">
+      <c r="N17" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="O17" s="39" t="s">
+      <c r="O17" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="P17" s="39" t="s">
+      <c r="P17" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="Q17" s="39" t="s">
+      <c r="Q17" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="R17" s="39" t="s">
+      <c r="R17" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="S17" s="39" t="s">
+      <c r="S17" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="T17" s="33"/>
-      <c r="U17" s="40"/>
-      <c r="V17" s="41"/>
-      <c r="W17" s="39" t="s">
+      <c r="T17" s="34"/>
+      <c r="U17" s="41"/>
+      <c r="V17" s="42"/>
+      <c r="W17" s="40" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="33" t="n">
+    <row r="18" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="34" t="n">
         <v>70</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="33" t="s">
+      <c r="D18" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="E18" s="43" t="s">
+      <c r="E18" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="F18" s="36" t="n">
+      <c r="F18" s="37" t="n">
         <v>45972</v>
       </c>
-      <c r="G18" s="37" t="s">
+      <c r="G18" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="H18" s="37" t="s">
+      <c r="H18" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="I18" s="38" t="s">
+      <c r="I18" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="J18" s="39" t="s">
+      <c r="J18" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="39" t="s">
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="N18" s="39" t="s">
+      <c r="N18" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="O18" s="39" t="s">
+      <c r="O18" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="P18" s="39" t="s">
+      <c r="P18" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="Q18" s="39" t="s">
+      <c r="Q18" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="R18" s="39" t="s">
+      <c r="R18" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="S18" s="39" t="s">
+      <c r="S18" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="T18" s="33"/>
-      <c r="U18" s="40"/>
-      <c r="V18" s="41"/>
-      <c r="W18" s="39" t="s">
+      <c r="T18" s="34"/>
+      <c r="U18" s="41"/>
+      <c r="V18" s="42"/>
+      <c r="W18" s="40" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="33" t="n">
+    <row r="19" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="34" t="n">
         <v>71</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="33" t="s">
+      <c r="D19" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="E19" s="43" t="s">
+      <c r="E19" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="F19" s="36" t="n">
+      <c r="F19" s="37" t="n">
         <v>45972</v>
       </c>
-      <c r="G19" s="37" t="s">
+      <c r="G19" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="H19" s="37" t="s">
+      <c r="H19" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="I19" s="38" t="s">
+      <c r="I19" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="J19" s="39" t="s">
+      <c r="J19" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="39" t="s">
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="N19" s="39" t="s">
+      <c r="N19" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="O19" s="39" t="s">
+      <c r="O19" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="P19" s="39" t="s">
+      <c r="P19" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="Q19" s="39" t="s">
+      <c r="Q19" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="R19" s="39" t="s">
+      <c r="R19" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="S19" s="39" t="s">
+      <c r="S19" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="T19" s="33"/>
-      <c r="U19" s="40"/>
-      <c r="V19" s="41"/>
-      <c r="W19" s="39" t="s">
+      <c r="T19" s="34"/>
+      <c r="U19" s="41"/>
+      <c r="V19" s="42"/>
+      <c r="W19" s="40" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="33" t="n">
+    <row r="20" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="34" t="n">
         <v>72</v>
       </c>
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="33" t="s">
+      <c r="D20" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="E20" s="43" t="s">
+      <c r="E20" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="F20" s="36" t="n">
+      <c r="F20" s="37" t="n">
         <v>45972</v>
       </c>
-      <c r="G20" s="37" t="s">
+      <c r="G20" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="H20" s="37" t="s">
+      <c r="H20" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="I20" s="38" t="s">
+      <c r="I20" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="J20" s="39" t="s">
+      <c r="J20" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="39" t="s">
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="N20" s="39" t="s">
+      <c r="N20" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="O20" s="39" t="s">
+      <c r="O20" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="P20" s="39" t="s">
+      <c r="P20" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="Q20" s="39" t="s">
+      <c r="Q20" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="R20" s="39" t="s">
+      <c r="R20" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="S20" s="39" t="s">
+      <c r="S20" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="T20" s="33"/>
-      <c r="U20" s="40"/>
-      <c r="V20" s="41"/>
-      <c r="W20" s="39" t="s">
+      <c r="T20" s="34"/>
+      <c r="U20" s="41"/>
+      <c r="V20" s="42"/>
+      <c r="W20" s="40" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="33" t="n">
+    <row r="21" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="34" t="n">
         <v>73</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="33" t="s">
+      <c r="D21" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="E21" s="43" t="s">
+      <c r="E21" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F21" s="36" t="n">
+      <c r="F21" s="37" t="n">
         <v>45972</v>
       </c>
-      <c r="G21" s="37" t="s">
+      <c r="G21" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="H21" s="37" t="s">
+      <c r="H21" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="I21" s="38" t="s">
+      <c r="I21" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="J21" s="39" t="s">
+      <c r="J21" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="39" t="s">
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="N21" s="39" t="s">
+      <c r="N21" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="O21" s="39" t="s">
+      <c r="O21" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="P21" s="39" t="s">
+      <c r="P21" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="Q21" s="39" t="s">
+      <c r="Q21" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="R21" s="39" t="s">
+      <c r="R21" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="S21" s="39" t="s">
+      <c r="S21" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="T21" s="33"/>
-      <c r="U21" s="40"/>
-      <c r="V21" s="41"/>
-      <c r="W21" s="39" t="s">
+      <c r="T21" s="34"/>
+      <c r="U21" s="41"/>
+      <c r="V21" s="42"/>
+      <c r="W21" s="40" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="33" t="n">
+    <row r="22" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="34" t="n">
         <v>74</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="33" t="s">
+      <c r="D22" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="E22" s="43" t="s">
+      <c r="E22" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="F22" s="36" t="n">
+      <c r="F22" s="37" t="n">
         <v>45972</v>
       </c>
-      <c r="G22" s="37" t="s">
+      <c r="G22" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="H22" s="37" t="s">
+      <c r="H22" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="I22" s="38" t="s">
+      <c r="I22" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="J22" s="39" t="s">
+      <c r="J22" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="39" t="s">
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="N22" s="39" t="s">
+      <c r="N22" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="O22" s="39" t="s">
+      <c r="O22" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="P22" s="39" t="s">
+      <c r="P22" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="Q22" s="39" t="s">
+      <c r="Q22" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="R22" s="39" t="s">
+      <c r="R22" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="S22" s="39" t="s">
+      <c r="S22" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="T22" s="33"/>
-      <c r="U22" s="40"/>
-      <c r="V22" s="41"/>
-      <c r="W22" s="39" t="s">
+      <c r="T22" s="34"/>
+      <c r="U22" s="41"/>
+      <c r="V22" s="42"/>
+      <c r="W22" s="40" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="33" t="n">
+    <row r="23" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="34" t="n">
         <v>450</v>
       </c>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="33" t="s">
+      <c r="D23" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="E23" s="43" t="s">
+      <c r="E23" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="F23" s="45" t="s">
+      <c r="F23" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="G23" s="37" t="s">
+      <c r="G23" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="H23" s="37" t="s">
+      <c r="H23" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="I23" s="38" t="s">
+      <c r="I23" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="J23" s="39" t="s">
+      <c r="J23" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="39"/>
-      <c r="O23" s="33"/>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="39"/>
-      <c r="R23" s="39"/>
-      <c r="S23" s="33"/>
-      <c r="T23" s="33"/>
-      <c r="U23" s="40"/>
-      <c r="V23" s="41"/>
-      <c r="W23" s="39" t="s">
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="34"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="34"/>
+      <c r="T23" s="34"/>
+      <c r="U23" s="41"/>
+      <c r="V23" s="42"/>
+      <c r="W23" s="40" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="33" t="n">
+    <row r="24" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="34" t="n">
         <v>451</v>
       </c>
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="33" t="s">
+      <c r="D24" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="E24" s="43" t="s">
+      <c r="E24" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="F24" s="45" t="s">
+      <c r="F24" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="G24" s="37" t="s">
+      <c r="G24" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="H24" s="37" t="s">
+      <c r="H24" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="I24" s="38" t="s">
+      <c r="I24" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="J24" s="39" t="s">
+      <c r="J24" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="39"/>
-      <c r="O24" s="33"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="39"/>
-      <c r="S24" s="33"/>
-      <c r="T24" s="33"/>
-      <c r="U24" s="40"/>
-      <c r="V24" s="41"/>
-      <c r="W24" s="39" t="s">
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="40"/>
+      <c r="S24" s="34"/>
+      <c r="T24" s="34"/>
+      <c r="U24" s="41"/>
+      <c r="V24" s="42"/>
+      <c r="W24" s="40" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="33" t="n">
+    <row r="25" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="34" t="n">
         <v>467</v>
       </c>
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="34" t="s">
+      <c r="C25" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="33" t="s">
+      <c r="D25" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="E25" s="43" t="s">
+      <c r="E25" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="F25" s="36" t="n">
+      <c r="F25" s="37" t="n">
         <v>46002</v>
       </c>
-      <c r="G25" s="33" t="s">
+      <c r="G25" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="H25" s="33" t="s">
+      <c r="H25" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="I25" s="39" t="s">
+      <c r="I25" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="J25" s="39" t="s">
+      <c r="J25" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="39" t="s">
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="N25" s="39" t="s">
+      <c r="N25" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="O25" s="39" t="s">
+      <c r="O25" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="P25" s="39" t="s">
+      <c r="P25" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="Q25" s="39" t="s">
+      <c r="Q25" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="R25" s="39" t="s">
+      <c r="R25" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="S25" s="39" t="s">
+      <c r="S25" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="T25" s="33"/>
-      <c r="U25" s="33"/>
-      <c r="V25" s="33"/>
-      <c r="W25" s="33" t="s">
+      <c r="T25" s="34"/>
+      <c r="U25" s="34"/>
+      <c r="V25" s="34"/>
+      <c r="W25" s="34" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18"/>
-      <c r="O26" s="18"/>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="18"/>
-      <c r="R26" s="18"/>
-      <c r="S26" s="18"/>
-      <c r="T26" s="18"/>
-      <c r="U26" s="19"/>
-      <c r="V26" s="20"/>
-      <c r="W26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="20"/>
+      <c r="V26" s="21"/>
+      <c r="W26" s="19"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="18"/>
-      <c r="O27" s="18"/>
-      <c r="P27" s="18"/>
-      <c r="Q27" s="18"/>
-      <c r="R27" s="18"/>
-      <c r="S27" s="18"/>
-      <c r="T27" s="18"/>
-      <c r="U27" s="19"/>
-      <c r="V27" s="20"/>
-      <c r="W27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="20"/>
+      <c r="V27" s="21"/>
+      <c r="W27" s="19"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="18"/>
-      <c r="P28" s="18"/>
-      <c r="Q28" s="18"/>
-      <c r="R28" s="18"/>
-      <c r="S28" s="18"/>
-      <c r="T28" s="18"/>
-      <c r="U28" s="19"/>
-      <c r="V28" s="20"/>
-      <c r="W28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="20"/>
+      <c r="V28" s="21"/>
+      <c r="W28" s="19"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="18"/>
-      <c r="O29" s="18"/>
-      <c r="P29" s="18"/>
-      <c r="Q29" s="18"/>
-      <c r="R29" s="18"/>
-      <c r="S29" s="18"/>
-      <c r="T29" s="18"/>
-      <c r="U29" s="19"/>
-      <c r="V29" s="20"/>
-      <c r="W29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="20"/>
+      <c r="V29" s="21"/>
+      <c r="W29" s="19"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="18"/>
-      <c r="O30" s="18"/>
-      <c r="P30" s="18"/>
-      <c r="Q30" s="18"/>
-      <c r="R30" s="18"/>
-      <c r="S30" s="18"/>
-      <c r="T30" s="18"/>
-      <c r="U30" s="19"/>
-      <c r="V30" s="20"/>
-      <c r="W30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="20"/>
+      <c r="V30" s="21"/>
+      <c r="W30" s="19"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="18"/>
-      <c r="O31" s="18"/>
-      <c r="P31" s="18"/>
-      <c r="Q31" s="18"/>
-      <c r="R31" s="18"/>
-      <c r="S31" s="18"/>
-      <c r="T31" s="18"/>
-      <c r="U31" s="19"/>
-      <c r="V31" s="20"/>
-      <c r="W31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="20"/>
+      <c r="V31" s="21"/>
+      <c r="W31" s="19"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="18"/>
-      <c r="N32" s="18"/>
-      <c r="O32" s="18"/>
-      <c r="P32" s="18"/>
-      <c r="Q32" s="18"/>
-      <c r="R32" s="18"/>
-      <c r="S32" s="18"/>
-      <c r="T32" s="18"/>
-      <c r="U32" s="19"/>
-      <c r="V32" s="20"/>
-      <c r="W32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="19"/>
+      <c r="T32" s="19"/>
+      <c r="U32" s="20"/>
+      <c r="V32" s="21"/>
+      <c r="W32" s="19"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="18"/>
-      <c r="N33" s="18"/>
-      <c r="O33" s="18"/>
-      <c r="P33" s="18"/>
-      <c r="Q33" s="18"/>
-      <c r="R33" s="18"/>
-      <c r="S33" s="18"/>
-      <c r="T33" s="18"/>
-      <c r="U33" s="19"/>
-      <c r="V33" s="20"/>
-      <c r="W33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="19"/>
+      <c r="S33" s="19"/>
+      <c r="T33" s="19"/>
+      <c r="U33" s="20"/>
+      <c r="V33" s="21"/>
+      <c r="W33" s="19"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="18"/>
-      <c r="N34" s="18"/>
-      <c r="O34" s="18"/>
-      <c r="P34" s="18"/>
-      <c r="Q34" s="18"/>
-      <c r="R34" s="18"/>
-      <c r="S34" s="18"/>
-      <c r="T34" s="18"/>
-      <c r="U34" s="19"/>
-      <c r="V34" s="20"/>
-      <c r="W34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="19"/>
+      <c r="S34" s="19"/>
+      <c r="T34" s="19"/>
+      <c r="U34" s="20"/>
+      <c r="V34" s="21"/>
+      <c r="W34" s="19"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="18"/>
-      <c r="M35" s="18"/>
-      <c r="N35" s="18"/>
-      <c r="O35" s="18"/>
-      <c r="P35" s="18"/>
-      <c r="Q35" s="18"/>
-      <c r="R35" s="18"/>
-      <c r="S35" s="18"/>
-      <c r="T35" s="18"/>
-      <c r="U35" s="19"/>
-      <c r="V35" s="20"/>
-      <c r="W35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="19"/>
+      <c r="R35" s="19"/>
+      <c r="S35" s="19"/>
+      <c r="T35" s="19"/>
+      <c r="U35" s="20"/>
+      <c r="V35" s="21"/>
+      <c r="W35" s="19"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="18"/>
-      <c r="O36" s="18"/>
-      <c r="P36" s="18"/>
-      <c r="Q36" s="18"/>
-      <c r="R36" s="18"/>
-      <c r="S36" s="18"/>
-      <c r="T36" s="18"/>
-      <c r="U36" s="19"/>
-      <c r="V36" s="20"/>
-      <c r="W36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="19"/>
+      <c r="R36" s="19"/>
+      <c r="S36" s="19"/>
+      <c r="T36" s="19"/>
+      <c r="U36" s="20"/>
+      <c r="V36" s="21"/>
+      <c r="W36" s="19"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="18"/>
-      <c r="O37" s="18"/>
-      <c r="P37" s="18"/>
-      <c r="Q37" s="18"/>
-      <c r="R37" s="18"/>
-      <c r="S37" s="18"/>
-      <c r="T37" s="18"/>
-      <c r="U37" s="19"/>
-      <c r="V37" s="20"/>
-      <c r="W37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="19"/>
+      <c r="R37" s="19"/>
+      <c r="S37" s="19"/>
+      <c r="T37" s="19"/>
+      <c r="U37" s="20"/>
+      <c r="V37" s="21"/>
+      <c r="W37" s="19"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="18"/>
-      <c r="O38" s="18"/>
-      <c r="P38" s="18"/>
-      <c r="Q38" s="18"/>
-      <c r="R38" s="18"/>
-      <c r="S38" s="18"/>
-      <c r="T38" s="18"/>
-      <c r="U38" s="19"/>
-      <c r="V38" s="20"/>
-      <c r="W38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="19"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="19"/>
+      <c r="S38" s="19"/>
+      <c r="T38" s="19"/>
+      <c r="U38" s="20"/>
+      <c r="V38" s="21"/>
+      <c r="W38" s="19"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
-      <c r="L39" s="18"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="18"/>
-      <c r="O39" s="18"/>
-      <c r="P39" s="18"/>
-      <c r="Q39" s="18"/>
-      <c r="R39" s="18"/>
-      <c r="S39" s="18"/>
-      <c r="T39" s="18"/>
-      <c r="U39" s="19"/>
-      <c r="V39" s="20"/>
-      <c r="W39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="19"/>
+      <c r="O39" s="19"/>
+      <c r="P39" s="19"/>
+      <c r="Q39" s="19"/>
+      <c r="R39" s="19"/>
+      <c r="S39" s="19"/>
+      <c r="T39" s="19"/>
+      <c r="U39" s="20"/>
+      <c r="V39" s="21"/>
+      <c r="W39" s="19"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18"/>
-      <c r="L40" s="18"/>
-      <c r="M40" s="18"/>
-      <c r="N40" s="18"/>
-      <c r="O40" s="18"/>
-      <c r="P40" s="18"/>
-      <c r="Q40" s="18"/>
-      <c r="R40" s="18"/>
-      <c r="S40" s="18"/>
-      <c r="T40" s="18"/>
-      <c r="U40" s="19"/>
-      <c r="V40" s="20"/>
-      <c r="W40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="19"/>
+      <c r="P40" s="19"/>
+      <c r="Q40" s="19"/>
+      <c r="R40" s="19"/>
+      <c r="S40" s="19"/>
+      <c r="T40" s="19"/>
+      <c r="U40" s="20"/>
+      <c r="V40" s="21"/>
+      <c r="W40" s="19"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="18"/>
-      <c r="L41" s="18"/>
-      <c r="M41" s="18"/>
-      <c r="N41" s="18"/>
-      <c r="O41" s="18"/>
-      <c r="P41" s="18"/>
-      <c r="Q41" s="18"/>
-      <c r="R41" s="18"/>
-      <c r="S41" s="18"/>
-      <c r="T41" s="18"/>
-      <c r="U41" s="19"/>
-      <c r="V41" s="20"/>
-      <c r="W41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="19"/>
+      <c r="O41" s="19"/>
+      <c r="P41" s="19"/>
+      <c r="Q41" s="19"/>
+      <c r="R41" s="19"/>
+      <c r="S41" s="19"/>
+      <c r="T41" s="19"/>
+      <c r="U41" s="20"/>
+      <c r="V41" s="21"/>
+      <c r="W41" s="19"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="18"/>
-      <c r="L42" s="18"/>
-      <c r="M42" s="18"/>
-      <c r="N42" s="18"/>
-      <c r="O42" s="18"/>
-      <c r="P42" s="18"/>
-      <c r="Q42" s="18"/>
-      <c r="R42" s="18"/>
-      <c r="S42" s="18"/>
-      <c r="T42" s="18"/>
-      <c r="U42" s="19"/>
-      <c r="V42" s="20"/>
-      <c r="W42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="19"/>
+      <c r="O42" s="19"/>
+      <c r="P42" s="19"/>
+      <c r="Q42" s="19"/>
+      <c r="R42" s="19"/>
+      <c r="S42" s="19"/>
+      <c r="T42" s="19"/>
+      <c r="U42" s="20"/>
+      <c r="V42" s="21"/>
+      <c r="W42" s="19"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="18"/>
-      <c r="K43" s="18"/>
-      <c r="L43" s="18"/>
-      <c r="M43" s="18"/>
-      <c r="N43" s="18"/>
-      <c r="O43" s="18"/>
-      <c r="P43" s="18"/>
-      <c r="Q43" s="18"/>
-      <c r="R43" s="18"/>
-      <c r="S43" s="18"/>
-      <c r="T43" s="18"/>
-      <c r="U43" s="19"/>
-      <c r="V43" s="20"/>
-      <c r="W43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="19"/>
+      <c r="O43" s="19"/>
+      <c r="P43" s="19"/>
+      <c r="Q43" s="19"/>
+      <c r="R43" s="19"/>
+      <c r="S43" s="19"/>
+      <c r="T43" s="19"/>
+      <c r="U43" s="20"/>
+      <c r="V43" s="21"/>
+      <c r="W43" s="19"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="18"/>
-      <c r="K44" s="18"/>
-      <c r="L44" s="18"/>
-      <c r="M44" s="18"/>
-      <c r="N44" s="18"/>
-      <c r="O44" s="18"/>
-      <c r="P44" s="18"/>
-      <c r="Q44" s="18"/>
-      <c r="R44" s="18"/>
-      <c r="S44" s="18"/>
-      <c r="T44" s="18"/>
-      <c r="U44" s="19"/>
-      <c r="V44" s="20"/>
-      <c r="W44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="19"/>
+      <c r="O44" s="19"/>
+      <c r="P44" s="19"/>
+      <c r="Q44" s="19"/>
+      <c r="R44" s="19"/>
+      <c r="S44" s="19"/>
+      <c r="T44" s="19"/>
+      <c r="U44" s="20"/>
+      <c r="V44" s="21"/>
+      <c r="W44" s="19"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="18"/>
-      <c r="K45" s="18"/>
-      <c r="L45" s="18"/>
-      <c r="M45" s="18"/>
-      <c r="N45" s="18"/>
-      <c r="O45" s="18"/>
-      <c r="P45" s="18"/>
-      <c r="Q45" s="18"/>
-      <c r="R45" s="18"/>
-      <c r="S45" s="18"/>
-      <c r="T45" s="18"/>
-      <c r="U45" s="19"/>
-      <c r="V45" s="20"/>
-      <c r="W45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="19"/>
+      <c r="L45" s="19"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="19"/>
+      <c r="O45" s="19"/>
+      <c r="P45" s="19"/>
+      <c r="Q45" s="19"/>
+      <c r="R45" s="19"/>
+      <c r="S45" s="19"/>
+      <c r="T45" s="19"/>
+      <c r="U45" s="20"/>
+      <c r="V45" s="21"/>
+      <c r="W45" s="19"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="18"/>
-      <c r="K46" s="18"/>
-      <c r="L46" s="18"/>
-      <c r="M46" s="18"/>
-      <c r="N46" s="18"/>
-      <c r="O46" s="18"/>
-      <c r="P46" s="18"/>
-      <c r="Q46" s="18"/>
-      <c r="R46" s="18"/>
-      <c r="S46" s="18"/>
-      <c r="T46" s="18"/>
-      <c r="U46" s="19"/>
-      <c r="V46" s="20"/>
-      <c r="W46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="19"/>
+      <c r="L46" s="19"/>
+      <c r="M46" s="19"/>
+      <c r="N46" s="19"/>
+      <c r="O46" s="19"/>
+      <c r="P46" s="19"/>
+      <c r="Q46" s="19"/>
+      <c r="R46" s="19"/>
+      <c r="S46" s="19"/>
+      <c r="T46" s="19"/>
+      <c r="U46" s="20"/>
+      <c r="V46" s="21"/>
+      <c r="W46" s="19"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="18"/>
-      <c r="K47" s="18"/>
-      <c r="L47" s="18"/>
-      <c r="M47" s="18"/>
-      <c r="N47" s="18"/>
-      <c r="O47" s="18"/>
-      <c r="P47" s="18"/>
-      <c r="Q47" s="18"/>
-      <c r="R47" s="18"/>
-      <c r="S47" s="18"/>
-      <c r="T47" s="18"/>
-      <c r="U47" s="19"/>
-      <c r="V47" s="20"/>
-      <c r="W47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="18"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="19"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="19"/>
+      <c r="O47" s="19"/>
+      <c r="P47" s="19"/>
+      <c r="Q47" s="19"/>
+      <c r="R47" s="19"/>
+      <c r="S47" s="19"/>
+      <c r="T47" s="19"/>
+      <c r="U47" s="20"/>
+      <c r="V47" s="21"/>
+      <c r="W47" s="19"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="18"/>
-      <c r="K48" s="18"/>
-      <c r="L48" s="18"/>
-      <c r="M48" s="18"/>
-      <c r="N48" s="18"/>
-      <c r="O48" s="18"/>
-      <c r="P48" s="18"/>
-      <c r="Q48" s="18"/>
-      <c r="R48" s="18"/>
-      <c r="S48" s="18"/>
-      <c r="T48" s="18"/>
-      <c r="U48" s="19"/>
-      <c r="V48" s="20"/>
-      <c r="W48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="18"/>
+      <c r="J48" s="19"/>
+      <c r="K48" s="19"/>
+      <c r="L48" s="19"/>
+      <c r="M48" s="19"/>
+      <c r="N48" s="19"/>
+      <c r="O48" s="19"/>
+      <c r="P48" s="19"/>
+      <c r="Q48" s="19"/>
+      <c r="R48" s="19"/>
+      <c r="S48" s="19"/>
+      <c r="T48" s="19"/>
+      <c r="U48" s="20"/>
+      <c r="V48" s="21"/>
+      <c r="W48" s="19"/>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="18"/>
-      <c r="K49" s="18"/>
-      <c r="L49" s="18"/>
-      <c r="M49" s="18"/>
-      <c r="N49" s="18"/>
-      <c r="O49" s="18"/>
-      <c r="P49" s="18"/>
-      <c r="Q49" s="18"/>
-      <c r="R49" s="18"/>
-      <c r="S49" s="18"/>
-      <c r="T49" s="18"/>
-      <c r="U49" s="19"/>
-      <c r="V49" s="20"/>
-      <c r="W49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="19"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="19"/>
+      <c r="M49" s="19"/>
+      <c r="N49" s="19"/>
+      <c r="O49" s="19"/>
+      <c r="P49" s="19"/>
+      <c r="Q49" s="19"/>
+      <c r="R49" s="19"/>
+      <c r="S49" s="19"/>
+      <c r="T49" s="19"/>
+      <c r="U49" s="20"/>
+      <c r="V49" s="21"/>
+      <c r="W49" s="19"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="18"/>
-      <c r="K50" s="18"/>
-      <c r="L50" s="18"/>
-      <c r="M50" s="18"/>
-      <c r="N50" s="18"/>
-      <c r="O50" s="18"/>
-      <c r="P50" s="18"/>
-      <c r="Q50" s="18"/>
-      <c r="R50" s="18"/>
-      <c r="S50" s="18"/>
-      <c r="T50" s="18"/>
-      <c r="U50" s="19"/>
-      <c r="V50" s="20"/>
-      <c r="W50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="19"/>
+      <c r="K50" s="19"/>
+      <c r="L50" s="19"/>
+      <c r="M50" s="19"/>
+      <c r="N50" s="19"/>
+      <c r="O50" s="19"/>
+      <c r="P50" s="19"/>
+      <c r="Q50" s="19"/>
+      <c r="R50" s="19"/>
+      <c r="S50" s="19"/>
+      <c r="T50" s="19"/>
+      <c r="U50" s="20"/>
+      <c r="V50" s="21"/>
+      <c r="W50" s="19"/>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="18"/>
-      <c r="K51" s="18"/>
-      <c r="L51" s="18"/>
-      <c r="M51" s="18"/>
-      <c r="N51" s="18"/>
-      <c r="O51" s="18"/>
-      <c r="P51" s="18"/>
-      <c r="Q51" s="18"/>
-      <c r="R51" s="18"/>
-      <c r="S51" s="18"/>
-      <c r="T51" s="18"/>
-      <c r="U51" s="19"/>
-      <c r="V51" s="20"/>
-      <c r="W51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="19"/>
+      <c r="M51" s="19"/>
+      <c r="N51" s="19"/>
+      <c r="O51" s="19"/>
+      <c r="P51" s="19"/>
+      <c r="Q51" s="19"/>
+      <c r="R51" s="19"/>
+      <c r="S51" s="19"/>
+      <c r="T51" s="19"/>
+      <c r="U51" s="20"/>
+      <c r="V51" s="21"/>
+      <c r="W51" s="19"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="17"/>
-      <c r="J52" s="18"/>
-      <c r="K52" s="18"/>
-      <c r="L52" s="18"/>
-      <c r="M52" s="18"/>
-      <c r="N52" s="18"/>
-      <c r="O52" s="18"/>
-      <c r="P52" s="18"/>
-      <c r="Q52" s="18"/>
-      <c r="R52" s="18"/>
-      <c r="S52" s="18"/>
-      <c r="T52" s="18"/>
-      <c r="U52" s="19"/>
-      <c r="V52" s="20"/>
-      <c r="W52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="18"/>
+      <c r="J52" s="19"/>
+      <c r="K52" s="19"/>
+      <c r="L52" s="19"/>
+      <c r="M52" s="19"/>
+      <c r="N52" s="19"/>
+      <c r="O52" s="19"/>
+      <c r="P52" s="19"/>
+      <c r="Q52" s="19"/>
+      <c r="R52" s="19"/>
+      <c r="S52" s="19"/>
+      <c r="T52" s="19"/>
+      <c r="U52" s="20"/>
+      <c r="V52" s="21"/>
+      <c r="W52" s="19"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="17"/>
-      <c r="J53" s="18"/>
-      <c r="K53" s="18"/>
-      <c r="L53" s="18"/>
-      <c r="M53" s="18"/>
-      <c r="N53" s="18"/>
-      <c r="O53" s="18"/>
-      <c r="P53" s="18"/>
-      <c r="Q53" s="18"/>
-      <c r="R53" s="18"/>
-      <c r="S53" s="18"/>
-      <c r="T53" s="18"/>
-      <c r="U53" s="19"/>
-      <c r="V53" s="20"/>
-      <c r="W53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="19"/>
+      <c r="K53" s="19"/>
+      <c r="L53" s="19"/>
+      <c r="M53" s="19"/>
+      <c r="N53" s="19"/>
+      <c r="O53" s="19"/>
+      <c r="P53" s="19"/>
+      <c r="Q53" s="19"/>
+      <c r="R53" s="19"/>
+      <c r="S53" s="19"/>
+      <c r="T53" s="19"/>
+      <c r="U53" s="20"/>
+      <c r="V53" s="21"/>
+      <c r="W53" s="19"/>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F54" s="17"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="17"/>
-      <c r="J54" s="18"/>
-      <c r="K54" s="18"/>
-      <c r="L54" s="18"/>
-      <c r="M54" s="18"/>
-      <c r="N54" s="18"/>
-      <c r="O54" s="18"/>
-      <c r="P54" s="18"/>
-      <c r="Q54" s="18"/>
-      <c r="R54" s="18"/>
-      <c r="S54" s="18"/>
-      <c r="T54" s="18"/>
-      <c r="U54" s="19"/>
-      <c r="V54" s="20"/>
-      <c r="W54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="18"/>
+      <c r="J54" s="19"/>
+      <c r="K54" s="19"/>
+      <c r="L54" s="19"/>
+      <c r="M54" s="19"/>
+      <c r="N54" s="19"/>
+      <c r="O54" s="19"/>
+      <c r="P54" s="19"/>
+      <c r="Q54" s="19"/>
+      <c r="R54" s="19"/>
+      <c r="S54" s="19"/>
+      <c r="T54" s="19"/>
+      <c r="U54" s="20"/>
+      <c r="V54" s="21"/>
+      <c r="W54" s="19"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F55" s="17"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="17"/>
-      <c r="I55" s="17"/>
-      <c r="J55" s="18"/>
-      <c r="K55" s="18"/>
-      <c r="L55" s="18"/>
-      <c r="M55" s="18"/>
-      <c r="N55" s="18"/>
-      <c r="O55" s="18"/>
-      <c r="P55" s="18"/>
-      <c r="Q55" s="18"/>
-      <c r="R55" s="18"/>
-      <c r="S55" s="18"/>
-      <c r="T55" s="18"/>
-      <c r="U55" s="19"/>
-      <c r="V55" s="20"/>
-      <c r="W55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="18"/>
+      <c r="J55" s="19"/>
+      <c r="K55" s="19"/>
+      <c r="L55" s="19"/>
+      <c r="M55" s="19"/>
+      <c r="N55" s="19"/>
+      <c r="O55" s="19"/>
+      <c r="P55" s="19"/>
+      <c r="Q55" s="19"/>
+      <c r="R55" s="19"/>
+      <c r="S55" s="19"/>
+      <c r="T55" s="19"/>
+      <c r="U55" s="20"/>
+      <c r="V55" s="21"/>
+      <c r="W55" s="19"/>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="17"/>
-      <c r="J56" s="18"/>
-      <c r="K56" s="18"/>
-      <c r="L56" s="18"/>
-      <c r="M56" s="18"/>
-      <c r="N56" s="18"/>
-      <c r="O56" s="18"/>
-      <c r="P56" s="18"/>
-      <c r="Q56" s="18"/>
-      <c r="R56" s="18"/>
-      <c r="S56" s="18"/>
-      <c r="T56" s="18"/>
-      <c r="U56" s="19"/>
-      <c r="V56" s="20"/>
-      <c r="W56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="18"/>
+      <c r="J56" s="19"/>
+      <c r="K56" s="19"/>
+      <c r="L56" s="19"/>
+      <c r="M56" s="19"/>
+      <c r="N56" s="19"/>
+      <c r="O56" s="19"/>
+      <c r="P56" s="19"/>
+      <c r="Q56" s="19"/>
+      <c r="R56" s="19"/>
+      <c r="S56" s="19"/>
+      <c r="T56" s="19"/>
+      <c r="U56" s="20"/>
+      <c r="V56" s="21"/>
+      <c r="W56" s="19"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F57" s="17"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="17"/>
-      <c r="I57" s="17"/>
-      <c r="J57" s="18"/>
-      <c r="K57" s="18"/>
-      <c r="L57" s="18"/>
-      <c r="M57" s="18"/>
-      <c r="N57" s="18"/>
-      <c r="O57" s="18"/>
-      <c r="P57" s="18"/>
-      <c r="Q57" s="18"/>
-      <c r="R57" s="18"/>
-      <c r="S57" s="18"/>
-      <c r="T57" s="18"/>
-      <c r="U57" s="19"/>
-      <c r="V57" s="20"/>
-      <c r="W57" s="18"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="18"/>
+      <c r="I57" s="18"/>
+      <c r="J57" s="19"/>
+      <c r="K57" s="19"/>
+      <c r="L57" s="19"/>
+      <c r="M57" s="19"/>
+      <c r="N57" s="19"/>
+      <c r="O57" s="19"/>
+      <c r="P57" s="19"/>
+      <c r="Q57" s="19"/>
+      <c r="R57" s="19"/>
+      <c r="S57" s="19"/>
+      <c r="T57" s="19"/>
+      <c r="U57" s="20"/>
+      <c r="V57" s="21"/>
+      <c r="W57" s="19"/>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="17"/>
-      <c r="I58" s="17"/>
-      <c r="J58" s="18"/>
-      <c r="K58" s="18"/>
-      <c r="L58" s="18"/>
-      <c r="M58" s="18"/>
-      <c r="N58" s="18"/>
-      <c r="O58" s="18"/>
-      <c r="P58" s="18"/>
-      <c r="Q58" s="18"/>
-      <c r="R58" s="18"/>
-      <c r="S58" s="18"/>
-      <c r="T58" s="18"/>
-      <c r="U58" s="19"/>
-      <c r="V58" s="20"/>
-      <c r="W58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="19"/>
+      <c r="K58" s="19"/>
+      <c r="L58" s="19"/>
+      <c r="M58" s="19"/>
+      <c r="N58" s="19"/>
+      <c r="O58" s="19"/>
+      <c r="P58" s="19"/>
+      <c r="Q58" s="19"/>
+      <c r="R58" s="19"/>
+      <c r="S58" s="19"/>
+      <c r="T58" s="19"/>
+      <c r="U58" s="20"/>
+      <c r="V58" s="21"/>
+      <c r="W58" s="19"/>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F59" s="17"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="17"/>
-      <c r="I59" s="17"/>
-      <c r="J59" s="18"/>
-      <c r="K59" s="18"/>
-      <c r="L59" s="18"/>
-      <c r="M59" s="18"/>
-      <c r="N59" s="18"/>
-      <c r="O59" s="18"/>
-      <c r="P59" s="18"/>
-      <c r="Q59" s="18"/>
-      <c r="R59" s="18"/>
-      <c r="S59" s="18"/>
-      <c r="T59" s="18"/>
-      <c r="U59" s="19"/>
-      <c r="V59" s="20"/>
-      <c r="W59" s="18"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
+      <c r="J59" s="19"/>
+      <c r="K59" s="19"/>
+      <c r="L59" s="19"/>
+      <c r="M59" s="19"/>
+      <c r="N59" s="19"/>
+      <c r="O59" s="19"/>
+      <c r="P59" s="19"/>
+      <c r="Q59" s="19"/>
+      <c r="R59" s="19"/>
+      <c r="S59" s="19"/>
+      <c r="T59" s="19"/>
+      <c r="U59" s="20"/>
+      <c r="V59" s="21"/>
+      <c r="W59" s="19"/>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F60" s="17"/>
-      <c r="G60" s="17"/>
-      <c r="H60" s="17"/>
-      <c r="I60" s="17"/>
-      <c r="J60" s="18"/>
-      <c r="K60" s="18"/>
-      <c r="L60" s="18"/>
-      <c r="M60" s="18"/>
-      <c r="N60" s="18"/>
-      <c r="O60" s="18"/>
-      <c r="P60" s="18"/>
-      <c r="Q60" s="18"/>
-      <c r="R60" s="18"/>
-      <c r="S60" s="18"/>
-      <c r="T60" s="18"/>
-      <c r="U60" s="19"/>
-      <c r="V60" s="20"/>
-      <c r="W60" s="18"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="18"/>
+      <c r="I60" s="18"/>
+      <c r="J60" s="19"/>
+      <c r="K60" s="19"/>
+      <c r="L60" s="19"/>
+      <c r="M60" s="19"/>
+      <c r="N60" s="19"/>
+      <c r="O60" s="19"/>
+      <c r="P60" s="19"/>
+      <c r="Q60" s="19"/>
+      <c r="R60" s="19"/>
+      <c r="S60" s="19"/>
+      <c r="T60" s="19"/>
+      <c r="U60" s="20"/>
+      <c r="V60" s="21"/>
+      <c r="W60" s="19"/>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F61" s="17"/>
-      <c r="G61" s="17"/>
-      <c r="H61" s="17"/>
-      <c r="I61" s="17"/>
-      <c r="J61" s="18"/>
-      <c r="K61" s="18"/>
-      <c r="L61" s="18"/>
-      <c r="M61" s="18"/>
-      <c r="N61" s="18"/>
-      <c r="O61" s="18"/>
-      <c r="P61" s="18"/>
-      <c r="Q61" s="18"/>
-      <c r="R61" s="18"/>
-      <c r="S61" s="18"/>
-      <c r="T61" s="18"/>
-      <c r="U61" s="19"/>
-      <c r="V61" s="20"/>
-      <c r="W61" s="18"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="18"/>
+      <c r="J61" s="19"/>
+      <c r="K61" s="19"/>
+      <c r="L61" s="19"/>
+      <c r="M61" s="19"/>
+      <c r="N61" s="19"/>
+      <c r="O61" s="19"/>
+      <c r="P61" s="19"/>
+      <c r="Q61" s="19"/>
+      <c r="R61" s="19"/>
+      <c r="S61" s="19"/>
+      <c r="T61" s="19"/>
+      <c r="U61" s="20"/>
+      <c r="V61" s="21"/>
+      <c r="W61" s="19"/>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F62" s="17"/>
-      <c r="G62" s="17"/>
-      <c r="H62" s="17"/>
-      <c r="I62" s="17"/>
-      <c r="J62" s="18"/>
-      <c r="K62" s="18"/>
-      <c r="L62" s="18"/>
-      <c r="M62" s="18"/>
-      <c r="N62" s="18"/>
-      <c r="O62" s="18"/>
-      <c r="P62" s="18"/>
-      <c r="Q62" s="18"/>
-      <c r="R62" s="18"/>
-      <c r="S62" s="18"/>
-      <c r="T62" s="18"/>
-      <c r="U62" s="19"/>
-      <c r="V62" s="20"/>
-      <c r="W62" s="18"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="18"/>
+      <c r="H62" s="18"/>
+      <c r="I62" s="18"/>
+      <c r="J62" s="19"/>
+      <c r="K62" s="19"/>
+      <c r="L62" s="19"/>
+      <c r="M62" s="19"/>
+      <c r="N62" s="19"/>
+      <c r="O62" s="19"/>
+      <c r="P62" s="19"/>
+      <c r="Q62" s="19"/>
+      <c r="R62" s="19"/>
+      <c r="S62" s="19"/>
+      <c r="T62" s="19"/>
+      <c r="U62" s="20"/>
+      <c r="V62" s="21"/>
+      <c r="W62" s="19"/>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F63" s="17"/>
-      <c r="G63" s="17"/>
-      <c r="H63" s="17"/>
-      <c r="I63" s="17"/>
-      <c r="J63" s="18"/>
-      <c r="K63" s="18"/>
-      <c r="L63" s="18"/>
-      <c r="M63" s="18"/>
-      <c r="N63" s="18"/>
-      <c r="O63" s="18"/>
-      <c r="P63" s="18"/>
-      <c r="Q63" s="18"/>
-      <c r="R63" s="18"/>
-      <c r="S63" s="18"/>
-      <c r="T63" s="18"/>
-      <c r="U63" s="19"/>
-      <c r="V63" s="20"/>
-      <c r="W63" s="18"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="18"/>
+      <c r="I63" s="18"/>
+      <c r="J63" s="19"/>
+      <c r="K63" s="19"/>
+      <c r="L63" s="19"/>
+      <c r="M63" s="19"/>
+      <c r="N63" s="19"/>
+      <c r="O63" s="19"/>
+      <c r="P63" s="19"/>
+      <c r="Q63" s="19"/>
+      <c r="R63" s="19"/>
+      <c r="S63" s="19"/>
+      <c r="T63" s="19"/>
+      <c r="U63" s="20"/>
+      <c r="V63" s="21"/>
+      <c r="W63" s="19"/>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F64" s="17"/>
-      <c r="G64" s="17"/>
-      <c r="H64" s="17"/>
-      <c r="I64" s="17"/>
-      <c r="J64" s="18"/>
-      <c r="K64" s="18"/>
-      <c r="L64" s="18"/>
-      <c r="M64" s="18"/>
-      <c r="N64" s="18"/>
-      <c r="O64" s="18"/>
-      <c r="P64" s="18"/>
-      <c r="Q64" s="18"/>
-      <c r="R64" s="18"/>
-      <c r="S64" s="18"/>
-      <c r="T64" s="18"/>
-      <c r="U64" s="19"/>
-      <c r="V64" s="20"/>
-      <c r="W64" s="18"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="18"/>
+      <c r="H64" s="18"/>
+      <c r="I64" s="18"/>
+      <c r="J64" s="19"/>
+      <c r="K64" s="19"/>
+      <c r="L64" s="19"/>
+      <c r="M64" s="19"/>
+      <c r="N64" s="19"/>
+      <c r="O64" s="19"/>
+      <c r="P64" s="19"/>
+      <c r="Q64" s="19"/>
+      <c r="R64" s="19"/>
+      <c r="S64" s="19"/>
+      <c r="T64" s="19"/>
+      <c r="U64" s="20"/>
+      <c r="V64" s="21"/>
+      <c r="W64" s="19"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F65" s="17"/>
-      <c r="G65" s="17"/>
-      <c r="H65" s="17"/>
-      <c r="I65" s="17"/>
-      <c r="J65" s="18"/>
-      <c r="K65" s="18"/>
-      <c r="L65" s="18"/>
-      <c r="M65" s="18"/>
-      <c r="N65" s="18"/>
-      <c r="O65" s="18"/>
-      <c r="P65" s="18"/>
-      <c r="Q65" s="18"/>
-      <c r="R65" s="18"/>
-      <c r="S65" s="18"/>
-      <c r="T65" s="18"/>
-      <c r="U65" s="19"/>
-      <c r="V65" s="20"/>
-      <c r="W65" s="18"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="18"/>
+      <c r="H65" s="18"/>
+      <c r="I65" s="18"/>
+      <c r="J65" s="19"/>
+      <c r="K65" s="19"/>
+      <c r="L65" s="19"/>
+      <c r="M65" s="19"/>
+      <c r="N65" s="19"/>
+      <c r="O65" s="19"/>
+      <c r="P65" s="19"/>
+      <c r="Q65" s="19"/>
+      <c r="R65" s="19"/>
+      <c r="S65" s="19"/>
+      <c r="T65" s="19"/>
+      <c r="U65" s="20"/>
+      <c r="V65" s="21"/>
+      <c r="W65" s="19"/>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F66" s="17"/>
-      <c r="G66" s="17"/>
-      <c r="H66" s="17"/>
-      <c r="I66" s="17"/>
-      <c r="J66" s="18"/>
-      <c r="K66" s="18"/>
-      <c r="L66" s="18"/>
-      <c r="M66" s="18"/>
-      <c r="N66" s="18"/>
-      <c r="O66" s="18"/>
-      <c r="P66" s="18"/>
-      <c r="Q66" s="18"/>
-      <c r="R66" s="18"/>
-      <c r="S66" s="18"/>
-      <c r="T66" s="18"/>
-      <c r="U66" s="19"/>
-      <c r="V66" s="20"/>
-      <c r="W66" s="18"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="18"/>
+      <c r="J66" s="19"/>
+      <c r="K66" s="19"/>
+      <c r="L66" s="19"/>
+      <c r="M66" s="19"/>
+      <c r="N66" s="19"/>
+      <c r="O66" s="19"/>
+      <c r="P66" s="19"/>
+      <c r="Q66" s="19"/>
+      <c r="R66" s="19"/>
+      <c r="S66" s="19"/>
+      <c r="T66" s="19"/>
+      <c r="U66" s="20"/>
+      <c r="V66" s="21"/>
+      <c r="W66" s="19"/>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F67" s="17"/>
-      <c r="G67" s="17"/>
-      <c r="H67" s="17"/>
-      <c r="I67" s="17"/>
-      <c r="J67" s="18"/>
-      <c r="K67" s="18"/>
-      <c r="L67" s="18"/>
-      <c r="M67" s="18"/>
-      <c r="N67" s="18"/>
-      <c r="O67" s="18"/>
-      <c r="P67" s="18"/>
-      <c r="Q67" s="18"/>
-      <c r="R67" s="18"/>
-      <c r="S67" s="18"/>
-      <c r="T67" s="18"/>
-      <c r="U67" s="19"/>
-      <c r="V67" s="20"/>
-      <c r="W67" s="18"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="18"/>
+      <c r="H67" s="18"/>
+      <c r="I67" s="18"/>
+      <c r="J67" s="19"/>
+      <c r="K67" s="19"/>
+      <c r="L67" s="19"/>
+      <c r="M67" s="19"/>
+      <c r="N67" s="19"/>
+      <c r="O67" s="19"/>
+      <c r="P67" s="19"/>
+      <c r="Q67" s="19"/>
+      <c r="R67" s="19"/>
+      <c r="S67" s="19"/>
+      <c r="T67" s="19"/>
+      <c r="U67" s="20"/>
+      <c r="V67" s="21"/>
+      <c r="W67" s="19"/>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F68" s="17"/>
-      <c r="G68" s="17"/>
-      <c r="H68" s="17"/>
-      <c r="I68" s="17"/>
-      <c r="J68" s="18"/>
-      <c r="K68" s="18"/>
-      <c r="L68" s="18"/>
-      <c r="M68" s="18"/>
-      <c r="N68" s="18"/>
-      <c r="O68" s="18"/>
-      <c r="P68" s="18"/>
-      <c r="Q68" s="18"/>
-      <c r="R68" s="18"/>
-      <c r="S68" s="18"/>
-      <c r="T68" s="18"/>
-      <c r="U68" s="19"/>
-      <c r="V68" s="20"/>
-      <c r="W68" s="18"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="18"/>
+      <c r="I68" s="18"/>
+      <c r="J68" s="19"/>
+      <c r="K68" s="19"/>
+      <c r="L68" s="19"/>
+      <c r="M68" s="19"/>
+      <c r="N68" s="19"/>
+      <c r="O68" s="19"/>
+      <c r="P68" s="19"/>
+      <c r="Q68" s="19"/>
+      <c r="R68" s="19"/>
+      <c r="S68" s="19"/>
+      <c r="T68" s="19"/>
+      <c r="U68" s="20"/>
+      <c r="V68" s="21"/>
+      <c r="W68" s="19"/>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F69" s="17"/>
-      <c r="G69" s="17"/>
-      <c r="H69" s="17"/>
-      <c r="I69" s="17"/>
-      <c r="J69" s="18"/>
-      <c r="K69" s="18"/>
-      <c r="L69" s="18"/>
-      <c r="M69" s="18"/>
-      <c r="N69" s="18"/>
-      <c r="O69" s="18"/>
-      <c r="P69" s="18"/>
-      <c r="Q69" s="18"/>
-      <c r="R69" s="18"/>
-      <c r="S69" s="18"/>
-      <c r="T69" s="18"/>
-      <c r="U69" s="19"/>
-      <c r="V69" s="20"/>
-      <c r="W69" s="18"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="18"/>
+      <c r="H69" s="18"/>
+      <c r="I69" s="18"/>
+      <c r="J69" s="19"/>
+      <c r="K69" s="19"/>
+      <c r="L69" s="19"/>
+      <c r="M69" s="19"/>
+      <c r="N69" s="19"/>
+      <c r="O69" s="19"/>
+      <c r="P69" s="19"/>
+      <c r="Q69" s="19"/>
+      <c r="R69" s="19"/>
+      <c r="S69" s="19"/>
+      <c r="T69" s="19"/>
+      <c r="U69" s="20"/>
+      <c r="V69" s="21"/>
+      <c r="W69" s="19"/>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F70" s="17"/>
-      <c r="G70" s="17"/>
-      <c r="H70" s="17"/>
-      <c r="I70" s="17"/>
-      <c r="J70" s="18"/>
-      <c r="K70" s="18"/>
-      <c r="L70" s="18"/>
-      <c r="M70" s="18"/>
-      <c r="N70" s="18"/>
-      <c r="O70" s="18"/>
-      <c r="P70" s="18"/>
-      <c r="Q70" s="18"/>
-      <c r="R70" s="18"/>
-      <c r="S70" s="18"/>
-      <c r="T70" s="18"/>
-      <c r="U70" s="19"/>
-      <c r="V70" s="20"/>
-      <c r="W70" s="18"/>
+      <c r="F70" s="18"/>
+      <c r="G70" s="18"/>
+      <c r="H70" s="18"/>
+      <c r="I70" s="18"/>
+      <c r="J70" s="19"/>
+      <c r="K70" s="19"/>
+      <c r="L70" s="19"/>
+      <c r="M70" s="19"/>
+      <c r="N70" s="19"/>
+      <c r="O70" s="19"/>
+      <c r="P70" s="19"/>
+      <c r="Q70" s="19"/>
+      <c r="R70" s="19"/>
+      <c r="S70" s="19"/>
+      <c r="T70" s="19"/>
+      <c r="U70" s="20"/>
+      <c r="V70" s="21"/>
+      <c r="W70" s="19"/>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F71" s="17"/>
-      <c r="G71" s="17"/>
-      <c r="H71" s="17"/>
-      <c r="I71" s="17"/>
-      <c r="J71" s="18"/>
-      <c r="K71" s="18"/>
-      <c r="L71" s="18"/>
-      <c r="M71" s="18"/>
-      <c r="N71" s="18"/>
-      <c r="O71" s="18"/>
-      <c r="P71" s="18"/>
-      <c r="Q71" s="18"/>
-      <c r="R71" s="18"/>
-      <c r="S71" s="18"/>
-      <c r="T71" s="18"/>
-      <c r="U71" s="19"/>
-      <c r="V71" s="20"/>
-      <c r="W71" s="18"/>
+      <c r="F71" s="18"/>
+      <c r="G71" s="18"/>
+      <c r="H71" s="18"/>
+      <c r="I71" s="18"/>
+      <c r="J71" s="19"/>
+      <c r="K71" s="19"/>
+      <c r="L71" s="19"/>
+      <c r="M71" s="19"/>
+      <c r="N71" s="19"/>
+      <c r="O71" s="19"/>
+      <c r="P71" s="19"/>
+      <c r="Q71" s="19"/>
+      <c r="R71" s="19"/>
+      <c r="S71" s="19"/>
+      <c r="T71" s="19"/>
+      <c r="U71" s="20"/>
+      <c r="V71" s="21"/>
+      <c r="W71" s="19"/>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F72" s="17"/>
-      <c r="G72" s="17"/>
-      <c r="H72" s="17"/>
-      <c r="I72" s="17"/>
-      <c r="J72" s="18"/>
-      <c r="K72" s="18"/>
-      <c r="L72" s="18"/>
-      <c r="M72" s="18"/>
-      <c r="N72" s="18"/>
-      <c r="O72" s="18"/>
-      <c r="P72" s="18"/>
-      <c r="Q72" s="18"/>
-      <c r="R72" s="18"/>
-      <c r="S72" s="18"/>
-      <c r="T72" s="18"/>
-      <c r="U72" s="19"/>
-      <c r="V72" s="20"/>
-      <c r="W72" s="18"/>
+      <c r="F72" s="18"/>
+      <c r="G72" s="18"/>
+      <c r="H72" s="18"/>
+      <c r="I72" s="18"/>
+      <c r="J72" s="19"/>
+      <c r="K72" s="19"/>
+      <c r="L72" s="19"/>
+      <c r="M72" s="19"/>
+      <c r="N72" s="19"/>
+      <c r="O72" s="19"/>
+      <c r="P72" s="19"/>
+      <c r="Q72" s="19"/>
+      <c r="R72" s="19"/>
+      <c r="S72" s="19"/>
+      <c r="T72" s="19"/>
+      <c r="U72" s="20"/>
+      <c r="V72" s="21"/>
+      <c r="W72" s="19"/>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F73" s="17"/>
-      <c r="G73" s="17"/>
-      <c r="H73" s="17"/>
-      <c r="I73" s="17"/>
-      <c r="J73" s="18"/>
-      <c r="K73" s="18"/>
-      <c r="L73" s="18"/>
-      <c r="M73" s="18"/>
-      <c r="N73" s="18"/>
-      <c r="O73" s="18"/>
-      <c r="P73" s="18"/>
-      <c r="Q73" s="18"/>
-      <c r="R73" s="18"/>
-      <c r="S73" s="18"/>
-      <c r="T73" s="18"/>
-      <c r="U73" s="19"/>
-      <c r="V73" s="20"/>
-      <c r="W73" s="18"/>
+      <c r="F73" s="18"/>
+      <c r="G73" s="18"/>
+      <c r="H73" s="18"/>
+      <c r="I73" s="18"/>
+      <c r="J73" s="19"/>
+      <c r="K73" s="19"/>
+      <c r="L73" s="19"/>
+      <c r="M73" s="19"/>
+      <c r="N73" s="19"/>
+      <c r="O73" s="19"/>
+      <c r="P73" s="19"/>
+      <c r="Q73" s="19"/>
+      <c r="R73" s="19"/>
+      <c r="S73" s="19"/>
+      <c r="T73" s="19"/>
+      <c r="U73" s="20"/>
+      <c r="V73" s="21"/>
+      <c r="W73" s="19"/>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F74" s="17"/>
-      <c r="G74" s="17"/>
-      <c r="H74" s="17"/>
-      <c r="I74" s="17"/>
-      <c r="J74" s="18"/>
-      <c r="K74" s="18"/>
-      <c r="L74" s="18"/>
-      <c r="M74" s="18"/>
-      <c r="N74" s="18"/>
-      <c r="O74" s="18"/>
-      <c r="P74" s="18"/>
-      <c r="Q74" s="18"/>
-      <c r="R74" s="18"/>
-      <c r="S74" s="18"/>
-      <c r="T74" s="18"/>
-      <c r="U74" s="19"/>
-      <c r="V74" s="20"/>
-      <c r="W74" s="18"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="18"/>
+      <c r="H74" s="18"/>
+      <c r="I74" s="18"/>
+      <c r="J74" s="19"/>
+      <c r="K74" s="19"/>
+      <c r="L74" s="19"/>
+      <c r="M74" s="19"/>
+      <c r="N74" s="19"/>
+      <c r="O74" s="19"/>
+      <c r="P74" s="19"/>
+      <c r="Q74" s="19"/>
+      <c r="R74" s="19"/>
+      <c r="S74" s="19"/>
+      <c r="T74" s="19"/>
+      <c r="U74" s="20"/>
+      <c r="V74" s="21"/>
+      <c r="W74" s="19"/>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F75" s="17"/>
-      <c r="G75" s="17"/>
-      <c r="H75" s="17"/>
-      <c r="I75" s="17"/>
-      <c r="J75" s="18"/>
-      <c r="K75" s="18"/>
-      <c r="L75" s="18"/>
-      <c r="M75" s="18"/>
-      <c r="N75" s="18"/>
-      <c r="O75" s="18"/>
-      <c r="P75" s="18"/>
-      <c r="Q75" s="18"/>
-      <c r="R75" s="18"/>
-      <c r="S75" s="18"/>
-      <c r="T75" s="18"/>
-      <c r="U75" s="19"/>
-      <c r="V75" s="20"/>
-      <c r="W75" s="18"/>
+      <c r="F75" s="18"/>
+      <c r="G75" s="18"/>
+      <c r="H75" s="18"/>
+      <c r="I75" s="18"/>
+      <c r="J75" s="19"/>
+      <c r="K75" s="19"/>
+      <c r="L75" s="19"/>
+      <c r="M75" s="19"/>
+      <c r="N75" s="19"/>
+      <c r="O75" s="19"/>
+      <c r="P75" s="19"/>
+      <c r="Q75" s="19"/>
+      <c r="R75" s="19"/>
+      <c r="S75" s="19"/>
+      <c r="T75" s="19"/>
+      <c r="U75" s="20"/>
+      <c r="V75" s="21"/>
+      <c r="W75" s="19"/>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F76" s="17"/>
-      <c r="G76" s="17"/>
-      <c r="H76" s="17"/>
-      <c r="I76" s="17"/>
-      <c r="J76" s="18"/>
-      <c r="K76" s="18"/>
-      <c r="L76" s="18"/>
-      <c r="M76" s="18"/>
-      <c r="N76" s="18"/>
-      <c r="O76" s="18"/>
-      <c r="P76" s="18"/>
-      <c r="Q76" s="18"/>
-      <c r="R76" s="18"/>
-      <c r="S76" s="18"/>
-      <c r="T76" s="18"/>
-      <c r="U76" s="19"/>
-      <c r="V76" s="20"/>
-      <c r="W76" s="18"/>
+      <c r="F76" s="18"/>
+      <c r="G76" s="18"/>
+      <c r="H76" s="18"/>
+      <c r="I76" s="18"/>
+      <c r="J76" s="19"/>
+      <c r="K76" s="19"/>
+      <c r="L76" s="19"/>
+      <c r="M76" s="19"/>
+      <c r="N76" s="19"/>
+      <c r="O76" s="19"/>
+      <c r="P76" s="19"/>
+      <c r="Q76" s="19"/>
+      <c r="R76" s="19"/>
+      <c r="S76" s="19"/>
+      <c r="T76" s="19"/>
+      <c r="U76" s="20"/>
+      <c r="V76" s="21"/>
+      <c r="W76" s="19"/>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F77" s="17"/>
-      <c r="G77" s="17"/>
-      <c r="H77" s="17"/>
-      <c r="I77" s="17"/>
-      <c r="J77" s="18"/>
-      <c r="K77" s="18"/>
-      <c r="L77" s="18"/>
-      <c r="M77" s="18"/>
-      <c r="N77" s="18"/>
-      <c r="O77" s="18"/>
-      <c r="P77" s="18"/>
-      <c r="Q77" s="18"/>
-      <c r="R77" s="18"/>
-      <c r="S77" s="18"/>
-      <c r="T77" s="18"/>
-      <c r="U77" s="19"/>
-      <c r="V77" s="20"/>
-      <c r="W77" s="18"/>
+      <c r="F77" s="18"/>
+      <c r="G77" s="18"/>
+      <c r="H77" s="18"/>
+      <c r="I77" s="18"/>
+      <c r="J77" s="19"/>
+      <c r="K77" s="19"/>
+      <c r="L77" s="19"/>
+      <c r="M77" s="19"/>
+      <c r="N77" s="19"/>
+      <c r="O77" s="19"/>
+      <c r="P77" s="19"/>
+      <c r="Q77" s="19"/>
+      <c r="R77" s="19"/>
+      <c r="S77" s="19"/>
+      <c r="T77" s="19"/>
+      <c r="U77" s="20"/>
+      <c r="V77" s="21"/>
+      <c r="W77" s="19"/>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F78" s="17"/>
-      <c r="G78" s="17"/>
-      <c r="H78" s="17"/>
-      <c r="I78" s="17"/>
-      <c r="J78" s="18"/>
-      <c r="K78" s="18"/>
-      <c r="L78" s="18"/>
-      <c r="M78" s="18"/>
-      <c r="N78" s="18"/>
-      <c r="O78" s="18"/>
-      <c r="P78" s="18"/>
-      <c r="Q78" s="18"/>
-      <c r="R78" s="18"/>
-      <c r="S78" s="18"/>
-      <c r="T78" s="18"/>
-      <c r="U78" s="19"/>
-      <c r="V78" s="20"/>
-      <c r="W78" s="18"/>
+      <c r="F78" s="18"/>
+      <c r="G78" s="18"/>
+      <c r="H78" s="18"/>
+      <c r="I78" s="18"/>
+      <c r="J78" s="19"/>
+      <c r="K78" s="19"/>
+      <c r="L78" s="19"/>
+      <c r="M78" s="19"/>
+      <c r="N78" s="19"/>
+      <c r="O78" s="19"/>
+      <c r="P78" s="19"/>
+      <c r="Q78" s="19"/>
+      <c r="R78" s="19"/>
+      <c r="S78" s="19"/>
+      <c r="T78" s="19"/>
+      <c r="U78" s="20"/>
+      <c r="V78" s="21"/>
+      <c r="W78" s="19"/>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F79" s="17"/>
-      <c r="G79" s="17"/>
-      <c r="H79" s="17"/>
-      <c r="I79" s="17"/>
-      <c r="J79" s="18"/>
-      <c r="K79" s="18"/>
-      <c r="L79" s="18"/>
-      <c r="M79" s="18"/>
-      <c r="N79" s="18"/>
-      <c r="O79" s="18"/>
-      <c r="P79" s="18"/>
-      <c r="Q79" s="18"/>
-      <c r="R79" s="18"/>
-      <c r="S79" s="18"/>
-      <c r="T79" s="18"/>
-      <c r="U79" s="19"/>
-      <c r="V79" s="20"/>
-      <c r="W79" s="18"/>
+      <c r="F79" s="18"/>
+      <c r="G79" s="18"/>
+      <c r="H79" s="18"/>
+      <c r="I79" s="18"/>
+      <c r="J79" s="19"/>
+      <c r="K79" s="19"/>
+      <c r="L79" s="19"/>
+      <c r="M79" s="19"/>
+      <c r="N79" s="19"/>
+      <c r="O79" s="19"/>
+      <c r="P79" s="19"/>
+      <c r="Q79" s="19"/>
+      <c r="R79" s="19"/>
+      <c r="S79" s="19"/>
+      <c r="T79" s="19"/>
+      <c r="U79" s="20"/>
+      <c r="V79" s="21"/>
+      <c r="W79" s="19"/>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F80" s="17"/>
-      <c r="G80" s="17"/>
-      <c r="H80" s="17"/>
-      <c r="I80" s="17"/>
-      <c r="J80" s="18"/>
-      <c r="K80" s="18"/>
-      <c r="L80" s="18"/>
-      <c r="M80" s="18"/>
-      <c r="N80" s="18"/>
-      <c r="O80" s="18"/>
-      <c r="P80" s="18"/>
-      <c r="Q80" s="18"/>
-      <c r="R80" s="18"/>
-      <c r="S80" s="18"/>
-      <c r="T80" s="18"/>
-      <c r="U80" s="19"/>
-      <c r="V80" s="20"/>
-      <c r="W80" s="18"/>
+      <c r="F80" s="18"/>
+      <c r="G80" s="18"/>
+      <c r="H80" s="18"/>
+      <c r="I80" s="18"/>
+      <c r="J80" s="19"/>
+      <c r="K80" s="19"/>
+      <c r="L80" s="19"/>
+      <c r="M80" s="19"/>
+      <c r="N80" s="19"/>
+      <c r="O80" s="19"/>
+      <c r="P80" s="19"/>
+      <c r="Q80" s="19"/>
+      <c r="R80" s="19"/>
+      <c r="S80" s="19"/>
+      <c r="T80" s="19"/>
+      <c r="U80" s="20"/>
+      <c r="V80" s="21"/>
+      <c r="W80" s="19"/>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F81" s="17"/>
-      <c r="G81" s="17"/>
-      <c r="H81" s="17"/>
-      <c r="I81" s="17"/>
-      <c r="J81" s="18"/>
-      <c r="K81" s="18"/>
-      <c r="L81" s="18"/>
-      <c r="M81" s="18"/>
-      <c r="N81" s="18"/>
-      <c r="O81" s="18"/>
-      <c r="P81" s="18"/>
-      <c r="Q81" s="18"/>
-      <c r="R81" s="18"/>
-      <c r="S81" s="18"/>
-      <c r="T81" s="18"/>
-      <c r="U81" s="19"/>
-      <c r="V81" s="20"/>
-      <c r="W81" s="18"/>
+      <c r="F81" s="18"/>
+      <c r="G81" s="18"/>
+      <c r="H81" s="18"/>
+      <c r="I81" s="18"/>
+      <c r="J81" s="19"/>
+      <c r="K81" s="19"/>
+      <c r="L81" s="19"/>
+      <c r="M81" s="19"/>
+      <c r="N81" s="19"/>
+      <c r="O81" s="19"/>
+      <c r="P81" s="19"/>
+      <c r="Q81" s="19"/>
+      <c r="R81" s="19"/>
+      <c r="S81" s="19"/>
+      <c r="T81" s="19"/>
+      <c r="U81" s="20"/>
+      <c r="V81" s="21"/>
+      <c r="W81" s="19"/>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F82" s="17"/>
-      <c r="G82" s="17"/>
-      <c r="H82" s="17"/>
-      <c r="I82" s="17"/>
-      <c r="J82" s="18"/>
-      <c r="K82" s="18"/>
-      <c r="L82" s="18"/>
-      <c r="M82" s="18"/>
-      <c r="N82" s="18"/>
-      <c r="O82" s="18"/>
-      <c r="P82" s="18"/>
-      <c r="Q82" s="18"/>
-      <c r="R82" s="18"/>
-      <c r="S82" s="18"/>
-      <c r="T82" s="18"/>
-      <c r="U82" s="19"/>
-      <c r="V82" s="20"/>
-      <c r="W82" s="18"/>
+      <c r="F82" s="18"/>
+      <c r="G82" s="18"/>
+      <c r="H82" s="18"/>
+      <c r="I82" s="18"/>
+      <c r="J82" s="19"/>
+      <c r="K82" s="19"/>
+      <c r="L82" s="19"/>
+      <c r="M82" s="19"/>
+      <c r="N82" s="19"/>
+      <c r="O82" s="19"/>
+      <c r="P82" s="19"/>
+      <c r="Q82" s="19"/>
+      <c r="R82" s="19"/>
+      <c r="S82" s="19"/>
+      <c r="T82" s="19"/>
+      <c r="U82" s="20"/>
+      <c r="V82" s="21"/>
+      <c r="W82" s="19"/>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F83" s="17"/>
-      <c r="G83" s="17"/>
-      <c r="H83" s="17"/>
-      <c r="I83" s="17"/>
-      <c r="J83" s="18"/>
-      <c r="K83" s="18"/>
-      <c r="L83" s="18"/>
-      <c r="M83" s="18"/>
-      <c r="N83" s="18"/>
-      <c r="O83" s="18"/>
-      <c r="P83" s="18"/>
-      <c r="Q83" s="18"/>
-      <c r="R83" s="18"/>
-      <c r="S83" s="18"/>
-      <c r="T83" s="18"/>
-      <c r="U83" s="19"/>
-      <c r="V83" s="20"/>
-      <c r="W83" s="18"/>
+      <c r="F83" s="18"/>
+      <c r="G83" s="18"/>
+      <c r="H83" s="18"/>
+      <c r="I83" s="18"/>
+      <c r="J83" s="19"/>
+      <c r="K83" s="19"/>
+      <c r="L83" s="19"/>
+      <c r="M83" s="19"/>
+      <c r="N83" s="19"/>
+      <c r="O83" s="19"/>
+      <c r="P83" s="19"/>
+      <c r="Q83" s="19"/>
+      <c r="R83" s="19"/>
+      <c r="S83" s="19"/>
+      <c r="T83" s="19"/>
+      <c r="U83" s="20"/>
+      <c r="V83" s="21"/>
+      <c r="W83" s="19"/>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F84" s="17"/>
-      <c r="G84" s="17"/>
-      <c r="H84" s="17"/>
-      <c r="I84" s="17"/>
-      <c r="J84" s="18"/>
-      <c r="K84" s="18"/>
-      <c r="L84" s="18"/>
-      <c r="M84" s="18"/>
-      <c r="N84" s="18"/>
-      <c r="O84" s="18"/>
-      <c r="P84" s="18"/>
-      <c r="Q84" s="18"/>
-      <c r="R84" s="18"/>
-      <c r="S84" s="18"/>
-      <c r="T84" s="18"/>
-      <c r="U84" s="19"/>
-      <c r="V84" s="20"/>
-      <c r="W84" s="18"/>
+      <c r="F84" s="18"/>
+      <c r="G84" s="18"/>
+      <c r="H84" s="18"/>
+      <c r="I84" s="18"/>
+      <c r="J84" s="19"/>
+      <c r="K84" s="19"/>
+      <c r="L84" s="19"/>
+      <c r="M84" s="19"/>
+      <c r="N84" s="19"/>
+      <c r="O84" s="19"/>
+      <c r="P84" s="19"/>
+      <c r="Q84" s="19"/>
+      <c r="R84" s="19"/>
+      <c r="S84" s="19"/>
+      <c r="T84" s="19"/>
+      <c r="U84" s="20"/>
+      <c r="V84" s="21"/>
+      <c r="W84" s="19"/>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F85" s="17"/>
-      <c r="G85" s="17"/>
-      <c r="H85" s="17"/>
-      <c r="I85" s="17"/>
-      <c r="J85" s="18"/>
-      <c r="K85" s="18"/>
-      <c r="L85" s="18"/>
-      <c r="M85" s="18"/>
-      <c r="N85" s="18"/>
-      <c r="O85" s="18"/>
-      <c r="P85" s="18"/>
-      <c r="Q85" s="18"/>
-      <c r="R85" s="18"/>
-      <c r="S85" s="18"/>
-      <c r="T85" s="18"/>
-      <c r="U85" s="19"/>
-      <c r="V85" s="20"/>
-      <c r="W85" s="18"/>
+      <c r="F85" s="18"/>
+      <c r="G85" s="18"/>
+      <c r="H85" s="18"/>
+      <c r="I85" s="18"/>
+      <c r="J85" s="19"/>
+      <c r="K85" s="19"/>
+      <c r="L85" s="19"/>
+      <c r="M85" s="19"/>
+      <c r="N85" s="19"/>
+      <c r="O85" s="19"/>
+      <c r="P85" s="19"/>
+      <c r="Q85" s="19"/>
+      <c r="R85" s="19"/>
+      <c r="S85" s="19"/>
+      <c r="T85" s="19"/>
+      <c r="U85" s="20"/>
+      <c r="V85" s="21"/>
+      <c r="W85" s="19"/>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F86" s="17"/>
-      <c r="G86" s="17"/>
-      <c r="H86" s="17"/>
-      <c r="I86" s="17"/>
-      <c r="J86" s="18"/>
-      <c r="K86" s="18"/>
-      <c r="L86" s="18"/>
-      <c r="M86" s="18"/>
-      <c r="N86" s="18"/>
-      <c r="O86" s="18"/>
-      <c r="P86" s="18"/>
-      <c r="Q86" s="18"/>
-      <c r="R86" s="18"/>
-      <c r="S86" s="18"/>
-      <c r="T86" s="18"/>
-      <c r="U86" s="19"/>
-      <c r="V86" s="20"/>
-      <c r="W86" s="18"/>
+      <c r="F86" s="18"/>
+      <c r="G86" s="18"/>
+      <c r="H86" s="18"/>
+      <c r="I86" s="18"/>
+      <c r="J86" s="19"/>
+      <c r="K86" s="19"/>
+      <c r="L86" s="19"/>
+      <c r="M86" s="19"/>
+      <c r="N86" s="19"/>
+      <c r="O86" s="19"/>
+      <c r="P86" s="19"/>
+      <c r="Q86" s="19"/>
+      <c r="R86" s="19"/>
+      <c r="S86" s="19"/>
+      <c r="T86" s="19"/>
+      <c r="U86" s="20"/>
+      <c r="V86" s="21"/>
+      <c r="W86" s="19"/>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F87" s="17"/>
-      <c r="G87" s="17"/>
-      <c r="H87" s="17"/>
-      <c r="I87" s="17"/>
-      <c r="J87" s="18"/>
-      <c r="K87" s="18"/>
-      <c r="L87" s="18"/>
-      <c r="M87" s="18"/>
-      <c r="N87" s="18"/>
-      <c r="O87" s="18"/>
-      <c r="P87" s="18"/>
-      <c r="Q87" s="18"/>
-      <c r="R87" s="18"/>
-      <c r="S87" s="18"/>
-      <c r="T87" s="18"/>
-      <c r="U87" s="19"/>
-      <c r="V87" s="20"/>
-      <c r="W87" s="18"/>
+      <c r="F87" s="18"/>
+      <c r="G87" s="18"/>
+      <c r="H87" s="18"/>
+      <c r="I87" s="18"/>
+      <c r="J87" s="19"/>
+      <c r="K87" s="19"/>
+      <c r="L87" s="19"/>
+      <c r="M87" s="19"/>
+      <c r="N87" s="19"/>
+      <c r="O87" s="19"/>
+      <c r="P87" s="19"/>
+      <c r="Q87" s="19"/>
+      <c r="R87" s="19"/>
+      <c r="S87" s="19"/>
+      <c r="T87" s="19"/>
+      <c r="U87" s="20"/>
+      <c r="V87" s="21"/>
+      <c r="W87" s="19"/>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F88" s="17"/>
-      <c r="G88" s="17"/>
-      <c r="H88" s="17"/>
-      <c r="I88" s="17"/>
-      <c r="J88" s="18"/>
-      <c r="K88" s="18"/>
-      <c r="L88" s="18"/>
-      <c r="M88" s="18"/>
-      <c r="N88" s="18"/>
-      <c r="O88" s="18"/>
-      <c r="P88" s="18"/>
-      <c r="Q88" s="18"/>
-      <c r="R88" s="18"/>
-      <c r="S88" s="18"/>
-      <c r="T88" s="18"/>
-      <c r="U88" s="19"/>
-      <c r="V88" s="20"/>
-      <c r="W88" s="18"/>
+      <c r="F88" s="18"/>
+      <c r="G88" s="18"/>
+      <c r="H88" s="18"/>
+      <c r="I88" s="18"/>
+      <c r="J88" s="19"/>
+      <c r="K88" s="19"/>
+      <c r="L88" s="19"/>
+      <c r="M88" s="19"/>
+      <c r="N88" s="19"/>
+      <c r="O88" s="19"/>
+      <c r="P88" s="19"/>
+      <c r="Q88" s="19"/>
+      <c r="R88" s="19"/>
+      <c r="S88" s="19"/>
+      <c r="T88" s="19"/>
+      <c r="U88" s="20"/>
+      <c r="V88" s="21"/>
+      <c r="W88" s="19"/>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F89" s="17"/>
-      <c r="G89" s="17"/>
-      <c r="H89" s="17"/>
-      <c r="I89" s="17"/>
-      <c r="J89" s="18"/>
-      <c r="K89" s="18"/>
-      <c r="L89" s="18"/>
-      <c r="M89" s="18"/>
-      <c r="N89" s="18"/>
-      <c r="O89" s="18"/>
-      <c r="P89" s="18"/>
-      <c r="Q89" s="18"/>
-      <c r="R89" s="18"/>
-      <c r="S89" s="18"/>
-      <c r="T89" s="18"/>
-      <c r="U89" s="19"/>
-      <c r="V89" s="20"/>
-      <c r="W89" s="18"/>
+      <c r="F89" s="18"/>
+      <c r="G89" s="18"/>
+      <c r="H89" s="18"/>
+      <c r="I89" s="18"/>
+      <c r="J89" s="19"/>
+      <c r="K89" s="19"/>
+      <c r="L89" s="19"/>
+      <c r="M89" s="19"/>
+      <c r="N89" s="19"/>
+      <c r="O89" s="19"/>
+      <c r="P89" s="19"/>
+      <c r="Q89" s="19"/>
+      <c r="R89" s="19"/>
+      <c r="S89" s="19"/>
+      <c r="T89" s="19"/>
+      <c r="U89" s="20"/>
+      <c r="V89" s="21"/>
+      <c r="W89" s="19"/>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F90" s="17"/>
-      <c r="G90" s="17"/>
-      <c r="H90" s="17"/>
-      <c r="I90" s="17"/>
-      <c r="J90" s="18"/>
-      <c r="K90" s="18"/>
-      <c r="L90" s="18"/>
-      <c r="M90" s="18"/>
-      <c r="N90" s="18"/>
-      <c r="O90" s="18"/>
-      <c r="P90" s="18"/>
-      <c r="Q90" s="18"/>
-      <c r="R90" s="18"/>
-      <c r="S90" s="18"/>
-      <c r="T90" s="18"/>
-      <c r="U90" s="19"/>
-      <c r="V90" s="20"/>
-      <c r="W90" s="18"/>
+      <c r="F90" s="18"/>
+      <c r="G90" s="18"/>
+      <c r="H90" s="18"/>
+      <c r="I90" s="18"/>
+      <c r="J90" s="19"/>
+      <c r="K90" s="19"/>
+      <c r="L90" s="19"/>
+      <c r="M90" s="19"/>
+      <c r="N90" s="19"/>
+      <c r="O90" s="19"/>
+      <c r="P90" s="19"/>
+      <c r="Q90" s="19"/>
+      <c r="R90" s="19"/>
+      <c r="S90" s="19"/>
+      <c r="T90" s="19"/>
+      <c r="U90" s="20"/>
+      <c r="V90" s="21"/>
+      <c r="W90" s="19"/>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F91" s="17"/>
-      <c r="G91" s="17"/>
-      <c r="H91" s="17"/>
-      <c r="I91" s="17"/>
-      <c r="J91" s="18"/>
-      <c r="K91" s="18"/>
-      <c r="L91" s="18"/>
-      <c r="M91" s="18"/>
-      <c r="N91" s="18"/>
-      <c r="O91" s="18"/>
-      <c r="P91" s="18"/>
-      <c r="Q91" s="18"/>
-      <c r="R91" s="18"/>
-      <c r="S91" s="18"/>
-      <c r="T91" s="18"/>
-      <c r="U91" s="19"/>
-      <c r="V91" s="20"/>
-      <c r="W91" s="18"/>
+      <c r="F91" s="18"/>
+      <c r="G91" s="18"/>
+      <c r="H91" s="18"/>
+      <c r="I91" s="18"/>
+      <c r="J91" s="19"/>
+      <c r="K91" s="19"/>
+      <c r="L91" s="19"/>
+      <c r="M91" s="19"/>
+      <c r="N91" s="19"/>
+      <c r="O91" s="19"/>
+      <c r="P91" s="19"/>
+      <c r="Q91" s="19"/>
+      <c r="R91" s="19"/>
+      <c r="S91" s="19"/>
+      <c r="T91" s="19"/>
+      <c r="U91" s="20"/>
+      <c r="V91" s="21"/>
+      <c r="W91" s="19"/>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F92" s="17"/>
-      <c r="G92" s="17"/>
-      <c r="H92" s="17"/>
-      <c r="I92" s="17"/>
-      <c r="J92" s="18"/>
-      <c r="K92" s="18"/>
-      <c r="L92" s="18"/>
-      <c r="M92" s="18"/>
-      <c r="N92" s="18"/>
-      <c r="O92" s="18"/>
-      <c r="P92" s="18"/>
-      <c r="Q92" s="18"/>
-      <c r="R92" s="18"/>
-      <c r="S92" s="18"/>
-      <c r="T92" s="18"/>
-      <c r="U92" s="19"/>
-      <c r="V92" s="20"/>
-      <c r="W92" s="18"/>
+      <c r="F92" s="18"/>
+      <c r="G92" s="18"/>
+      <c r="H92" s="18"/>
+      <c r="I92" s="18"/>
+      <c r="J92" s="19"/>
+      <c r="K92" s="19"/>
+      <c r="L92" s="19"/>
+      <c r="M92" s="19"/>
+      <c r="N92" s="19"/>
+      <c r="O92" s="19"/>
+      <c r="P92" s="19"/>
+      <c r="Q92" s="19"/>
+      <c r="R92" s="19"/>
+      <c r="S92" s="19"/>
+      <c r="T92" s="19"/>
+      <c r="U92" s="20"/>
+      <c r="V92" s="21"/>
+      <c r="W92" s="19"/>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F93" s="17"/>
-      <c r="G93" s="17"/>
-      <c r="H93" s="17"/>
-      <c r="I93" s="17"/>
-      <c r="J93" s="18"/>
-      <c r="K93" s="18"/>
-      <c r="L93" s="18"/>
-      <c r="M93" s="18"/>
-      <c r="N93" s="18"/>
-      <c r="O93" s="18"/>
-      <c r="P93" s="18"/>
-      <c r="Q93" s="18"/>
-      <c r="R93" s="18"/>
-      <c r="S93" s="18"/>
-      <c r="T93" s="18"/>
-      <c r="U93" s="19"/>
-      <c r="V93" s="20"/>
-      <c r="W93" s="18"/>
+      <c r="F93" s="18"/>
+      <c r="G93" s="18"/>
+      <c r="H93" s="18"/>
+      <c r="I93" s="18"/>
+      <c r="J93" s="19"/>
+      <c r="K93" s="19"/>
+      <c r="L93" s="19"/>
+      <c r="M93" s="19"/>
+      <c r="N93" s="19"/>
+      <c r="O93" s="19"/>
+      <c r="P93" s="19"/>
+      <c r="Q93" s="19"/>
+      <c r="R93" s="19"/>
+      <c r="S93" s="19"/>
+      <c r="T93" s="19"/>
+      <c r="U93" s="20"/>
+      <c r="V93" s="21"/>
+      <c r="W93" s="19"/>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F94" s="17"/>
-      <c r="G94" s="17"/>
-      <c r="H94" s="17"/>
-      <c r="I94" s="17"/>
-      <c r="J94" s="18"/>
-      <c r="K94" s="18"/>
-      <c r="L94" s="18"/>
-      <c r="M94" s="18"/>
-      <c r="N94" s="18"/>
-      <c r="O94" s="18"/>
-      <c r="P94" s="18"/>
-      <c r="Q94" s="18"/>
-      <c r="R94" s="18"/>
-      <c r="S94" s="18"/>
-      <c r="T94" s="18"/>
-      <c r="U94" s="19"/>
-      <c r="V94" s="20"/>
-      <c r="W94" s="18"/>
+      <c r="F94" s="18"/>
+      <c r="G94" s="18"/>
+      <c r="H94" s="18"/>
+      <c r="I94" s="18"/>
+      <c r="J94" s="19"/>
+      <c r="K94" s="19"/>
+      <c r="L94" s="19"/>
+      <c r="M94" s="19"/>
+      <c r="N94" s="19"/>
+      <c r="O94" s="19"/>
+      <c r="P94" s="19"/>
+      <c r="Q94" s="19"/>
+      <c r="R94" s="19"/>
+      <c r="S94" s="19"/>
+      <c r="T94" s="19"/>
+      <c r="U94" s="20"/>
+      <c r="V94" s="21"/>
+      <c r="W94" s="19"/>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F95" s="17"/>
-      <c r="G95" s="17"/>
-      <c r="H95" s="17"/>
-      <c r="I95" s="17"/>
-      <c r="J95" s="18"/>
-      <c r="K95" s="18"/>
-      <c r="L95" s="18"/>
-      <c r="M95" s="18"/>
-      <c r="N95" s="18"/>
-      <c r="O95" s="18"/>
-      <c r="P95" s="18"/>
-      <c r="Q95" s="18"/>
-      <c r="R95" s="18"/>
-      <c r="S95" s="18"/>
-      <c r="T95" s="18"/>
-      <c r="U95" s="19"/>
-      <c r="V95" s="20"/>
-      <c r="W95" s="18"/>
+      <c r="F95" s="18"/>
+      <c r="G95" s="18"/>
+      <c r="H95" s="18"/>
+      <c r="I95" s="18"/>
+      <c r="J95" s="19"/>
+      <c r="K95" s="19"/>
+      <c r="L95" s="19"/>
+      <c r="M95" s="19"/>
+      <c r="N95" s="19"/>
+      <c r="O95" s="19"/>
+      <c r="P95" s="19"/>
+      <c r="Q95" s="19"/>
+      <c r="R95" s="19"/>
+      <c r="S95" s="19"/>
+      <c r="T95" s="19"/>
+      <c r="U95" s="20"/>
+      <c r="V95" s="21"/>
+      <c r="W95" s="19"/>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F96" s="17"/>
-      <c r="G96" s="17"/>
-      <c r="H96" s="17"/>
-      <c r="I96" s="17"/>
-      <c r="J96" s="18"/>
-      <c r="K96" s="18"/>
-      <c r="L96" s="18"/>
-      <c r="M96" s="18"/>
-      <c r="N96" s="18"/>
-      <c r="O96" s="18"/>
-      <c r="P96" s="18"/>
-      <c r="Q96" s="18"/>
-      <c r="R96" s="18"/>
-      <c r="S96" s="18"/>
-      <c r="T96" s="18"/>
-      <c r="U96" s="19"/>
-      <c r="V96" s="20"/>
-      <c r="W96" s="18"/>
+      <c r="F96" s="18"/>
+      <c r="G96" s="18"/>
+      <c r="H96" s="18"/>
+      <c r="I96" s="18"/>
+      <c r="J96" s="19"/>
+      <c r="K96" s="19"/>
+      <c r="L96" s="19"/>
+      <c r="M96" s="19"/>
+      <c r="N96" s="19"/>
+      <c r="O96" s="19"/>
+      <c r="P96" s="19"/>
+      <c r="Q96" s="19"/>
+      <c r="R96" s="19"/>
+      <c r="S96" s="19"/>
+      <c r="T96" s="19"/>
+      <c r="U96" s="20"/>
+      <c r="V96" s="21"/>
+      <c r="W96" s="19"/>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F97" s="17"/>
-      <c r="G97" s="17"/>
-      <c r="H97" s="17"/>
-      <c r="I97" s="17"/>
-      <c r="J97" s="18"/>
-      <c r="K97" s="18"/>
-      <c r="L97" s="18"/>
-      <c r="M97" s="18"/>
-      <c r="N97" s="18"/>
-      <c r="O97" s="18"/>
-      <c r="P97" s="18"/>
-      <c r="Q97" s="18"/>
-      <c r="R97" s="18"/>
-      <c r="S97" s="18"/>
-      <c r="T97" s="18"/>
-      <c r="U97" s="19"/>
-      <c r="V97" s="20"/>
-      <c r="W97" s="18"/>
+      <c r="F97" s="18"/>
+      <c r="G97" s="18"/>
+      <c r="H97" s="18"/>
+      <c r="I97" s="18"/>
+      <c r="J97" s="19"/>
+      <c r="K97" s="19"/>
+      <c r="L97" s="19"/>
+      <c r="M97" s="19"/>
+      <c r="N97" s="19"/>
+      <c r="O97" s="19"/>
+      <c r="P97" s="19"/>
+      <c r="Q97" s="19"/>
+      <c r="R97" s="19"/>
+      <c r="S97" s="19"/>
+      <c r="T97" s="19"/>
+      <c r="U97" s="20"/>
+      <c r="V97" s="21"/>
+      <c r="W97" s="19"/>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F98" s="17"/>
-      <c r="G98" s="17"/>
-      <c r="H98" s="17"/>
-      <c r="I98" s="17"/>
-      <c r="J98" s="18"/>
-      <c r="K98" s="18"/>
-      <c r="L98" s="18"/>
-      <c r="M98" s="18"/>
-      <c r="N98" s="18"/>
-      <c r="O98" s="18"/>
-      <c r="P98" s="18"/>
-      <c r="Q98" s="18"/>
-      <c r="R98" s="18"/>
-      <c r="S98" s="18"/>
-      <c r="T98" s="18"/>
-      <c r="U98" s="19"/>
-      <c r="V98" s="20"/>
-      <c r="W98" s="18"/>
+      <c r="F98" s="18"/>
+      <c r="G98" s="18"/>
+      <c r="H98" s="18"/>
+      <c r="I98" s="18"/>
+      <c r="J98" s="19"/>
+      <c r="K98" s="19"/>
+      <c r="L98" s="19"/>
+      <c r="M98" s="19"/>
+      <c r="N98" s="19"/>
+      <c r="O98" s="19"/>
+      <c r="P98" s="19"/>
+      <c r="Q98" s="19"/>
+      <c r="R98" s="19"/>
+      <c r="S98" s="19"/>
+      <c r="T98" s="19"/>
+      <c r="U98" s="20"/>
+      <c r="V98" s="21"/>
+      <c r="W98" s="19"/>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F99" s="17"/>
-      <c r="G99" s="17"/>
-      <c r="H99" s="17"/>
-      <c r="I99" s="17"/>
-      <c r="J99" s="18"/>
-      <c r="K99" s="18"/>
-      <c r="L99" s="18"/>
-      <c r="M99" s="18"/>
-      <c r="N99" s="18"/>
-      <c r="O99" s="18"/>
-      <c r="P99" s="18"/>
-      <c r="Q99" s="18"/>
-      <c r="R99" s="18"/>
-      <c r="S99" s="18"/>
-      <c r="T99" s="18"/>
-      <c r="U99" s="19"/>
-      <c r="V99" s="20"/>
-      <c r="W99" s="18"/>
+      <c r="F99" s="18"/>
+      <c r="G99" s="18"/>
+      <c r="H99" s="18"/>
+      <c r="I99" s="18"/>
+      <c r="J99" s="19"/>
+      <c r="K99" s="19"/>
+      <c r="L99" s="19"/>
+      <c r="M99" s="19"/>
+      <c r="N99" s="19"/>
+      <c r="O99" s="19"/>
+      <c r="P99" s="19"/>
+      <c r="Q99" s="19"/>
+      <c r="R99" s="19"/>
+      <c r="S99" s="19"/>
+      <c r="T99" s="19"/>
+      <c r="U99" s="20"/>
+      <c r="V99" s="21"/>
+      <c r="W99" s="19"/>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F100" s="17"/>
-      <c r="G100" s="17"/>
-      <c r="H100" s="17"/>
-      <c r="I100" s="17"/>
-      <c r="J100" s="18"/>
-      <c r="K100" s="18"/>
-      <c r="L100" s="18"/>
-      <c r="M100" s="18"/>
-      <c r="N100" s="18"/>
-      <c r="O100" s="18"/>
-      <c r="P100" s="18"/>
-      <c r="Q100" s="18"/>
-      <c r="R100" s="18"/>
-      <c r="S100" s="18"/>
-      <c r="T100" s="18"/>
-      <c r="U100" s="19"/>
-      <c r="V100" s="20"/>
-      <c r="W100" s="18"/>
+      <c r="F100" s="18"/>
+      <c r="G100" s="18"/>
+      <c r="H100" s="18"/>
+      <c r="I100" s="18"/>
+      <c r="J100" s="19"/>
+      <c r="K100" s="19"/>
+      <c r="L100" s="19"/>
+      <c r="M100" s="19"/>
+      <c r="N100" s="19"/>
+      <c r="O100" s="19"/>
+      <c r="P100" s="19"/>
+      <c r="Q100" s="19"/>
+      <c r="R100" s="19"/>
+      <c r="S100" s="19"/>
+      <c r="T100" s="19"/>
+      <c r="U100" s="20"/>
+      <c r="V100" s="21"/>
+      <c r="W100" s="19"/>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F101" s="17"/>
-      <c r="G101" s="17"/>
-      <c r="H101" s="17"/>
-      <c r="I101" s="17"/>
-      <c r="J101" s="18"/>
-      <c r="K101" s="18"/>
-      <c r="L101" s="18"/>
-      <c r="M101" s="18"/>
-      <c r="N101" s="18"/>
-      <c r="O101" s="18"/>
-      <c r="P101" s="18"/>
-      <c r="Q101" s="18"/>
-      <c r="R101" s="18"/>
-      <c r="S101" s="18"/>
-      <c r="T101" s="18"/>
-      <c r="U101" s="19"/>
-      <c r="V101" s="20"/>
-      <c r="W101" s="18"/>
+      <c r="F101" s="18"/>
+      <c r="G101" s="18"/>
+      <c r="H101" s="18"/>
+      <c r="I101" s="18"/>
+      <c r="J101" s="19"/>
+      <c r="K101" s="19"/>
+      <c r="L101" s="19"/>
+      <c r="M101" s="19"/>
+      <c r="N101" s="19"/>
+      <c r="O101" s="19"/>
+      <c r="P101" s="19"/>
+      <c r="Q101" s="19"/>
+      <c r="R101" s="19"/>
+      <c r="S101" s="19"/>
+      <c r="T101" s="19"/>
+      <c r="U101" s="20"/>
+      <c r="V101" s="21"/>
+      <c r="W101" s="19"/>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F102" s="17"/>
-      <c r="G102" s="17"/>
-      <c r="H102" s="17"/>
-      <c r="I102" s="17"/>
-      <c r="J102" s="18"/>
-      <c r="K102" s="18"/>
-      <c r="L102" s="18"/>
-      <c r="M102" s="18"/>
-      <c r="N102" s="18"/>
-      <c r="O102" s="18"/>
-      <c r="P102" s="18"/>
-      <c r="Q102" s="18"/>
-      <c r="R102" s="18"/>
-      <c r="S102" s="18"/>
-      <c r="T102" s="18"/>
-      <c r="U102" s="19"/>
-      <c r="V102" s="20"/>
-      <c r="W102" s="18"/>
+      <c r="F102" s="18"/>
+      <c r="G102" s="18"/>
+      <c r="H102" s="18"/>
+      <c r="I102" s="18"/>
+      <c r="J102" s="19"/>
+      <c r="K102" s="19"/>
+      <c r="L102" s="19"/>
+      <c r="M102" s="19"/>
+      <c r="N102" s="19"/>
+      <c r="O102" s="19"/>
+      <c r="P102" s="19"/>
+      <c r="Q102" s="19"/>
+      <c r="R102" s="19"/>
+      <c r="S102" s="19"/>
+      <c r="T102" s="19"/>
+      <c r="U102" s="20"/>
+      <c r="V102" s="21"/>
+      <c r="W102" s="19"/>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F103" s="17"/>
-      <c r="G103" s="17"/>
-      <c r="H103" s="17"/>
-      <c r="I103" s="17"/>
-      <c r="J103" s="18"/>
-      <c r="K103" s="18"/>
-      <c r="L103" s="18"/>
-      <c r="M103" s="18"/>
-      <c r="N103" s="18"/>
-      <c r="O103" s="18"/>
-      <c r="P103" s="18"/>
-      <c r="Q103" s="18"/>
-      <c r="R103" s="18"/>
-      <c r="S103" s="18"/>
-      <c r="T103" s="18"/>
-      <c r="U103" s="19"/>
-      <c r="V103" s="20"/>
-      <c r="W103" s="18"/>
+      <c r="F103" s="18"/>
+      <c r="G103" s="18"/>
+      <c r="H103" s="18"/>
+      <c r="I103" s="18"/>
+      <c r="J103" s="19"/>
+      <c r="K103" s="19"/>
+      <c r="L103" s="19"/>
+      <c r="M103" s="19"/>
+      <c r="N103" s="19"/>
+      <c r="O103" s="19"/>
+      <c r="P103" s="19"/>
+      <c r="Q103" s="19"/>
+      <c r="R103" s="19"/>
+      <c r="S103" s="19"/>
+      <c r="T103" s="19"/>
+      <c r="U103" s="20"/>
+      <c r="V103" s="21"/>
+      <c r="W103" s="19"/>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F104" s="17"/>
-      <c r="G104" s="17"/>
-      <c r="H104" s="17"/>
-      <c r="I104" s="17"/>
-      <c r="J104" s="18"/>
-      <c r="K104" s="18"/>
-      <c r="L104" s="18"/>
-      <c r="M104" s="18"/>
-      <c r="N104" s="18"/>
-      <c r="O104" s="18"/>
-      <c r="P104" s="18"/>
-      <c r="Q104" s="18"/>
-      <c r="R104" s="18"/>
-      <c r="S104" s="18"/>
-      <c r="T104" s="18"/>
-      <c r="U104" s="19"/>
-      <c r="V104" s="20"/>
-      <c r="W104" s="18"/>
+      <c r="F104" s="18"/>
+      <c r="G104" s="18"/>
+      <c r="H104" s="18"/>
+      <c r="I104" s="18"/>
+      <c r="J104" s="19"/>
+      <c r="K104" s="19"/>
+      <c r="L104" s="19"/>
+      <c r="M104" s="19"/>
+      <c r="N104" s="19"/>
+      <c r="O104" s="19"/>
+      <c r="P104" s="19"/>
+      <c r="Q104" s="19"/>
+      <c r="R104" s="19"/>
+      <c r="S104" s="19"/>
+      <c r="T104" s="19"/>
+      <c r="U104" s="20"/>
+      <c r="V104" s="21"/>
+      <c r="W104" s="19"/>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F105" s="17"/>
-      <c r="G105" s="17"/>
-      <c r="H105" s="17"/>
-      <c r="I105" s="17"/>
-      <c r="J105" s="18"/>
-      <c r="K105" s="18"/>
-      <c r="L105" s="18"/>
-      <c r="M105" s="18"/>
-      <c r="N105" s="18"/>
-      <c r="O105" s="18"/>
-      <c r="P105" s="18"/>
-      <c r="Q105" s="18"/>
-      <c r="R105" s="18"/>
-      <c r="S105" s="18"/>
-      <c r="T105" s="18"/>
-      <c r="U105" s="19"/>
-      <c r="V105" s="20"/>
-      <c r="W105" s="18"/>
+      <c r="F105" s="18"/>
+      <c r="G105" s="18"/>
+      <c r="H105" s="18"/>
+      <c r="I105" s="18"/>
+      <c r="J105" s="19"/>
+      <c r="K105" s="19"/>
+      <c r="L105" s="19"/>
+      <c r="M105" s="19"/>
+      <c r="N105" s="19"/>
+      <c r="O105" s="19"/>
+      <c r="P105" s="19"/>
+      <c r="Q105" s="19"/>
+      <c r="R105" s="19"/>
+      <c r="S105" s="19"/>
+      <c r="T105" s="19"/>
+      <c r="U105" s="20"/>
+      <c r="V105" s="21"/>
+      <c r="W105" s="19"/>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F106" s="17"/>
-      <c r="G106" s="17"/>
-      <c r="H106" s="17"/>
-      <c r="I106" s="17"/>
-      <c r="J106" s="18"/>
-      <c r="K106" s="18"/>
-      <c r="L106" s="18"/>
-      <c r="M106" s="18"/>
-      <c r="N106" s="18"/>
-      <c r="O106" s="18"/>
-      <c r="P106" s="18"/>
-      <c r="Q106" s="18"/>
-      <c r="R106" s="18"/>
-      <c r="S106" s="18"/>
-      <c r="T106" s="18"/>
-      <c r="U106" s="19"/>
-      <c r="V106" s="20"/>
-      <c r="W106" s="18"/>
+      <c r="F106" s="18"/>
+      <c r="G106" s="18"/>
+      <c r="H106" s="18"/>
+      <c r="I106" s="18"/>
+      <c r="J106" s="19"/>
+      <c r="K106" s="19"/>
+      <c r="L106" s="19"/>
+      <c r="M106" s="19"/>
+      <c r="N106" s="19"/>
+      <c r="O106" s="19"/>
+      <c r="P106" s="19"/>
+      <c r="Q106" s="19"/>
+      <c r="R106" s="19"/>
+      <c r="S106" s="19"/>
+      <c r="T106" s="19"/>
+      <c r="U106" s="20"/>
+      <c r="V106" s="21"/>
+      <c r="W106" s="19"/>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F107" s="17"/>
-      <c r="G107" s="17"/>
-      <c r="H107" s="17"/>
-      <c r="I107" s="17"/>
-      <c r="J107" s="18"/>
-      <c r="K107" s="18"/>
-      <c r="L107" s="18"/>
-      <c r="M107" s="18"/>
-      <c r="N107" s="18"/>
-      <c r="O107" s="18"/>
-      <c r="P107" s="18"/>
-      <c r="Q107" s="18"/>
-      <c r="R107" s="18"/>
-      <c r="S107" s="18"/>
-      <c r="T107" s="18"/>
-      <c r="U107" s="19"/>
-      <c r="V107" s="20"/>
-      <c r="W107" s="18"/>
+      <c r="F107" s="18"/>
+      <c r="G107" s="18"/>
+      <c r="H107" s="18"/>
+      <c r="I107" s="18"/>
+      <c r="J107" s="19"/>
+      <c r="K107" s="19"/>
+      <c r="L107" s="19"/>
+      <c r="M107" s="19"/>
+      <c r="N107" s="19"/>
+      <c r="O107" s="19"/>
+      <c r="P107" s="19"/>
+      <c r="Q107" s="19"/>
+      <c r="R107" s="19"/>
+      <c r="S107" s="19"/>
+      <c r="T107" s="19"/>
+      <c r="U107" s="20"/>
+      <c r="V107" s="21"/>
+      <c r="W107" s="19"/>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F108" s="17"/>
-      <c r="G108" s="17"/>
-      <c r="H108" s="17"/>
-      <c r="I108" s="17"/>
-      <c r="J108" s="18"/>
-      <c r="K108" s="18"/>
-      <c r="L108" s="18"/>
-      <c r="M108" s="18"/>
-      <c r="N108" s="18"/>
-      <c r="O108" s="18"/>
-      <c r="P108" s="18"/>
-      <c r="Q108" s="18"/>
-      <c r="R108" s="18"/>
-      <c r="S108" s="18"/>
-      <c r="T108" s="18"/>
-      <c r="U108" s="19"/>
-      <c r="V108" s="20"/>
-      <c r="W108" s="18"/>
+      <c r="F108" s="18"/>
+      <c r="G108" s="18"/>
+      <c r="H108" s="18"/>
+      <c r="I108" s="18"/>
+      <c r="J108" s="19"/>
+      <c r="K108" s="19"/>
+      <c r="L108" s="19"/>
+      <c r="M108" s="19"/>
+      <c r="N108" s="19"/>
+      <c r="O108" s="19"/>
+      <c r="P108" s="19"/>
+      <c r="Q108" s="19"/>
+      <c r="R108" s="19"/>
+      <c r="S108" s="19"/>
+      <c r="T108" s="19"/>
+      <c r="U108" s="20"/>
+      <c r="V108" s="21"/>
+      <c r="W108" s="19"/>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F109" s="17"/>
-      <c r="G109" s="17"/>
-      <c r="H109" s="17"/>
-      <c r="I109" s="17"/>
-      <c r="J109" s="18"/>
-      <c r="K109" s="18"/>
-      <c r="L109" s="18"/>
-      <c r="M109" s="18"/>
-      <c r="N109" s="18"/>
-      <c r="O109" s="18"/>
-      <c r="P109" s="18"/>
-      <c r="Q109" s="18"/>
-      <c r="R109" s="18"/>
-      <c r="S109" s="18"/>
-      <c r="T109" s="18"/>
-      <c r="U109" s="19"/>
-      <c r="V109" s="20"/>
-      <c r="W109" s="18"/>
+      <c r="F109" s="18"/>
+      <c r="G109" s="18"/>
+      <c r="H109" s="18"/>
+      <c r="I109" s="18"/>
+      <c r="J109" s="19"/>
+      <c r="K109" s="19"/>
+      <c r="L109" s="19"/>
+      <c r="M109" s="19"/>
+      <c r="N109" s="19"/>
+      <c r="O109" s="19"/>
+      <c r="P109" s="19"/>
+      <c r="Q109" s="19"/>
+      <c r="R109" s="19"/>
+      <c r="S109" s="19"/>
+      <c r="T109" s="19"/>
+      <c r="U109" s="20"/>
+      <c r="V109" s="21"/>
+      <c r="W109" s="19"/>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F110" s="17"/>
-      <c r="G110" s="17"/>
-      <c r="H110" s="17"/>
-      <c r="I110" s="17"/>
-      <c r="J110" s="18"/>
-      <c r="K110" s="18"/>
-      <c r="L110" s="18"/>
-      <c r="M110" s="18"/>
-      <c r="N110" s="18"/>
-      <c r="O110" s="18"/>
-      <c r="P110" s="18"/>
-      <c r="Q110" s="18"/>
-      <c r="R110" s="18"/>
-      <c r="S110" s="18"/>
-      <c r="T110" s="18"/>
-      <c r="U110" s="19"/>
-      <c r="V110" s="20"/>
-      <c r="W110" s="18"/>
+      <c r="F110" s="18"/>
+      <c r="G110" s="18"/>
+      <c r="H110" s="18"/>
+      <c r="I110" s="18"/>
+      <c r="J110" s="19"/>
+      <c r="K110" s="19"/>
+      <c r="L110" s="19"/>
+      <c r="M110" s="19"/>
+      <c r="N110" s="19"/>
+      <c r="O110" s="19"/>
+      <c r="P110" s="19"/>
+      <c r="Q110" s="19"/>
+      <c r="R110" s="19"/>
+      <c r="S110" s="19"/>
+      <c r="T110" s="19"/>
+      <c r="U110" s="20"/>
+      <c r="V110" s="21"/>
+      <c r="W110" s="19"/>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F111" s="17"/>
-      <c r="G111" s="17"/>
-      <c r="H111" s="17"/>
-      <c r="I111" s="17"/>
-      <c r="J111" s="18"/>
-      <c r="K111" s="18"/>
-      <c r="L111" s="18"/>
-      <c r="M111" s="18"/>
-      <c r="N111" s="18"/>
-      <c r="O111" s="18"/>
-      <c r="P111" s="18"/>
-      <c r="Q111" s="18"/>
-      <c r="R111" s="18"/>
-      <c r="S111" s="18"/>
-      <c r="T111" s="18"/>
-      <c r="U111" s="19"/>
-      <c r="V111" s="20"/>
-      <c r="W111" s="18"/>
+      <c r="F111" s="18"/>
+      <c r="G111" s="18"/>
+      <c r="H111" s="18"/>
+      <c r="I111" s="18"/>
+      <c r="J111" s="19"/>
+      <c r="K111" s="19"/>
+      <c r="L111" s="19"/>
+      <c r="M111" s="19"/>
+      <c r="N111" s="19"/>
+      <c r="O111" s="19"/>
+      <c r="P111" s="19"/>
+      <c r="Q111" s="19"/>
+      <c r="R111" s="19"/>
+      <c r="S111" s="19"/>
+      <c r="T111" s="19"/>
+      <c r="U111" s="20"/>
+      <c r="V111" s="21"/>
+      <c r="W111" s="19"/>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F112" s="17"/>
-      <c r="G112" s="17"/>
-      <c r="H112" s="17"/>
-      <c r="I112" s="17"/>
-      <c r="J112" s="18"/>
-      <c r="K112" s="18"/>
-      <c r="L112" s="18"/>
-      <c r="M112" s="18"/>
-      <c r="N112" s="18"/>
-      <c r="O112" s="18"/>
-      <c r="P112" s="18"/>
-      <c r="Q112" s="18"/>
-      <c r="R112" s="18"/>
-      <c r="S112" s="18"/>
-      <c r="T112" s="18"/>
-      <c r="U112" s="19"/>
-      <c r="V112" s="20"/>
-      <c r="W112" s="18"/>
+      <c r="F112" s="18"/>
+      <c r="G112" s="18"/>
+      <c r="H112" s="18"/>
+      <c r="I112" s="18"/>
+      <c r="J112" s="19"/>
+      <c r="K112" s="19"/>
+      <c r="L112" s="19"/>
+      <c r="M112" s="19"/>
+      <c r="N112" s="19"/>
+      <c r="O112" s="19"/>
+      <c r="P112" s="19"/>
+      <c r="Q112" s="19"/>
+      <c r="R112" s="19"/>
+      <c r="S112" s="19"/>
+      <c r="T112" s="19"/>
+      <c r="U112" s="20"/>
+      <c r="V112" s="21"/>
+      <c r="W112" s="19"/>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F113" s="17"/>
-      <c r="G113" s="17"/>
-      <c r="H113" s="17"/>
-      <c r="I113" s="17"/>
-      <c r="J113" s="18"/>
-      <c r="K113" s="18"/>
-      <c r="L113" s="18"/>
-      <c r="M113" s="18"/>
-      <c r="N113" s="18"/>
-      <c r="O113" s="18"/>
-      <c r="P113" s="18"/>
-      <c r="Q113" s="18"/>
-      <c r="R113" s="18"/>
-      <c r="S113" s="18"/>
-      <c r="T113" s="18"/>
-      <c r="U113" s="19"/>
-      <c r="V113" s="20"/>
-      <c r="W113" s="18"/>
+      <c r="F113" s="18"/>
+      <c r="G113" s="18"/>
+      <c r="H113" s="18"/>
+      <c r="I113" s="18"/>
+      <c r="J113" s="19"/>
+      <c r="K113" s="19"/>
+      <c r="L113" s="19"/>
+      <c r="M113" s="19"/>
+      <c r="N113" s="19"/>
+      <c r="O113" s="19"/>
+      <c r="P113" s="19"/>
+      <c r="Q113" s="19"/>
+      <c r="R113" s="19"/>
+      <c r="S113" s="19"/>
+      <c r="T113" s="19"/>
+      <c r="U113" s="20"/>
+      <c r="V113" s="21"/>
+      <c r="W113" s="19"/>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F114" s="17"/>
-      <c r="G114" s="17"/>
-      <c r="H114" s="17"/>
-      <c r="I114" s="17"/>
-      <c r="J114" s="18"/>
-      <c r="K114" s="18"/>
-      <c r="L114" s="18"/>
-      <c r="M114" s="18"/>
-      <c r="N114" s="18"/>
-      <c r="O114" s="18"/>
-      <c r="P114" s="18"/>
-      <c r="Q114" s="18"/>
-      <c r="R114" s="18"/>
-      <c r="S114" s="18"/>
-      <c r="T114" s="18"/>
-      <c r="U114" s="19"/>
-      <c r="V114" s="20"/>
-      <c r="W114" s="18"/>
+      <c r="F114" s="18"/>
+      <c r="G114" s="18"/>
+      <c r="H114" s="18"/>
+      <c r="I114" s="18"/>
+      <c r="J114" s="19"/>
+      <c r="K114" s="19"/>
+      <c r="L114" s="19"/>
+      <c r="M114" s="19"/>
+      <c r="N114" s="19"/>
+      <c r="O114" s="19"/>
+      <c r="P114" s="19"/>
+      <c r="Q114" s="19"/>
+      <c r="R114" s="19"/>
+      <c r="S114" s="19"/>
+      <c r="T114" s="19"/>
+      <c r="U114" s="20"/>
+      <c r="V114" s="21"/>
+      <c r="W114" s="19"/>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F115" s="17"/>
-      <c r="G115" s="17"/>
-      <c r="H115" s="17"/>
-      <c r="I115" s="17"/>
-      <c r="J115" s="18"/>
-      <c r="K115" s="18"/>
-      <c r="L115" s="18"/>
-      <c r="M115" s="18"/>
-      <c r="N115" s="18"/>
-      <c r="O115" s="18"/>
-      <c r="P115" s="18"/>
-      <c r="Q115" s="18"/>
-      <c r="R115" s="18"/>
-      <c r="S115" s="18"/>
-      <c r="T115" s="18"/>
-      <c r="U115" s="19"/>
-      <c r="V115" s="20"/>
-      <c r="W115" s="18"/>
+      <c r="F115" s="18"/>
+      <c r="G115" s="18"/>
+      <c r="H115" s="18"/>
+      <c r="I115" s="18"/>
+      <c r="J115" s="19"/>
+      <c r="K115" s="19"/>
+      <c r="L115" s="19"/>
+      <c r="M115" s="19"/>
+      <c r="N115" s="19"/>
+      <c r="O115" s="19"/>
+      <c r="P115" s="19"/>
+      <c r="Q115" s="19"/>
+      <c r="R115" s="19"/>
+      <c r="S115" s="19"/>
+      <c r="T115" s="19"/>
+      <c r="U115" s="20"/>
+      <c r="V115" s="21"/>
+      <c r="W115" s="19"/>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F116" s="17"/>
-      <c r="G116" s="17"/>
-      <c r="H116" s="17"/>
-      <c r="I116" s="17"/>
-      <c r="J116" s="18"/>
-      <c r="K116" s="18"/>
-      <c r="L116" s="18"/>
-      <c r="M116" s="18"/>
-      <c r="N116" s="18"/>
-      <c r="O116" s="18"/>
-      <c r="P116" s="18"/>
-      <c r="Q116" s="18"/>
-      <c r="R116" s="18"/>
-      <c r="S116" s="18"/>
-      <c r="T116" s="18"/>
-      <c r="U116" s="19"/>
-      <c r="V116" s="20"/>
-      <c r="W116" s="18"/>
+      <c r="F116" s="18"/>
+      <c r="G116" s="18"/>
+      <c r="H116" s="18"/>
+      <c r="I116" s="18"/>
+      <c r="J116" s="19"/>
+      <c r="K116" s="19"/>
+      <c r="L116" s="19"/>
+      <c r="M116" s="19"/>
+      <c r="N116" s="19"/>
+      <c r="O116" s="19"/>
+      <c r="P116" s="19"/>
+      <c r="Q116" s="19"/>
+      <c r="R116" s="19"/>
+      <c r="S116" s="19"/>
+      <c r="T116" s="19"/>
+      <c r="U116" s="20"/>
+      <c r="V116" s="21"/>
+      <c r="W116" s="19"/>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F117" s="17"/>
-      <c r="G117" s="17"/>
-      <c r="H117" s="17"/>
-      <c r="I117" s="17"/>
-      <c r="J117" s="18"/>
-      <c r="K117" s="18"/>
-      <c r="L117" s="18"/>
-      <c r="M117" s="18"/>
-      <c r="N117" s="18"/>
-      <c r="O117" s="18"/>
-      <c r="P117" s="18"/>
-      <c r="Q117" s="18"/>
-      <c r="R117" s="18"/>
-      <c r="S117" s="18"/>
-      <c r="T117" s="18"/>
-      <c r="U117" s="19"/>
-      <c r="V117" s="20"/>
-      <c r="W117" s="18"/>
+      <c r="F117" s="18"/>
+      <c r="G117" s="18"/>
+      <c r="H117" s="18"/>
+      <c r="I117" s="18"/>
+      <c r="J117" s="19"/>
+      <c r="K117" s="19"/>
+      <c r="L117" s="19"/>
+      <c r="M117" s="19"/>
+      <c r="N117" s="19"/>
+      <c r="O117" s="19"/>
+      <c r="P117" s="19"/>
+      <c r="Q117" s="19"/>
+      <c r="R117" s="19"/>
+      <c r="S117" s="19"/>
+      <c r="T117" s="19"/>
+      <c r="U117" s="20"/>
+      <c r="V117" s="21"/>
+      <c r="W117" s="19"/>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F118" s="17"/>
-      <c r="G118" s="17"/>
-      <c r="H118" s="17"/>
-      <c r="I118" s="17"/>
-      <c r="J118" s="18"/>
-      <c r="K118" s="18"/>
-      <c r="L118" s="18"/>
-      <c r="M118" s="18"/>
-      <c r="N118" s="18"/>
-      <c r="O118" s="18"/>
-      <c r="P118" s="18"/>
-      <c r="Q118" s="18"/>
-      <c r="R118" s="18"/>
-      <c r="S118" s="18"/>
-      <c r="T118" s="18"/>
-      <c r="U118" s="19"/>
-      <c r="V118" s="20"/>
-      <c r="W118" s="18"/>
+      <c r="F118" s="18"/>
+      <c r="G118" s="18"/>
+      <c r="H118" s="18"/>
+      <c r="I118" s="18"/>
+      <c r="J118" s="19"/>
+      <c r="K118" s="19"/>
+      <c r="L118" s="19"/>
+      <c r="M118" s="19"/>
+      <c r="N118" s="19"/>
+      <c r="O118" s="19"/>
+      <c r="P118" s="19"/>
+      <c r="Q118" s="19"/>
+      <c r="R118" s="19"/>
+      <c r="S118" s="19"/>
+      <c r="T118" s="19"/>
+      <c r="U118" s="20"/>
+      <c r="V118" s="21"/>
+      <c r="W118" s="19"/>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F119" s="17"/>
-      <c r="G119" s="17"/>
-      <c r="H119" s="17"/>
-      <c r="I119" s="17"/>
-      <c r="J119" s="18"/>
-      <c r="K119" s="18"/>
-      <c r="L119" s="18"/>
-      <c r="M119" s="18"/>
-      <c r="N119" s="18"/>
-      <c r="O119" s="18"/>
-      <c r="P119" s="18"/>
-      <c r="Q119" s="18"/>
-      <c r="R119" s="18"/>
-      <c r="S119" s="18"/>
-      <c r="T119" s="18"/>
-      <c r="U119" s="19"/>
-      <c r="V119" s="20"/>
-      <c r="W119" s="18"/>
+      <c r="F119" s="18"/>
+      <c r="G119" s="18"/>
+      <c r="H119" s="18"/>
+      <c r="I119" s="18"/>
+      <c r="J119" s="19"/>
+      <c r="K119" s="19"/>
+      <c r="L119" s="19"/>
+      <c r="M119" s="19"/>
+      <c r="N119" s="19"/>
+      <c r="O119" s="19"/>
+      <c r="P119" s="19"/>
+      <c r="Q119" s="19"/>
+      <c r="R119" s="19"/>
+      <c r="S119" s="19"/>
+      <c r="T119" s="19"/>
+      <c r="U119" s="20"/>
+      <c r="V119" s="21"/>
+      <c r="W119" s="19"/>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F120" s="17"/>
-      <c r="G120" s="17"/>
-      <c r="H120" s="17"/>
-      <c r="I120" s="17"/>
-      <c r="J120" s="18"/>
-      <c r="K120" s="18"/>
-      <c r="L120" s="18"/>
-      <c r="M120" s="18"/>
-      <c r="N120" s="18"/>
-      <c r="O120" s="18"/>
-      <c r="P120" s="18"/>
-      <c r="Q120" s="18"/>
-      <c r="R120" s="18"/>
-      <c r="S120" s="18"/>
-      <c r="T120" s="18"/>
-      <c r="U120" s="19"/>
-      <c r="V120" s="20"/>
-      <c r="W120" s="18"/>
+      <c r="F120" s="18"/>
+      <c r="G120" s="18"/>
+      <c r="H120" s="18"/>
+      <c r="I120" s="18"/>
+      <c r="J120" s="19"/>
+      <c r="K120" s="19"/>
+      <c r="L120" s="19"/>
+      <c r="M120" s="19"/>
+      <c r="N120" s="19"/>
+      <c r="O120" s="19"/>
+      <c r="P120" s="19"/>
+      <c r="Q120" s="19"/>
+      <c r="R120" s="19"/>
+      <c r="S120" s="19"/>
+      <c r="T120" s="19"/>
+      <c r="U120" s="20"/>
+      <c r="V120" s="21"/>
+      <c r="W120" s="19"/>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F121" s="17"/>
-      <c r="G121" s="17"/>
-      <c r="H121" s="17"/>
-      <c r="I121" s="17"/>
-      <c r="J121" s="18"/>
-      <c r="K121" s="18"/>
-      <c r="L121" s="18"/>
-      <c r="M121" s="18"/>
-      <c r="N121" s="18"/>
-      <c r="O121" s="18"/>
-      <c r="P121" s="18"/>
-      <c r="Q121" s="18"/>
-      <c r="R121" s="18"/>
-      <c r="S121" s="18"/>
-      <c r="T121" s="18"/>
-      <c r="U121" s="19"/>
-      <c r="V121" s="20"/>
-      <c r="W121" s="18"/>
+      <c r="F121" s="18"/>
+      <c r="G121" s="18"/>
+      <c r="H121" s="18"/>
+      <c r="I121" s="18"/>
+      <c r="J121" s="19"/>
+      <c r="K121" s="19"/>
+      <c r="L121" s="19"/>
+      <c r="M121" s="19"/>
+      <c r="N121" s="19"/>
+      <c r="O121" s="19"/>
+      <c r="P121" s="19"/>
+      <c r="Q121" s="19"/>
+      <c r="R121" s="19"/>
+      <c r="S121" s="19"/>
+      <c r="T121" s="19"/>
+      <c r="U121" s="20"/>
+      <c r="V121" s="21"/>
+      <c r="W121" s="19"/>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F122" s="17"/>
-      <c r="G122" s="17"/>
-      <c r="H122" s="17"/>
-      <c r="I122" s="17"/>
-      <c r="J122" s="18"/>
-      <c r="K122" s="18"/>
-      <c r="L122" s="18"/>
-      <c r="M122" s="18"/>
-      <c r="N122" s="18"/>
-      <c r="O122" s="18"/>
-      <c r="P122" s="18"/>
-      <c r="Q122" s="18"/>
-      <c r="R122" s="18"/>
-      <c r="S122" s="18"/>
-      <c r="T122" s="18"/>
-      <c r="U122" s="19"/>
-      <c r="V122" s="20"/>
-      <c r="W122" s="18"/>
+      <c r="F122" s="18"/>
+      <c r="G122" s="18"/>
+      <c r="H122" s="18"/>
+      <c r="I122" s="18"/>
+      <c r="J122" s="19"/>
+      <c r="K122" s="19"/>
+      <c r="L122" s="19"/>
+      <c r="M122" s="19"/>
+      <c r="N122" s="19"/>
+      <c r="O122" s="19"/>
+      <c r="P122" s="19"/>
+      <c r="Q122" s="19"/>
+      <c r="R122" s="19"/>
+      <c r="S122" s="19"/>
+      <c r="T122" s="19"/>
+      <c r="U122" s="20"/>
+      <c r="V122" s="21"/>
+      <c r="W122" s="19"/>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F123" s="17"/>
-      <c r="G123" s="17"/>
-      <c r="H123" s="17"/>
-      <c r="I123" s="17"/>
-      <c r="J123" s="18"/>
-      <c r="K123" s="18"/>
-      <c r="L123" s="18"/>
-      <c r="M123" s="18"/>
-      <c r="N123" s="18"/>
-      <c r="O123" s="18"/>
-      <c r="P123" s="18"/>
-      <c r="Q123" s="18"/>
-      <c r="R123" s="18"/>
-      <c r="S123" s="18"/>
-      <c r="T123" s="18"/>
-      <c r="U123" s="19"/>
-      <c r="V123" s="20"/>
-      <c r="W123" s="18"/>
+      <c r="F123" s="18"/>
+      <c r="G123" s="18"/>
+      <c r="H123" s="18"/>
+      <c r="I123" s="18"/>
+      <c r="J123" s="19"/>
+      <c r="K123" s="19"/>
+      <c r="L123" s="19"/>
+      <c r="M123" s="19"/>
+      <c r="N123" s="19"/>
+      <c r="O123" s="19"/>
+      <c r="P123" s="19"/>
+      <c r="Q123" s="19"/>
+      <c r="R123" s="19"/>
+      <c r="S123" s="19"/>
+      <c r="T123" s="19"/>
+      <c r="U123" s="20"/>
+      <c r="V123" s="21"/>
+      <c r="W123" s="19"/>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F124" s="17"/>
-      <c r="G124" s="17"/>
-      <c r="H124" s="17"/>
-      <c r="I124" s="17"/>
-      <c r="J124" s="18"/>
-      <c r="K124" s="18"/>
-      <c r="L124" s="18"/>
-      <c r="M124" s="18"/>
-      <c r="N124" s="18"/>
-      <c r="O124" s="18"/>
-      <c r="P124" s="18"/>
-      <c r="Q124" s="18"/>
-      <c r="R124" s="18"/>
-      <c r="S124" s="18"/>
-      <c r="T124" s="18"/>
-      <c r="U124" s="19"/>
-      <c r="V124" s="20"/>
-      <c r="W124" s="18"/>
+      <c r="F124" s="18"/>
+      <c r="G124" s="18"/>
+      <c r="H124" s="18"/>
+      <c r="I124" s="18"/>
+      <c r="J124" s="19"/>
+      <c r="K124" s="19"/>
+      <c r="L124" s="19"/>
+      <c r="M124" s="19"/>
+      <c r="N124" s="19"/>
+      <c r="O124" s="19"/>
+      <c r="P124" s="19"/>
+      <c r="Q124" s="19"/>
+      <c r="R124" s="19"/>
+      <c r="S124" s="19"/>
+      <c r="T124" s="19"/>
+      <c r="U124" s="20"/>
+      <c r="V124" s="21"/>
+      <c r="W124" s="19"/>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F125" s="17"/>
-      <c r="G125" s="17"/>
-      <c r="H125" s="17"/>
-      <c r="I125" s="17"/>
-      <c r="J125" s="18"/>
-      <c r="K125" s="18"/>
-      <c r="L125" s="18"/>
-      <c r="M125" s="18"/>
-      <c r="N125" s="18"/>
-      <c r="O125" s="18"/>
-      <c r="P125" s="18"/>
-      <c r="Q125" s="18"/>
-      <c r="R125" s="18"/>
-      <c r="S125" s="18"/>
-      <c r="T125" s="18"/>
-      <c r="U125" s="19"/>
-      <c r="V125" s="20"/>
-      <c r="W125" s="18"/>
+      <c r="F125" s="18"/>
+      <c r="G125" s="18"/>
+      <c r="H125" s="18"/>
+      <c r="I125" s="18"/>
+      <c r="J125" s="19"/>
+      <c r="K125" s="19"/>
+      <c r="L125" s="19"/>
+      <c r="M125" s="19"/>
+      <c r="N125" s="19"/>
+      <c r="O125" s="19"/>
+      <c r="P125" s="19"/>
+      <c r="Q125" s="19"/>
+      <c r="R125" s="19"/>
+      <c r="S125" s="19"/>
+      <c r="T125" s="19"/>
+      <c r="U125" s="20"/>
+      <c r="V125" s="21"/>
+      <c r="W125" s="19"/>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F126" s="17"/>
-      <c r="G126" s="17"/>
-      <c r="H126" s="17"/>
-      <c r="I126" s="17"/>
-      <c r="J126" s="18"/>
-      <c r="K126" s="18"/>
-      <c r="L126" s="18"/>
-      <c r="M126" s="18"/>
-      <c r="N126" s="18"/>
-      <c r="O126" s="18"/>
-      <c r="P126" s="18"/>
-      <c r="Q126" s="18"/>
-      <c r="R126" s="18"/>
-      <c r="S126" s="18"/>
-      <c r="T126" s="18"/>
-      <c r="U126" s="19"/>
-      <c r="V126" s="20"/>
-      <c r="W126" s="18"/>
+      <c r="F126" s="18"/>
+      <c r="G126" s="18"/>
+      <c r="H126" s="18"/>
+      <c r="I126" s="18"/>
+      <c r="J126" s="19"/>
+      <c r="K126" s="19"/>
+      <c r="L126" s="19"/>
+      <c r="M126" s="19"/>
+      <c r="N126" s="19"/>
+      <c r="O126" s="19"/>
+      <c r="P126" s="19"/>
+      <c r="Q126" s="19"/>
+      <c r="R126" s="19"/>
+      <c r="S126" s="19"/>
+      <c r="T126" s="19"/>
+      <c r="U126" s="20"/>
+      <c r="V126" s="21"/>
+      <c r="W126" s="19"/>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F127" s="17"/>
-      <c r="G127" s="17"/>
-      <c r="H127" s="17"/>
-      <c r="I127" s="17"/>
-      <c r="J127" s="18"/>
-      <c r="K127" s="18"/>
-      <c r="L127" s="18"/>
-      <c r="M127" s="18"/>
-      <c r="N127" s="18"/>
-      <c r="O127" s="18"/>
-      <c r="P127" s="18"/>
-      <c r="Q127" s="18"/>
-      <c r="R127" s="18"/>
-      <c r="S127" s="18"/>
-      <c r="T127" s="18"/>
-      <c r="U127" s="19"/>
-      <c r="V127" s="20"/>
-      <c r="W127" s="18"/>
+      <c r="F127" s="18"/>
+      <c r="G127" s="18"/>
+      <c r="H127" s="18"/>
+      <c r="I127" s="18"/>
+      <c r="J127" s="19"/>
+      <c r="K127" s="19"/>
+      <c r="L127" s="19"/>
+      <c r="M127" s="19"/>
+      <c r="N127" s="19"/>
+      <c r="O127" s="19"/>
+      <c r="P127" s="19"/>
+      <c r="Q127" s="19"/>
+      <c r="R127" s="19"/>
+      <c r="S127" s="19"/>
+      <c r="T127" s="19"/>
+      <c r="U127" s="20"/>
+      <c r="V127" s="21"/>
+      <c r="W127" s="19"/>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F128" s="17"/>
-      <c r="G128" s="17"/>
-      <c r="H128" s="17"/>
-      <c r="I128" s="17"/>
-      <c r="J128" s="18"/>
-      <c r="K128" s="18"/>
-      <c r="L128" s="18"/>
-      <c r="M128" s="18"/>
-      <c r="N128" s="18"/>
-      <c r="O128" s="18"/>
-      <c r="P128" s="18"/>
-      <c r="Q128" s="18"/>
-      <c r="R128" s="18"/>
-      <c r="S128" s="18"/>
-      <c r="T128" s="18"/>
-      <c r="U128" s="19"/>
-      <c r="V128" s="20"/>
-      <c r="W128" s="18"/>
+      <c r="F128" s="18"/>
+      <c r="G128" s="18"/>
+      <c r="H128" s="18"/>
+      <c r="I128" s="18"/>
+      <c r="J128" s="19"/>
+      <c r="K128" s="19"/>
+      <c r="L128" s="19"/>
+      <c r="M128" s="19"/>
+      <c r="N128" s="19"/>
+      <c r="O128" s="19"/>
+      <c r="P128" s="19"/>
+      <c r="Q128" s="19"/>
+      <c r="R128" s="19"/>
+      <c r="S128" s="19"/>
+      <c r="T128" s="19"/>
+      <c r="U128" s="20"/>
+      <c r="V128" s="21"/>
+      <c r="W128" s="19"/>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F129" s="17"/>
-      <c r="G129" s="17"/>
-      <c r="H129" s="17"/>
-      <c r="I129" s="17"/>
-      <c r="J129" s="18"/>
-      <c r="K129" s="18"/>
-      <c r="L129" s="18"/>
-      <c r="M129" s="18"/>
-      <c r="N129" s="18"/>
-      <c r="O129" s="18"/>
-      <c r="P129" s="18"/>
-      <c r="Q129" s="18"/>
-      <c r="R129" s="18"/>
-      <c r="S129" s="18"/>
-      <c r="T129" s="18"/>
-      <c r="U129" s="19"/>
-      <c r="V129" s="20"/>
-      <c r="W129" s="18"/>
+      <c r="F129" s="18"/>
+      <c r="G129" s="18"/>
+      <c r="H129" s="18"/>
+      <c r="I129" s="18"/>
+      <c r="J129" s="19"/>
+      <c r="K129" s="19"/>
+      <c r="L129" s="19"/>
+      <c r="M129" s="19"/>
+      <c r="N129" s="19"/>
+      <c r="O129" s="19"/>
+      <c r="P129" s="19"/>
+      <c r="Q129" s="19"/>
+      <c r="R129" s="19"/>
+      <c r="S129" s="19"/>
+      <c r="T129" s="19"/>
+      <c r="U129" s="20"/>
+      <c r="V129" s="21"/>
+      <c r="W129" s="19"/>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F130" s="17"/>
-      <c r="G130" s="17"/>
-      <c r="H130" s="17"/>
-      <c r="I130" s="17"/>
-      <c r="J130" s="18"/>
-      <c r="K130" s="18"/>
-      <c r="L130" s="18"/>
-      <c r="M130" s="18"/>
-      <c r="N130" s="18"/>
-      <c r="O130" s="18"/>
-      <c r="P130" s="18"/>
-      <c r="Q130" s="18"/>
-      <c r="R130" s="18"/>
-      <c r="S130" s="18"/>
-      <c r="T130" s="18"/>
-      <c r="U130" s="19"/>
-      <c r="V130" s="20"/>
-      <c r="W130" s="18"/>
+      <c r="F130" s="18"/>
+      <c r="G130" s="18"/>
+      <c r="H130" s="18"/>
+      <c r="I130" s="18"/>
+      <c r="J130" s="19"/>
+      <c r="K130" s="19"/>
+      <c r="L130" s="19"/>
+      <c r="M130" s="19"/>
+      <c r="N130" s="19"/>
+      <c r="O130" s="19"/>
+      <c r="P130" s="19"/>
+      <c r="Q130" s="19"/>
+      <c r="R130" s="19"/>
+      <c r="S130" s="19"/>
+      <c r="T130" s="19"/>
+      <c r="U130" s="20"/>
+      <c r="V130" s="21"/>
+      <c r="W130" s="19"/>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F131" s="17"/>
-      <c r="G131" s="17"/>
-      <c r="H131" s="17"/>
-      <c r="I131" s="17"/>
-      <c r="J131" s="18"/>
-      <c r="K131" s="18"/>
-      <c r="L131" s="18"/>
-      <c r="M131" s="18"/>
-      <c r="N131" s="18"/>
-      <c r="O131" s="18"/>
-      <c r="P131" s="18"/>
-      <c r="Q131" s="18"/>
-      <c r="R131" s="18"/>
-      <c r="S131" s="18"/>
-      <c r="T131" s="18"/>
-      <c r="U131" s="19"/>
-      <c r="V131" s="20"/>
-      <c r="W131" s="18"/>
+      <c r="F131" s="18"/>
+      <c r="G131" s="18"/>
+      <c r="H131" s="18"/>
+      <c r="I131" s="18"/>
+      <c r="J131" s="19"/>
+      <c r="K131" s="19"/>
+      <c r="L131" s="19"/>
+      <c r="M131" s="19"/>
+      <c r="N131" s="19"/>
+      <c r="O131" s="19"/>
+      <c r="P131" s="19"/>
+      <c r="Q131" s="19"/>
+      <c r="R131" s="19"/>
+      <c r="S131" s="19"/>
+      <c r="T131" s="19"/>
+      <c r="U131" s="20"/>
+      <c r="V131" s="21"/>
+      <c r="W131" s="19"/>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F132" s="17"/>
-      <c r="G132" s="17"/>
-      <c r="H132" s="17"/>
-      <c r="I132" s="17"/>
-      <c r="J132" s="18"/>
-      <c r="K132" s="18"/>
-      <c r="L132" s="18"/>
-      <c r="M132" s="18"/>
-      <c r="N132" s="18"/>
-      <c r="O132" s="18"/>
-      <c r="P132" s="18"/>
-      <c r="Q132" s="18"/>
-      <c r="R132" s="18"/>
-      <c r="S132" s="18"/>
-      <c r="T132" s="18"/>
-      <c r="U132" s="19"/>
-      <c r="V132" s="20"/>
-      <c r="W132" s="18"/>
+      <c r="F132" s="18"/>
+      <c r="G132" s="18"/>
+      <c r="H132" s="18"/>
+      <c r="I132" s="18"/>
+      <c r="J132" s="19"/>
+      <c r="K132" s="19"/>
+      <c r="L132" s="19"/>
+      <c r="M132" s="19"/>
+      <c r="N132" s="19"/>
+      <c r="O132" s="19"/>
+      <c r="P132" s="19"/>
+      <c r="Q132" s="19"/>
+      <c r="R132" s="19"/>
+      <c r="S132" s="19"/>
+      <c r="T132" s="19"/>
+      <c r="U132" s="20"/>
+      <c r="V132" s="21"/>
+      <c r="W132" s="19"/>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F133" s="17"/>
-      <c r="G133" s="17"/>
-      <c r="H133" s="17"/>
-      <c r="I133" s="17"/>
-      <c r="J133" s="18"/>
-      <c r="K133" s="18"/>
-      <c r="L133" s="18"/>
-      <c r="M133" s="18"/>
-      <c r="N133" s="18"/>
-      <c r="O133" s="18"/>
-      <c r="P133" s="18"/>
-      <c r="Q133" s="18"/>
-      <c r="R133" s="18"/>
-      <c r="S133" s="18"/>
-      <c r="T133" s="18"/>
-      <c r="U133" s="19"/>
-      <c r="V133" s="20"/>
-      <c r="W133" s="18"/>
+      <c r="F133" s="18"/>
+      <c r="G133" s="18"/>
+      <c r="H133" s="18"/>
+      <c r="I133" s="18"/>
+      <c r="J133" s="19"/>
+      <c r="K133" s="19"/>
+      <c r="L133" s="19"/>
+      <c r="M133" s="19"/>
+      <c r="N133" s="19"/>
+      <c r="O133" s="19"/>
+      <c r="P133" s="19"/>
+      <c r="Q133" s="19"/>
+      <c r="R133" s="19"/>
+      <c r="S133" s="19"/>
+      <c r="T133" s="19"/>
+      <c r="U133" s="20"/>
+      <c r="V133" s="21"/>
+      <c r="W133" s="19"/>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F134" s="17"/>
-      <c r="G134" s="17"/>
-      <c r="H134" s="17"/>
-      <c r="I134" s="17"/>
-      <c r="J134" s="18"/>
-      <c r="K134" s="18"/>
-      <c r="L134" s="18"/>
-      <c r="M134" s="18"/>
-      <c r="N134" s="18"/>
-      <c r="O134" s="18"/>
-      <c r="P134" s="18"/>
-      <c r="Q134" s="18"/>
-      <c r="R134" s="18"/>
-      <c r="S134" s="18"/>
-      <c r="T134" s="18"/>
-      <c r="U134" s="19"/>
-      <c r="V134" s="20"/>
-      <c r="W134" s="18"/>
+      <c r="F134" s="18"/>
+      <c r="G134" s="18"/>
+      <c r="H134" s="18"/>
+      <c r="I134" s="18"/>
+      <c r="J134" s="19"/>
+      <c r="K134" s="19"/>
+      <c r="L134" s="19"/>
+      <c r="M134" s="19"/>
+      <c r="N134" s="19"/>
+      <c r="O134" s="19"/>
+      <c r="P134" s="19"/>
+      <c r="Q134" s="19"/>
+      <c r="R134" s="19"/>
+      <c r="S134" s="19"/>
+      <c r="T134" s="19"/>
+      <c r="U134" s="20"/>
+      <c r="V134" s="21"/>
+      <c r="W134" s="19"/>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F135" s="17"/>
-      <c r="G135" s="17"/>
-      <c r="H135" s="17"/>
-      <c r="I135" s="17"/>
-      <c r="J135" s="18"/>
-      <c r="K135" s="18"/>
-      <c r="L135" s="18"/>
-      <c r="M135" s="18"/>
-      <c r="N135" s="18"/>
-      <c r="O135" s="18"/>
-      <c r="P135" s="18"/>
-      <c r="Q135" s="18"/>
-      <c r="R135" s="18"/>
-      <c r="S135" s="18"/>
-      <c r="T135" s="18"/>
-      <c r="U135" s="19"/>
-      <c r="V135" s="20"/>
-      <c r="W135" s="18"/>
+      <c r="F135" s="18"/>
+      <c r="G135" s="18"/>
+      <c r="H135" s="18"/>
+      <c r="I135" s="18"/>
+      <c r="J135" s="19"/>
+      <c r="K135" s="19"/>
+      <c r="L135" s="19"/>
+      <c r="M135" s="19"/>
+      <c r="N135" s="19"/>
+      <c r="O135" s="19"/>
+      <c r="P135" s="19"/>
+      <c r="Q135" s="19"/>
+      <c r="R135" s="19"/>
+      <c r="S135" s="19"/>
+      <c r="T135" s="19"/>
+      <c r="U135" s="20"/>
+      <c r="V135" s="21"/>
+      <c r="W135" s="19"/>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F136" s="17"/>
-      <c r="G136" s="17"/>
-      <c r="H136" s="17"/>
-      <c r="I136" s="17"/>
-      <c r="J136" s="18"/>
-      <c r="K136" s="18"/>
-      <c r="L136" s="18"/>
-      <c r="M136" s="18"/>
-      <c r="N136" s="18"/>
-      <c r="O136" s="18"/>
-      <c r="P136" s="18"/>
-      <c r="Q136" s="18"/>
-      <c r="R136" s="18"/>
-      <c r="S136" s="18"/>
-      <c r="T136" s="18"/>
-      <c r="U136" s="19"/>
-      <c r="V136" s="20"/>
-      <c r="W136" s="18"/>
+      <c r="F136" s="18"/>
+      <c r="G136" s="18"/>
+      <c r="H136" s="18"/>
+      <c r="I136" s="18"/>
+      <c r="J136" s="19"/>
+      <c r="K136" s="19"/>
+      <c r="L136" s="19"/>
+      <c r="M136" s="19"/>
+      <c r="N136" s="19"/>
+      <c r="O136" s="19"/>
+      <c r="P136" s="19"/>
+      <c r="Q136" s="19"/>
+      <c r="R136" s="19"/>
+      <c r="S136" s="19"/>
+      <c r="T136" s="19"/>
+      <c r="U136" s="20"/>
+      <c r="V136" s="21"/>
+      <c r="W136" s="19"/>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F137" s="17"/>
-      <c r="G137" s="17"/>
-      <c r="H137" s="17"/>
-      <c r="I137" s="17"/>
-      <c r="J137" s="18"/>
-      <c r="K137" s="18"/>
-      <c r="L137" s="18"/>
-      <c r="M137" s="18"/>
-      <c r="N137" s="18"/>
-      <c r="O137" s="18"/>
-      <c r="P137" s="18"/>
-      <c r="Q137" s="18"/>
-      <c r="R137" s="18"/>
-      <c r="S137" s="18"/>
-      <c r="T137" s="18"/>
-      <c r="U137" s="19"/>
-      <c r="V137" s="20"/>
-      <c r="W137" s="18"/>
+      <c r="F137" s="18"/>
+      <c r="G137" s="18"/>
+      <c r="H137" s="18"/>
+      <c r="I137" s="18"/>
+      <c r="J137" s="19"/>
+      <c r="K137" s="19"/>
+      <c r="L137" s="19"/>
+      <c r="M137" s="19"/>
+      <c r="N137" s="19"/>
+      <c r="O137" s="19"/>
+      <c r="P137" s="19"/>
+      <c r="Q137" s="19"/>
+      <c r="R137" s="19"/>
+      <c r="S137" s="19"/>
+      <c r="T137" s="19"/>
+      <c r="U137" s="20"/>
+      <c r="V137" s="21"/>
+      <c r="W137" s="19"/>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F138" s="17"/>
-      <c r="G138" s="17"/>
-      <c r="H138" s="17"/>
-      <c r="I138" s="17"/>
-      <c r="J138" s="18"/>
-      <c r="K138" s="18"/>
-      <c r="L138" s="18"/>
-      <c r="M138" s="18"/>
-      <c r="N138" s="18"/>
-      <c r="O138" s="18"/>
-      <c r="P138" s="18"/>
-      <c r="Q138" s="18"/>
-      <c r="R138" s="18"/>
-      <c r="S138" s="18"/>
-      <c r="T138" s="18"/>
-      <c r="U138" s="19"/>
-      <c r="V138" s="20"/>
-      <c r="W138" s="18"/>
+      <c r="F138" s="18"/>
+      <c r="G138" s="18"/>
+      <c r="H138" s="18"/>
+      <c r="I138" s="18"/>
+      <c r="J138" s="19"/>
+      <c r="K138" s="19"/>
+      <c r="L138" s="19"/>
+      <c r="M138" s="19"/>
+      <c r="N138" s="19"/>
+      <c r="O138" s="19"/>
+      <c r="P138" s="19"/>
+      <c r="Q138" s="19"/>
+      <c r="R138" s="19"/>
+      <c r="S138" s="19"/>
+      <c r="T138" s="19"/>
+      <c r="U138" s="20"/>
+      <c r="V138" s="21"/>
+      <c r="W138" s="19"/>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F139" s="17"/>
-      <c r="G139" s="17"/>
-      <c r="H139" s="17"/>
-      <c r="I139" s="17"/>
-      <c r="J139" s="18"/>
-      <c r="K139" s="18"/>
-      <c r="L139" s="18"/>
-      <c r="M139" s="18"/>
-      <c r="N139" s="18"/>
-      <c r="O139" s="18"/>
-      <c r="P139" s="18"/>
-      <c r="Q139" s="18"/>
-      <c r="R139" s="18"/>
-      <c r="S139" s="18"/>
-      <c r="T139" s="18"/>
-      <c r="U139" s="19"/>
-      <c r="V139" s="20"/>
-      <c r="W139" s="18"/>
+      <c r="F139" s="18"/>
+      <c r="G139" s="18"/>
+      <c r="H139" s="18"/>
+      <c r="I139" s="18"/>
+      <c r="J139" s="19"/>
+      <c r="K139" s="19"/>
+      <c r="L139" s="19"/>
+      <c r="M139" s="19"/>
+      <c r="N139" s="19"/>
+      <c r="O139" s="19"/>
+      <c r="P139" s="19"/>
+      <c r="Q139" s="19"/>
+      <c r="R139" s="19"/>
+      <c r="S139" s="19"/>
+      <c r="T139" s="19"/>
+      <c r="U139" s="20"/>
+      <c r="V139" s="21"/>
+      <c r="W139" s="19"/>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F140" s="17"/>
-      <c r="G140" s="17"/>
-      <c r="H140" s="17"/>
-      <c r="I140" s="17"/>
-      <c r="J140" s="18"/>
-      <c r="K140" s="18"/>
-      <c r="L140" s="18"/>
-      <c r="M140" s="18"/>
-      <c r="N140" s="18"/>
-      <c r="O140" s="18"/>
-      <c r="P140" s="18"/>
-      <c r="Q140" s="18"/>
-      <c r="R140" s="18"/>
-      <c r="S140" s="18"/>
-      <c r="T140" s="18"/>
-      <c r="U140" s="19"/>
-      <c r="V140" s="20"/>
-      <c r="W140" s="18"/>
+      <c r="F140" s="18"/>
+      <c r="G140" s="18"/>
+      <c r="H140" s="18"/>
+      <c r="I140" s="18"/>
+      <c r="J140" s="19"/>
+      <c r="K140" s="19"/>
+      <c r="L140" s="19"/>
+      <c r="M140" s="19"/>
+      <c r="N140" s="19"/>
+      <c r="O140" s="19"/>
+      <c r="P140" s="19"/>
+      <c r="Q140" s="19"/>
+      <c r="R140" s="19"/>
+      <c r="S140" s="19"/>
+      <c r="T140" s="19"/>
+      <c r="U140" s="20"/>
+      <c r="V140" s="21"/>
+      <c r="W140" s="19"/>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F141" s="17"/>
-      <c r="G141" s="17"/>
-      <c r="H141" s="17"/>
-      <c r="I141" s="17"/>
-      <c r="J141" s="18"/>
-      <c r="K141" s="18"/>
-      <c r="L141" s="18"/>
-      <c r="M141" s="18"/>
-      <c r="N141" s="18"/>
-      <c r="O141" s="18"/>
-      <c r="P141" s="18"/>
-      <c r="Q141" s="18"/>
-      <c r="R141" s="18"/>
-      <c r="S141" s="18"/>
-      <c r="T141" s="18"/>
-      <c r="U141" s="19"/>
-      <c r="V141" s="20"/>
-      <c r="W141" s="18"/>
+      <c r="F141" s="18"/>
+      <c r="G141" s="18"/>
+      <c r="H141" s="18"/>
+      <c r="I141" s="18"/>
+      <c r="J141" s="19"/>
+      <c r="K141" s="19"/>
+      <c r="L141" s="19"/>
+      <c r="M141" s="19"/>
+      <c r="N141" s="19"/>
+      <c r="O141" s="19"/>
+      <c r="P141" s="19"/>
+      <c r="Q141" s="19"/>
+      <c r="R141" s="19"/>
+      <c r="S141" s="19"/>
+      <c r="T141" s="19"/>
+      <c r="U141" s="20"/>
+      <c r="V141" s="21"/>
+      <c r="W141" s="19"/>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F142" s="17"/>
-      <c r="G142" s="17"/>
-      <c r="H142" s="17"/>
-      <c r="I142" s="17"/>
-      <c r="J142" s="18"/>
-      <c r="K142" s="18"/>
-      <c r="L142" s="18"/>
-      <c r="M142" s="18"/>
-      <c r="N142" s="18"/>
-      <c r="O142" s="18"/>
-      <c r="P142" s="18"/>
-      <c r="Q142" s="18"/>
-      <c r="R142" s="18"/>
-      <c r="S142" s="18"/>
-      <c r="T142" s="18"/>
-      <c r="U142" s="19"/>
-      <c r="V142" s="20"/>
-      <c r="W142" s="18"/>
+      <c r="F142" s="18"/>
+      <c r="G142" s="18"/>
+      <c r="H142" s="18"/>
+      <c r="I142" s="18"/>
+      <c r="J142" s="19"/>
+      <c r="K142" s="19"/>
+      <c r="L142" s="19"/>
+      <c r="M142" s="19"/>
+      <c r="N142" s="19"/>
+      <c r="O142" s="19"/>
+      <c r="P142" s="19"/>
+      <c r="Q142" s="19"/>
+      <c r="R142" s="19"/>
+      <c r="S142" s="19"/>
+      <c r="T142" s="19"/>
+      <c r="U142" s="20"/>
+      <c r="V142" s="21"/>
+      <c r="W142" s="19"/>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F143" s="17"/>
-      <c r="G143" s="17"/>
-      <c r="H143" s="17"/>
-      <c r="I143" s="17"/>
-      <c r="J143" s="18"/>
-      <c r="K143" s="18"/>
-      <c r="L143" s="18"/>
-      <c r="M143" s="18"/>
-      <c r="N143" s="18"/>
-      <c r="O143" s="18"/>
-      <c r="P143" s="18"/>
-      <c r="Q143" s="18"/>
-      <c r="R143" s="18"/>
-      <c r="S143" s="18"/>
-      <c r="T143" s="18"/>
-      <c r="U143" s="19"/>
-      <c r="V143" s="20"/>
-      <c r="W143" s="18"/>
+      <c r="F143" s="18"/>
+      <c r="G143" s="18"/>
+      <c r="H143" s="18"/>
+      <c r="I143" s="18"/>
+      <c r="J143" s="19"/>
+      <c r="K143" s="19"/>
+      <c r="L143" s="19"/>
+      <c r="M143" s="19"/>
+      <c r="N143" s="19"/>
+      <c r="O143" s="19"/>
+      <c r="P143" s="19"/>
+      <c r="Q143" s="19"/>
+      <c r="R143" s="19"/>
+      <c r="S143" s="19"/>
+      <c r="T143" s="19"/>
+      <c r="U143" s="20"/>
+      <c r="V143" s="21"/>
+      <c r="W143" s="19"/>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F144" s="17"/>
-      <c r="G144" s="17"/>
-      <c r="H144" s="17"/>
-      <c r="I144" s="17"/>
-      <c r="J144" s="18"/>
-      <c r="K144" s="18"/>
-      <c r="L144" s="18"/>
-      <c r="M144" s="18"/>
-      <c r="N144" s="18"/>
-      <c r="O144" s="18"/>
-      <c r="P144" s="18"/>
-      <c r="Q144" s="18"/>
-      <c r="R144" s="18"/>
-      <c r="S144" s="18"/>
-      <c r="T144" s="18"/>
-      <c r="U144" s="19"/>
-      <c r="V144" s="20"/>
-      <c r="W144" s="18"/>
+      <c r="F144" s="18"/>
+      <c r="G144" s="18"/>
+      <c r="H144" s="18"/>
+      <c r="I144" s="18"/>
+      <c r="J144" s="19"/>
+      <c r="K144" s="19"/>
+      <c r="L144" s="19"/>
+      <c r="M144" s="19"/>
+      <c r="N144" s="19"/>
+      <c r="O144" s="19"/>
+      <c r="P144" s="19"/>
+      <c r="Q144" s="19"/>
+      <c r="R144" s="19"/>
+      <c r="S144" s="19"/>
+      <c r="T144" s="19"/>
+      <c r="U144" s="20"/>
+      <c r="V144" s="21"/>
+      <c r="W144" s="19"/>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F145" s="17"/>
-      <c r="G145" s="17"/>
-      <c r="H145" s="17"/>
-      <c r="I145" s="17"/>
-      <c r="J145" s="18"/>
-      <c r="K145" s="18"/>
-      <c r="L145" s="18"/>
-      <c r="M145" s="18"/>
-      <c r="N145" s="18"/>
-      <c r="O145" s="18"/>
-      <c r="P145" s="18"/>
-      <c r="Q145" s="18"/>
-      <c r="R145" s="18"/>
-      <c r="S145" s="18"/>
-      <c r="T145" s="18"/>
-      <c r="U145" s="19"/>
-      <c r="V145" s="20"/>
-      <c r="W145" s="18"/>
+      <c r="F145" s="18"/>
+      <c r="G145" s="18"/>
+      <c r="H145" s="18"/>
+      <c r="I145" s="18"/>
+      <c r="J145" s="19"/>
+      <c r="K145" s="19"/>
+      <c r="L145" s="19"/>
+      <c r="M145" s="19"/>
+      <c r="N145" s="19"/>
+      <c r="O145" s="19"/>
+      <c r="P145" s="19"/>
+      <c r="Q145" s="19"/>
+      <c r="R145" s="19"/>
+      <c r="S145" s="19"/>
+      <c r="T145" s="19"/>
+      <c r="U145" s="20"/>
+      <c r="V145" s="21"/>
+      <c r="W145" s="19"/>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F146" s="17"/>
-      <c r="G146" s="17"/>
-      <c r="H146" s="17"/>
-      <c r="I146" s="17"/>
-      <c r="J146" s="18"/>
-      <c r="K146" s="18"/>
-      <c r="L146" s="18"/>
-      <c r="M146" s="18"/>
-      <c r="N146" s="18"/>
-      <c r="O146" s="18"/>
-      <c r="P146" s="18"/>
-      <c r="Q146" s="18"/>
-      <c r="R146" s="18"/>
-      <c r="S146" s="18"/>
-      <c r="T146" s="18"/>
-      <c r="U146" s="19"/>
-      <c r="V146" s="20"/>
-      <c r="W146" s="18"/>
+      <c r="F146" s="18"/>
+      <c r="G146" s="18"/>
+      <c r="H146" s="18"/>
+      <c r="I146" s="18"/>
+      <c r="J146" s="19"/>
+      <c r="K146" s="19"/>
+      <c r="L146" s="19"/>
+      <c r="M146" s="19"/>
+      <c r="N146" s="19"/>
+      <c r="O146" s="19"/>
+      <c r="P146" s="19"/>
+      <c r="Q146" s="19"/>
+      <c r="R146" s="19"/>
+      <c r="S146" s="19"/>
+      <c r="T146" s="19"/>
+      <c r="U146" s="20"/>
+      <c r="V146" s="21"/>
+      <c r="W146" s="19"/>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F147" s="17"/>
-      <c r="G147" s="17"/>
-      <c r="H147" s="17"/>
-      <c r="I147" s="17"/>
-      <c r="J147" s="18"/>
-      <c r="K147" s="18"/>
-      <c r="L147" s="18"/>
-      <c r="M147" s="18"/>
-      <c r="N147" s="18"/>
-      <c r="O147" s="18"/>
-      <c r="P147" s="18"/>
-      <c r="Q147" s="18"/>
-      <c r="R147" s="18"/>
-      <c r="S147" s="18"/>
-      <c r="T147" s="18"/>
-      <c r="U147" s="19"/>
-      <c r="V147" s="20"/>
-      <c r="W147" s="18"/>
+      <c r="F147" s="18"/>
+      <c r="G147" s="18"/>
+      <c r="H147" s="18"/>
+      <c r="I147" s="18"/>
+      <c r="J147" s="19"/>
+      <c r="K147" s="19"/>
+      <c r="L147" s="19"/>
+      <c r="M147" s="19"/>
+      <c r="N147" s="19"/>
+      <c r="O147" s="19"/>
+      <c r="P147" s="19"/>
+      <c r="Q147" s="19"/>
+      <c r="R147" s="19"/>
+      <c r="S147" s="19"/>
+      <c r="T147" s="19"/>
+      <c r="U147" s="20"/>
+      <c r="V147" s="21"/>
+      <c r="W147" s="19"/>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F148" s="17"/>
-      <c r="G148" s="17"/>
-      <c r="H148" s="17"/>
-      <c r="I148" s="17"/>
-      <c r="J148" s="18"/>
-      <c r="K148" s="18"/>
-      <c r="L148" s="18"/>
-      <c r="M148" s="18"/>
-      <c r="N148" s="18"/>
-      <c r="O148" s="18"/>
-      <c r="P148" s="18"/>
-      <c r="Q148" s="18"/>
-      <c r="R148" s="18"/>
-      <c r="S148" s="18"/>
-      <c r="T148" s="18"/>
-      <c r="U148" s="19"/>
-      <c r="V148" s="20"/>
-      <c r="W148" s="18"/>
+      <c r="F148" s="18"/>
+      <c r="G148" s="18"/>
+      <c r="H148" s="18"/>
+      <c r="I148" s="18"/>
+      <c r="J148" s="19"/>
+      <c r="K148" s="19"/>
+      <c r="L148" s="19"/>
+      <c r="M148" s="19"/>
+      <c r="N148" s="19"/>
+      <c r="O148" s="19"/>
+      <c r="P148" s="19"/>
+      <c r="Q148" s="19"/>
+      <c r="R148" s="19"/>
+      <c r="S148" s="19"/>
+      <c r="T148" s="19"/>
+      <c r="U148" s="20"/>
+      <c r="V148" s="21"/>
+      <c r="W148" s="19"/>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F149" s="17"/>
-      <c r="G149" s="17"/>
-      <c r="H149" s="17"/>
-      <c r="I149" s="17"/>
-      <c r="J149" s="18"/>
-      <c r="K149" s="18"/>
-      <c r="L149" s="18"/>
-      <c r="M149" s="18"/>
-      <c r="N149" s="18"/>
-      <c r="O149" s="18"/>
-      <c r="P149" s="18"/>
-      <c r="Q149" s="18"/>
-      <c r="R149" s="18"/>
-      <c r="S149" s="18"/>
-      <c r="T149" s="18"/>
-      <c r="U149" s="19"/>
-      <c r="V149" s="20"/>
-      <c r="W149" s="18"/>
+      <c r="F149" s="18"/>
+      <c r="G149" s="18"/>
+      <c r="H149" s="18"/>
+      <c r="I149" s="18"/>
+      <c r="J149" s="19"/>
+      <c r="K149" s="19"/>
+      <c r="L149" s="19"/>
+      <c r="M149" s="19"/>
+      <c r="N149" s="19"/>
+      <c r="O149" s="19"/>
+      <c r="P149" s="19"/>
+      <c r="Q149" s="19"/>
+      <c r="R149" s="19"/>
+      <c r="S149" s="19"/>
+      <c r="T149" s="19"/>
+      <c r="U149" s="20"/>
+      <c r="V149" s="21"/>
+      <c r="W149" s="19"/>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F150" s="17"/>
-      <c r="G150" s="17"/>
-      <c r="H150" s="17"/>
-      <c r="I150" s="17"/>
-      <c r="J150" s="18"/>
-      <c r="K150" s="18"/>
-      <c r="L150" s="18"/>
-      <c r="M150" s="18"/>
-      <c r="N150" s="18"/>
-      <c r="O150" s="18"/>
-      <c r="P150" s="18"/>
-      <c r="Q150" s="18"/>
-      <c r="R150" s="18"/>
-      <c r="S150" s="18"/>
-      <c r="T150" s="18"/>
-      <c r="U150" s="19"/>
-      <c r="V150" s="20"/>
-      <c r="W150" s="18"/>
+      <c r="F150" s="18"/>
+      <c r="G150" s="18"/>
+      <c r="H150" s="18"/>
+      <c r="I150" s="18"/>
+      <c r="J150" s="19"/>
+      <c r="K150" s="19"/>
+      <c r="L150" s="19"/>
+      <c r="M150" s="19"/>
+      <c r="N150" s="19"/>
+      <c r="O150" s="19"/>
+      <c r="P150" s="19"/>
+      <c r="Q150" s="19"/>
+      <c r="R150" s="19"/>
+      <c r="S150" s="19"/>
+      <c r="T150" s="19"/>
+      <c r="U150" s="20"/>
+      <c r="V150" s="21"/>
+      <c r="W150" s="19"/>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F151" s="17"/>
-      <c r="G151" s="17"/>
-      <c r="H151" s="17"/>
-      <c r="I151" s="17"/>
-      <c r="J151" s="18"/>
-      <c r="K151" s="18"/>
-      <c r="L151" s="18"/>
-      <c r="M151" s="18"/>
-      <c r="N151" s="18"/>
-      <c r="O151" s="18"/>
-      <c r="P151" s="18"/>
-      <c r="Q151" s="18"/>
-      <c r="R151" s="18"/>
-      <c r="S151" s="18"/>
-      <c r="T151" s="18"/>
-      <c r="U151" s="19"/>
-      <c r="V151" s="20"/>
-      <c r="W151" s="18"/>
+      <c r="F151" s="18"/>
+      <c r="G151" s="18"/>
+      <c r="H151" s="18"/>
+      <c r="I151" s="18"/>
+      <c r="J151" s="19"/>
+      <c r="K151" s="19"/>
+      <c r="L151" s="19"/>
+      <c r="M151" s="19"/>
+      <c r="N151" s="19"/>
+      <c r="O151" s="19"/>
+      <c r="P151" s="19"/>
+      <c r="Q151" s="19"/>
+      <c r="R151" s="19"/>
+      <c r="S151" s="19"/>
+      <c r="T151" s="19"/>
+      <c r="U151" s="20"/>
+      <c r="V151" s="21"/>
+      <c r="W151" s="19"/>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F152" s="17"/>
-      <c r="G152" s="17"/>
-      <c r="H152" s="17"/>
-      <c r="I152" s="17"/>
-      <c r="J152" s="18"/>
-      <c r="K152" s="18"/>
-      <c r="L152" s="18"/>
-      <c r="M152" s="18"/>
-      <c r="N152" s="18"/>
-      <c r="O152" s="18"/>
-      <c r="P152" s="18"/>
-      <c r="Q152" s="18"/>
-      <c r="R152" s="18"/>
-      <c r="S152" s="18"/>
-      <c r="T152" s="18"/>
-      <c r="U152" s="19"/>
-      <c r="V152" s="20"/>
-      <c r="W152" s="18"/>
+      <c r="F152" s="18"/>
+      <c r="G152" s="18"/>
+      <c r="H152" s="18"/>
+      <c r="I152" s="18"/>
+      <c r="J152" s="19"/>
+      <c r="K152" s="19"/>
+      <c r="L152" s="19"/>
+      <c r="M152" s="19"/>
+      <c r="N152" s="19"/>
+      <c r="O152" s="19"/>
+      <c r="P152" s="19"/>
+      <c r="Q152" s="19"/>
+      <c r="R152" s="19"/>
+      <c r="S152" s="19"/>
+      <c r="T152" s="19"/>
+      <c r="U152" s="20"/>
+      <c r="V152" s="21"/>
+      <c r="W152" s="19"/>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F153" s="17"/>
-      <c r="G153" s="17"/>
-      <c r="H153" s="17"/>
-      <c r="I153" s="17"/>
-      <c r="J153" s="18"/>
-      <c r="K153" s="18"/>
-      <c r="L153" s="18"/>
-      <c r="M153" s="18"/>
-      <c r="N153" s="18"/>
-      <c r="O153" s="18"/>
-      <c r="P153" s="18"/>
-      <c r="Q153" s="18"/>
-      <c r="R153" s="18"/>
-      <c r="S153" s="18"/>
-      <c r="T153" s="18"/>
-      <c r="U153" s="19"/>
-      <c r="V153" s="20"/>
-      <c r="W153" s="18"/>
+      <c r="F153" s="18"/>
+      <c r="G153" s="18"/>
+      <c r="H153" s="18"/>
+      <c r="I153" s="18"/>
+      <c r="J153" s="19"/>
+      <c r="K153" s="19"/>
+      <c r="L153" s="19"/>
+      <c r="M153" s="19"/>
+      <c r="N153" s="19"/>
+      <c r="O153" s="19"/>
+      <c r="P153" s="19"/>
+      <c r="Q153" s="19"/>
+      <c r="R153" s="19"/>
+      <c r="S153" s="19"/>
+      <c r="T153" s="19"/>
+      <c r="U153" s="20"/>
+      <c r="V153" s="21"/>
+      <c r="W153" s="19"/>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F154" s="17"/>
-      <c r="G154" s="17"/>
-      <c r="H154" s="17"/>
-      <c r="I154" s="17"/>
-      <c r="J154" s="18"/>
-      <c r="K154" s="18"/>
-      <c r="L154" s="18"/>
-      <c r="M154" s="18"/>
-      <c r="N154" s="18"/>
-      <c r="O154" s="18"/>
-      <c r="P154" s="18"/>
-      <c r="Q154" s="18"/>
-      <c r="R154" s="18"/>
-      <c r="S154" s="18"/>
-      <c r="T154" s="18"/>
-      <c r="U154" s="19"/>
-      <c r="V154" s="20"/>
-      <c r="W154" s="18"/>
+      <c r="F154" s="18"/>
+      <c r="G154" s="18"/>
+      <c r="H154" s="18"/>
+      <c r="I154" s="18"/>
+      <c r="J154" s="19"/>
+      <c r="K154" s="19"/>
+      <c r="L154" s="19"/>
+      <c r="M154" s="19"/>
+      <c r="N154" s="19"/>
+      <c r="O154" s="19"/>
+      <c r="P154" s="19"/>
+      <c r="Q154" s="19"/>
+      <c r="R154" s="19"/>
+      <c r="S154" s="19"/>
+      <c r="T154" s="19"/>
+      <c r="U154" s="20"/>
+      <c r="V154" s="21"/>
+      <c r="W154" s="19"/>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F155" s="17"/>
-      <c r="G155" s="17"/>
-      <c r="H155" s="17"/>
-      <c r="I155" s="17"/>
-      <c r="J155" s="18"/>
-      <c r="K155" s="18"/>
-      <c r="L155" s="18"/>
-      <c r="M155" s="18"/>
-      <c r="N155" s="18"/>
-      <c r="O155" s="18"/>
-      <c r="P155" s="18"/>
-      <c r="Q155" s="18"/>
-      <c r="R155" s="18"/>
-      <c r="S155" s="18"/>
-      <c r="T155" s="18"/>
-      <c r="U155" s="19"/>
-      <c r="V155" s="20"/>
-      <c r="W155" s="18"/>
+      <c r="F155" s="18"/>
+      <c r="G155" s="18"/>
+      <c r="H155" s="18"/>
+      <c r="I155" s="18"/>
+      <c r="J155" s="19"/>
+      <c r="K155" s="19"/>
+      <c r="L155" s="19"/>
+      <c r="M155" s="19"/>
+      <c r="N155" s="19"/>
+      <c r="O155" s="19"/>
+      <c r="P155" s="19"/>
+      <c r="Q155" s="19"/>
+      <c r="R155" s="19"/>
+      <c r="S155" s="19"/>
+      <c r="T155" s="19"/>
+      <c r="U155" s="20"/>
+      <c r="V155" s="21"/>
+      <c r="W155" s="19"/>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F156" s="17"/>
-      <c r="G156" s="17"/>
-      <c r="H156" s="17"/>
-      <c r="I156" s="17"/>
-      <c r="J156" s="18"/>
-      <c r="K156" s="18"/>
-      <c r="L156" s="18"/>
-      <c r="M156" s="18"/>
-      <c r="N156" s="18"/>
-      <c r="O156" s="18"/>
-      <c r="P156" s="18"/>
-      <c r="Q156" s="18"/>
-      <c r="R156" s="18"/>
-      <c r="S156" s="18"/>
-      <c r="T156" s="18"/>
-      <c r="U156" s="19"/>
-      <c r="V156" s="20"/>
-      <c r="W156" s="18"/>
+      <c r="F156" s="18"/>
+      <c r="G156" s="18"/>
+      <c r="H156" s="18"/>
+      <c r="I156" s="18"/>
+      <c r="J156" s="19"/>
+      <c r="K156" s="19"/>
+      <c r="L156" s="19"/>
+      <c r="M156" s="19"/>
+      <c r="N156" s="19"/>
+      <c r="O156" s="19"/>
+      <c r="P156" s="19"/>
+      <c r="Q156" s="19"/>
+      <c r="R156" s="19"/>
+      <c r="S156" s="19"/>
+      <c r="T156" s="19"/>
+      <c r="U156" s="20"/>
+      <c r="V156" s="21"/>
+      <c r="W156" s="19"/>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F157" s="17"/>
-      <c r="G157" s="17"/>
-      <c r="H157" s="17"/>
-      <c r="I157" s="17"/>
-      <c r="J157" s="18"/>
-      <c r="K157" s="18"/>
-      <c r="L157" s="18"/>
-      <c r="M157" s="18"/>
-      <c r="N157" s="18"/>
-      <c r="O157" s="18"/>
-      <c r="P157" s="18"/>
-      <c r="Q157" s="18"/>
-      <c r="R157" s="18"/>
-      <c r="S157" s="18"/>
-      <c r="T157" s="18"/>
-      <c r="U157" s="19"/>
-      <c r="V157" s="20"/>
-      <c r="W157" s="18"/>
+      <c r="F157" s="18"/>
+      <c r="G157" s="18"/>
+      <c r="H157" s="18"/>
+      <c r="I157" s="18"/>
+      <c r="J157" s="19"/>
+      <c r="K157" s="19"/>
+      <c r="L157" s="19"/>
+      <c r="M157" s="19"/>
+      <c r="N157" s="19"/>
+      <c r="O157" s="19"/>
+      <c r="P157" s="19"/>
+      <c r="Q157" s="19"/>
+      <c r="R157" s="19"/>
+      <c r="S157" s="19"/>
+      <c r="T157" s="19"/>
+      <c r="U157" s="20"/>
+      <c r="V157" s="21"/>
+      <c r="W157" s="19"/>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F158" s="17"/>
-      <c r="G158" s="17"/>
-      <c r="H158" s="17"/>
-      <c r="I158" s="17"/>
-      <c r="J158" s="18"/>
-      <c r="K158" s="18"/>
-      <c r="L158" s="18"/>
-      <c r="M158" s="18"/>
-      <c r="N158" s="18"/>
-      <c r="O158" s="18"/>
-      <c r="P158" s="18"/>
-      <c r="Q158" s="18"/>
-      <c r="R158" s="18"/>
-      <c r="S158" s="18"/>
-      <c r="T158" s="18"/>
-      <c r="U158" s="19"/>
-      <c r="V158" s="20"/>
-      <c r="W158" s="18"/>
+      <c r="F158" s="18"/>
+      <c r="G158" s="18"/>
+      <c r="H158" s="18"/>
+      <c r="I158" s="18"/>
+      <c r="J158" s="19"/>
+      <c r="K158" s="19"/>
+      <c r="L158" s="19"/>
+      <c r="M158" s="19"/>
+      <c r="N158" s="19"/>
+      <c r="O158" s="19"/>
+      <c r="P158" s="19"/>
+      <c r="Q158" s="19"/>
+      <c r="R158" s="19"/>
+      <c r="S158" s="19"/>
+      <c r="T158" s="19"/>
+      <c r="U158" s="20"/>
+      <c r="V158" s="21"/>
+      <c r="W158" s="19"/>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F159" s="17"/>
-      <c r="G159" s="17"/>
-      <c r="H159" s="17"/>
-      <c r="I159" s="17"/>
-      <c r="J159" s="18"/>
-      <c r="K159" s="18"/>
-      <c r="L159" s="18"/>
-      <c r="M159" s="18"/>
-      <c r="N159" s="18"/>
-      <c r="O159" s="18"/>
-      <c r="P159" s="18"/>
-      <c r="Q159" s="18"/>
-      <c r="R159" s="18"/>
-      <c r="S159" s="18"/>
-      <c r="T159" s="18"/>
-      <c r="U159" s="19"/>
-      <c r="V159" s="20"/>
-      <c r="W159" s="18"/>
+      <c r="F159" s="18"/>
+      <c r="G159" s="18"/>
+      <c r="H159" s="18"/>
+      <c r="I159" s="18"/>
+      <c r="J159" s="19"/>
+      <c r="K159" s="19"/>
+      <c r="L159" s="19"/>
+      <c r="M159" s="19"/>
+      <c r="N159" s="19"/>
+      <c r="O159" s="19"/>
+      <c r="P159" s="19"/>
+      <c r="Q159" s="19"/>
+      <c r="R159" s="19"/>
+      <c r="S159" s="19"/>
+      <c r="T159" s="19"/>
+      <c r="U159" s="20"/>
+      <c r="V159" s="21"/>
+      <c r="W159" s="19"/>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F160" s="17"/>
-      <c r="G160" s="17"/>
-      <c r="H160" s="17"/>
-      <c r="I160" s="17"/>
-      <c r="J160" s="18"/>
-      <c r="K160" s="18"/>
-      <c r="L160" s="18"/>
-      <c r="M160" s="18"/>
-      <c r="N160" s="18"/>
-      <c r="O160" s="18"/>
-      <c r="P160" s="18"/>
-      <c r="Q160" s="18"/>
-      <c r="R160" s="18"/>
-      <c r="S160" s="18"/>
-      <c r="T160" s="18"/>
-      <c r="U160" s="19"/>
-      <c r="V160" s="20"/>
-      <c r="W160" s="18"/>
+      <c r="F160" s="18"/>
+      <c r="G160" s="18"/>
+      <c r="H160" s="18"/>
+      <c r="I160" s="18"/>
+      <c r="J160" s="19"/>
+      <c r="K160" s="19"/>
+      <c r="L160" s="19"/>
+      <c r="M160" s="19"/>
+      <c r="N160" s="19"/>
+      <c r="O160" s="19"/>
+      <c r="P160" s="19"/>
+      <c r="Q160" s="19"/>
+      <c r="R160" s="19"/>
+      <c r="S160" s="19"/>
+      <c r="T160" s="19"/>
+      <c r="U160" s="20"/>
+      <c r="V160" s="21"/>
+      <c r="W160" s="19"/>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F161" s="17"/>
-      <c r="G161" s="17"/>
-      <c r="H161" s="17"/>
-      <c r="I161" s="17"/>
-      <c r="J161" s="18"/>
-      <c r="K161" s="18"/>
-      <c r="L161" s="18"/>
-      <c r="M161" s="18"/>
-      <c r="N161" s="18"/>
-      <c r="O161" s="18"/>
-      <c r="P161" s="18"/>
-      <c r="Q161" s="18"/>
-      <c r="R161" s="18"/>
-      <c r="S161" s="18"/>
-      <c r="T161" s="18"/>
-      <c r="U161" s="19"/>
-      <c r="V161" s="20"/>
-      <c r="W161" s="18"/>
+      <c r="F161" s="18"/>
+      <c r="G161" s="18"/>
+      <c r="H161" s="18"/>
+      <c r="I161" s="18"/>
+      <c r="J161" s="19"/>
+      <c r="K161" s="19"/>
+      <c r="L161" s="19"/>
+      <c r="M161" s="19"/>
+      <c r="N161" s="19"/>
+      <c r="O161" s="19"/>
+      <c r="P161" s="19"/>
+      <c r="Q161" s="19"/>
+      <c r="R161" s="19"/>
+      <c r="S161" s="19"/>
+      <c r="T161" s="19"/>
+      <c r="U161" s="20"/>
+      <c r="V161" s="21"/>
+      <c r="W161" s="19"/>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F162" s="17"/>
-      <c r="G162" s="17"/>
-      <c r="H162" s="17"/>
-      <c r="I162" s="17"/>
-      <c r="J162" s="18"/>
-      <c r="K162" s="18"/>
-      <c r="L162" s="18"/>
-      <c r="M162" s="18"/>
-      <c r="N162" s="18"/>
-      <c r="O162" s="18"/>
-      <c r="P162" s="18"/>
-      <c r="Q162" s="18"/>
-      <c r="R162" s="18"/>
-      <c r="S162" s="18"/>
-      <c r="T162" s="18"/>
-      <c r="U162" s="19"/>
-      <c r="V162" s="20"/>
-      <c r="W162" s="18"/>
+      <c r="F162" s="18"/>
+      <c r="G162" s="18"/>
+      <c r="H162" s="18"/>
+      <c r="I162" s="18"/>
+      <c r="J162" s="19"/>
+      <c r="K162" s="19"/>
+      <c r="L162" s="19"/>
+      <c r="M162" s="19"/>
+      <c r="N162" s="19"/>
+      <c r="O162" s="19"/>
+      <c r="P162" s="19"/>
+      <c r="Q162" s="19"/>
+      <c r="R162" s="19"/>
+      <c r="S162" s="19"/>
+      <c r="T162" s="19"/>
+      <c r="U162" s="20"/>
+      <c r="V162" s="21"/>
+      <c r="W162" s="19"/>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F163" s="17"/>
-      <c r="G163" s="17"/>
-      <c r="H163" s="17"/>
-      <c r="I163" s="17"/>
-      <c r="J163" s="18"/>
-      <c r="K163" s="18"/>
-      <c r="L163" s="18"/>
-      <c r="M163" s="18"/>
-      <c r="N163" s="18"/>
-      <c r="O163" s="18"/>
-      <c r="P163" s="18"/>
-      <c r="Q163" s="18"/>
-      <c r="R163" s="18"/>
-      <c r="S163" s="18"/>
-      <c r="T163" s="18"/>
-      <c r="U163" s="19"/>
-      <c r="V163" s="20"/>
-      <c r="W163" s="18"/>
+      <c r="F163" s="18"/>
+      <c r="G163" s="18"/>
+      <c r="H163" s="18"/>
+      <c r="I163" s="18"/>
+      <c r="J163" s="19"/>
+      <c r="K163" s="19"/>
+      <c r="L163" s="19"/>
+      <c r="M163" s="19"/>
+      <c r="N163" s="19"/>
+      <c r="O163" s="19"/>
+      <c r="P163" s="19"/>
+      <c r="Q163" s="19"/>
+      <c r="R163" s="19"/>
+      <c r="S163" s="19"/>
+      <c r="T163" s="19"/>
+      <c r="U163" s="20"/>
+      <c r="V163" s="21"/>
+      <c r="W163" s="19"/>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W164" s="18"/>
+      <c r="W164" s="19"/>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W165" s="18"/>
+      <c r="W165" s="19"/>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W166" s="18"/>
+      <c r="W166" s="19"/>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W167" s="18"/>
+      <c r="W167" s="19"/>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W168" s="18"/>
+      <c r="W168" s="19"/>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W169" s="18"/>
+      <c r="W169" s="19"/>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W170" s="18"/>
+      <c r="W170" s="19"/>
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W171" s="18"/>
+      <c r="W171" s="19"/>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W172" s="18"/>
+      <c r="W172" s="19"/>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W173" s="18"/>
+      <c r="W173" s="19"/>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W174" s="18"/>
+      <c r="W174" s="19"/>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W175" s="18"/>
+      <c r="W175" s="19"/>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W176" s="18"/>
+      <c r="W176" s="19"/>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W177" s="18"/>
+      <c r="W177" s="19"/>
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W178" s="18"/>
+      <c r="W178" s="19"/>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W179" s="18"/>
+      <c r="W179" s="19"/>
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W180" s="18"/>
+      <c r="W180" s="19"/>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W181" s="18"/>
+      <c r="W181" s="19"/>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W182" s="18"/>
+      <c r="W182" s="19"/>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W183" s="18"/>
+      <c r="W183" s="19"/>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W184" s="18"/>
+      <c r="W184" s="19"/>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W185" s="18"/>
+      <c r="W185" s="19"/>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W186" s="18"/>
+      <c r="W186" s="19"/>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W187" s="18"/>
+      <c r="W187" s="19"/>
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W188" s="18"/>
+      <c r="W188" s="19"/>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W189" s="18"/>
+      <c r="W189" s="19"/>
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W190" s="18"/>
+      <c r="W190" s="19"/>
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W191" s="18"/>
+      <c r="W191" s="19"/>
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W192" s="18"/>
+      <c r="W192" s="19"/>
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W193" s="18"/>
+      <c r="W193" s="19"/>
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W194" s="18"/>
+      <c r="W194" s="19"/>
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W195" s="18"/>
+      <c r="W195" s="19"/>
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W196" s="18"/>
+      <c r="W196" s="19"/>
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W197" s="18"/>
+      <c r="W197" s="19"/>
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W198" s="18"/>
+      <c r="W198" s="19"/>
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W199" s="18"/>
+      <c r="W199" s="19"/>
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W200" s="18"/>
+      <c r="W200" s="19"/>
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W201" s="18"/>
+      <c r="W201" s="19"/>
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W202" s="18"/>
+      <c r="W202" s="19"/>
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W203" s="18"/>
+      <c r="W203" s="19"/>
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W204" s="18"/>
+      <c r="W204" s="19"/>
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W205" s="18"/>
+      <c r="W205" s="19"/>
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W206" s="18"/>
+      <c r="W206" s="19"/>
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W207" s="18"/>
+      <c r="W207" s="19"/>
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W208" s="18"/>
+      <c r="W208" s="19"/>
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W209" s="18"/>
+      <c r="W209" s="19"/>
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W210" s="18"/>
+      <c r="W210" s="19"/>
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W211" s="18"/>
+      <c r="W211" s="19"/>
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W212" s="18"/>
+      <c r="W212" s="19"/>
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W213" s="18"/>
+      <c r="W213" s="19"/>
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W214" s="18"/>
+      <c r="W214" s="19"/>
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W215" s="18"/>
+      <c r="W215" s="19"/>
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W216" s="18"/>
+      <c r="W216" s="19"/>
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W217" s="18"/>
+      <c r="W217" s="19"/>
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W218" s="18"/>
+      <c r="W218" s="19"/>
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W219" s="18"/>
+      <c r="W219" s="19"/>
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W220" s="18"/>
+      <c r="W220" s="19"/>
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W221" s="18"/>
+      <c r="W221" s="19"/>
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W222" s="18"/>
+      <c r="W222" s="19"/>
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W223" s="18"/>
+      <c r="W223" s="19"/>
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W224" s="18"/>
+      <c r="W224" s="19"/>
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W225" s="18"/>
+      <c r="W225" s="19"/>
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W226" s="18"/>
+      <c r="W226" s="19"/>
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W227" s="18"/>
+      <c r="W227" s="19"/>
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W228" s="18"/>
+      <c r="W228" s="19"/>
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W229" s="18"/>
+      <c r="W229" s="19"/>
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W230" s="18"/>
+      <c r="W230" s="19"/>
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W231" s="18"/>
+      <c r="W231" s="19"/>
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W232" s="18"/>
+      <c r="W232" s="19"/>
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W233" s="18"/>
+      <c r="W233" s="19"/>
     </row>
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W234" s="18"/>
+      <c r="W234" s="19"/>
     </row>
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W235" s="18"/>
+      <c r="W235" s="19"/>
     </row>
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W236" s="18"/>
+      <c r="W236" s="19"/>
     </row>
     <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W237" s="18"/>
+      <c r="W237" s="19"/>
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W238" s="18"/>
+      <c r="W238" s="19"/>
     </row>
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W239" s="18"/>
+      <c r="W239" s="19"/>
     </row>
     <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W240" s="18"/>
+      <c r="W240" s="19"/>
     </row>
     <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W241" s="18"/>
+      <c r="W241" s="19"/>
     </row>
     <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W242" s="18"/>
+      <c r="W242" s="19"/>
     </row>
     <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W243" s="18"/>
+      <c r="W243" s="19"/>
     </row>
     <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W244" s="18"/>
+      <c r="W244" s="19"/>
     </row>
     <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W245" s="18"/>
+      <c r="W245" s="19"/>
     </row>
     <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W246" s="18"/>
+      <c r="W246" s="19"/>
     </row>
     <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W247" s="18"/>
+      <c r="W247" s="19"/>
     </row>
     <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W248" s="18"/>
+      <c r="W248" s="19"/>
     </row>
     <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W249" s="18"/>
+      <c r="W249" s="19"/>
     </row>
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W250" s="18"/>
+      <c r="W250" s="19"/>
     </row>
     <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W251" s="18"/>
+      <c r="W251" s="19"/>
     </row>
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W252" s="18"/>
+      <c r="W252" s="19"/>
     </row>
     <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W253" s="18"/>
+      <c r="W253" s="19"/>
     </row>
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W254" s="18"/>
+      <c r="W254" s="19"/>
     </row>
     <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W255" s="18"/>
+      <c r="W255" s="19"/>
     </row>
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W256" s="18"/>
+      <c r="W256" s="19"/>
     </row>
     <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W257" s="18"/>
+      <c r="W257" s="19"/>
     </row>
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W258" s="18"/>
+      <c r="W258" s="19"/>
     </row>
     <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W259" s="18"/>
+      <c r="W259" s="19"/>
     </row>
     <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W260" s="18"/>
+      <c r="W260" s="19"/>
     </row>
     <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W261" s="18"/>
+      <c r="W261" s="19"/>
     </row>
     <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W262" s="18"/>
+      <c r="W262" s="19"/>
     </row>
     <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W263" s="18"/>
+      <c r="W263" s="19"/>
     </row>
     <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W264" s="18"/>
+      <c r="W264" s="19"/>
     </row>
     <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W265" s="18"/>
+      <c r="W265" s="19"/>
     </row>
     <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W266" s="18"/>
+      <c r="W266" s="19"/>
     </row>
     <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W267" s="18"/>
+      <c r="W267" s="19"/>
     </row>
     <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W268" s="18"/>
+      <c r="W268" s="19"/>
     </row>
     <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W269" s="18"/>
+      <c r="W269" s="19"/>
     </row>
     <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W270" s="18"/>
+      <c r="W270" s="19"/>
     </row>
     <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W271" s="18"/>
+      <c r="W271" s="19"/>
     </row>
     <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W272" s="18"/>
+      <c r="W272" s="19"/>
     </row>
     <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W273" s="18"/>
+      <c r="W273" s="19"/>
     </row>
     <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W274" s="18"/>
+      <c r="W274" s="19"/>
     </row>
     <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W275" s="18"/>
+      <c r="W275" s="19"/>
     </row>
     <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W276" s="18"/>
+      <c r="W276" s="19"/>
     </row>
     <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W277" s="18"/>
+      <c r="W277" s="19"/>
     </row>
     <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W278" s="18"/>
+      <c r="W278" s="19"/>
     </row>
     <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W279" s="18"/>
+      <c r="W279" s="19"/>
     </row>
     <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W280" s="18"/>
+      <c r="W280" s="19"/>
     </row>
     <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W281" s="18"/>
+      <c r="W281" s="19"/>
     </row>
     <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W282" s="18"/>
+      <c r="W282" s="19"/>
     </row>
     <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W283" s="18"/>
+      <c r="W283" s="19"/>
     </row>
     <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W284" s="18"/>
+      <c r="W284" s="19"/>
     </row>
     <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W285" s="18"/>
+      <c r="W285" s="19"/>
     </row>
     <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W286" s="18"/>
+      <c r="W286" s="19"/>
     </row>
     <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W287" s="18"/>
+      <c r="W287" s="19"/>
     </row>
     <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W288" s="18"/>
+      <c r="W288" s="19"/>
     </row>
     <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W289" s="18"/>
+      <c r="W289" s="19"/>
     </row>
     <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W290" s="18"/>
+      <c r="W290" s="19"/>
     </row>
     <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W291" s="18"/>
+      <c r="W291" s="19"/>
     </row>
     <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W292" s="18"/>
+      <c r="W292" s="19"/>
     </row>
     <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W293" s="18"/>
+      <c r="W293" s="19"/>
     </row>
     <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W294" s="18"/>
+      <c r="W294" s="19"/>
     </row>
     <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W295" s="18"/>
+      <c r="W295" s="19"/>
     </row>
     <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W296" s="18"/>
+      <c r="W296" s="19"/>
     </row>
     <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W297" s="18"/>
+      <c r="W297" s="19"/>
     </row>
     <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W298" s="18"/>
+      <c r="W298" s="19"/>
     </row>
     <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W299" s="18"/>
+      <c r="W299" s="19"/>
     </row>
     <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W300" s="18"/>
+      <c r="W300" s="19"/>
     </row>
     <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W301" s="18"/>
+      <c r="W301" s="19"/>
     </row>
     <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W302" s="18"/>
+      <c r="W302" s="19"/>
     </row>
     <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W303" s="18"/>
+      <c r="W303" s="19"/>
     </row>
     <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W304" s="18"/>
+      <c r="W304" s="19"/>
     </row>
     <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W305" s="18"/>
+      <c r="W305" s="19"/>
     </row>
     <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W306" s="18"/>
+      <c r="W306" s="19"/>
     </row>
     <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W307" s="18"/>
+      <c r="W307" s="19"/>
     </row>
     <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W308" s="18"/>
+      <c r="W308" s="19"/>
     </row>
     <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W309" s="18"/>
+      <c r="W309" s="19"/>
     </row>
     <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W310" s="18"/>
+      <c r="W310" s="19"/>
     </row>
     <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W311" s="18"/>
+      <c r="W311" s="19"/>
     </row>
     <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W312" s="18"/>
+      <c r="W312" s="19"/>
     </row>
     <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W313" s="18"/>
+      <c r="W313" s="19"/>
     </row>
     <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W314" s="18"/>
+      <c r="W314" s="19"/>
     </row>
     <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W315" s="18"/>
+      <c r="W315" s="19"/>
     </row>
     <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W316" s="18"/>
+      <c r="W316" s="19"/>
     </row>
     <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W317" s="18"/>
+      <c r="W317" s="19"/>
     </row>
     <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W318" s="18"/>
+      <c r="W318" s="19"/>
     </row>
     <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W319" s="18"/>
+      <c r="W319" s="19"/>
     </row>
     <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W320" s="18"/>
+      <c r="W320" s="19"/>
     </row>
     <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W321" s="18"/>
+      <c r="W321" s="19"/>
     </row>
     <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W322" s="18"/>
+      <c r="W322" s="19"/>
     </row>
     <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W323" s="18"/>
+      <c r="W323" s="19"/>
     </row>
     <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W324" s="18"/>
+      <c r="W324" s="19"/>
     </row>
     <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W325" s="18"/>
+      <c r="W325" s="19"/>
     </row>
     <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W326" s="18"/>
+      <c r="W326" s="19"/>
     </row>
     <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W327" s="18"/>
+      <c r="W327" s="19"/>
     </row>
     <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W328" s="18"/>
+      <c r="W328" s="19"/>
     </row>
     <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W329" s="18"/>
+      <c r="W329" s="19"/>
     </row>
     <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W330" s="18"/>
+      <c r="W330" s="19"/>
     </row>
     <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W331" s="18"/>
+      <c r="W331" s="19"/>
     </row>
     <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W332" s="18"/>
+      <c r="W332" s="19"/>
     </row>
     <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W333" s="18"/>
+      <c r="W333" s="19"/>
     </row>
     <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W334" s="18"/>
+      <c r="W334" s="19"/>
     </row>
     <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W335" s="18"/>
+      <c r="W335" s="19"/>
     </row>
     <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W336" s="18"/>
+      <c r="W336" s="19"/>
     </row>
     <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W337" s="18"/>
+      <c r="W337" s="19"/>
     </row>
     <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W338" s="18"/>
+      <c r="W338" s="19"/>
     </row>
     <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W339" s="18"/>
+      <c r="W339" s="19"/>
     </row>
     <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W340" s="18"/>
+      <c r="W340" s="19"/>
     </row>
     <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W341" s="18"/>
+      <c r="W341" s="19"/>
     </row>
     <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W342" s="18"/>
+      <c r="W342" s="19"/>
     </row>
     <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W343" s="18"/>
+      <c r="W343" s="19"/>
     </row>
     <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W344" s="18"/>
+      <c r="W344" s="19"/>
     </row>
     <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W345" s="18"/>
+      <c r="W345" s="19"/>
     </row>
     <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W346" s="18"/>
+      <c r="W346" s="19"/>
     </row>
     <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W347" s="18"/>
+      <c r="W347" s="19"/>
     </row>
     <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W348" s="18"/>
+      <c r="W348" s="19"/>
     </row>
     <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W349" s="18"/>
+      <c r="W349" s="19"/>
     </row>
     <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W350" s="18"/>
+      <c r="W350" s="19"/>
     </row>
     <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W351" s="18"/>
+      <c r="W351" s="19"/>
     </row>
     <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W352" s="18"/>
+      <c r="W352" s="19"/>
     </row>
     <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W353" s="18"/>
+      <c r="W353" s="19"/>
     </row>
     <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W354" s="18"/>
+      <c r="W354" s="19"/>
     </row>
     <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W355" s="18"/>
+      <c r="W355" s="19"/>
     </row>
     <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W356" s="18"/>
+      <c r="W356" s="19"/>
     </row>
     <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W357" s="18"/>
+      <c r="W357" s="19"/>
     </row>
     <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W358" s="18"/>
+      <c r="W358" s="19"/>
     </row>
     <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W359" s="18"/>
+      <c r="W359" s="19"/>
     </row>
     <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W360" s="18"/>
+      <c r="W360" s="19"/>
     </row>
     <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W361" s="18"/>
+      <c r="W361" s="19"/>
     </row>
     <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W362" s="18"/>
+      <c r="W362" s="19"/>
     </row>
     <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W363" s="18"/>
+      <c r="W363" s="19"/>
     </row>
     <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W364" s="18"/>
+      <c r="W364" s="19"/>
     </row>
     <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W365" s="18"/>
+      <c r="W365" s="19"/>
     </row>
     <row r="366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W366" s="18"/>
+      <c r="W366" s="19"/>
     </row>
     <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W367" s="18"/>
+      <c r="W367" s="19"/>
     </row>
     <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W368" s="18"/>
+      <c r="W368" s="19"/>
     </row>
     <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W369" s="18"/>
+      <c r="W369" s="19"/>
     </row>
     <row r="370" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W370" s="18"/>
+      <c r="W370" s="19"/>
     </row>
     <row r="371" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W371" s="18"/>
+      <c r="W371" s="19"/>
     </row>
     <row r="372" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W372" s="18"/>
+      <c r="W372" s="19"/>
     </row>
     <row r="373" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W373" s="18"/>
+      <c r="W373" s="19"/>
     </row>
     <row r="374" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W374" s="18"/>
+      <c r="W374" s="19"/>
     </row>
     <row r="375" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W375" s="18"/>
+      <c r="W375" s="19"/>
     </row>
     <row r="376" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W376" s="18"/>
+      <c r="W376" s="19"/>
     </row>
     <row r="377" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W377" s="18"/>
+      <c r="W377" s="19"/>
     </row>
     <row r="378" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W378" s="18"/>
+      <c r="W378" s="19"/>
     </row>
     <row r="379" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W379" s="18"/>
+      <c r="W379" s="19"/>
     </row>
     <row r="380" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W380" s="18"/>
+      <c r="W380" s="19"/>
     </row>
     <row r="381" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W381" s="18"/>
+      <c r="W381" s="19"/>
     </row>
     <row r="382" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W382" s="18"/>
+      <c r="W382" s="19"/>
     </row>
     <row r="383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W383" s="18"/>
+      <c r="W383" s="19"/>
     </row>
     <row r="384" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W384" s="18"/>
+      <c r="W384" s="19"/>
     </row>
     <row r="385" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W385" s="18"/>
+      <c r="W385" s="19"/>
     </row>
     <row r="386" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W386" s="18"/>
+      <c r="W386" s="19"/>
     </row>
     <row r="387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W387" s="18"/>
+      <c r="W387" s="19"/>
     </row>
     <row r="388" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W388" s="18"/>
+      <c r="W388" s="19"/>
     </row>
     <row r="389" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W389" s="18"/>
+      <c r="W389" s="19"/>
     </row>
     <row r="390" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W390" s="18"/>
+      <c r="W390" s="19"/>
     </row>
     <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W391" s="18"/>
+      <c r="W391" s="19"/>
     </row>
     <row r="392" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W392" s="18"/>
+      <c r="W392" s="19"/>
     </row>
     <row r="393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W393" s="18"/>
+      <c r="W393" s="19"/>
     </row>
     <row r="394" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W394" s="18"/>
+      <c r="W394" s="19"/>
     </row>
     <row r="395" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W395" s="18"/>
+      <c r="W395" s="19"/>
     </row>
     <row r="396" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W396" s="18"/>
+      <c r="W396" s="19"/>
     </row>
     <row r="397" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W397" s="18"/>
+      <c r="W397" s="19"/>
     </row>
     <row r="398" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W398" s="18"/>
+      <c r="W398" s="19"/>
     </row>
     <row r="399" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W399" s="18"/>
+      <c r="W399" s="19"/>
     </row>
     <row r="400" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W400" s="18"/>
+      <c r="W400" s="19"/>
     </row>
     <row r="401" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W401" s="18"/>
+      <c r="W401" s="19"/>
     </row>
     <row r="402" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W402" s="18"/>
+      <c r="W402" s="19"/>
     </row>
     <row r="403" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W403" s="18"/>
+      <c r="W403" s="19"/>
     </row>
     <row r="404" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W404" s="18"/>
+      <c r="W404" s="19"/>
     </row>
     <row r="405" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W405" s="18"/>
+      <c r="W405" s="19"/>
     </row>
     <row r="406" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W406" s="18"/>
+      <c r="W406" s="19"/>
     </row>
     <row r="407" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W407" s="18"/>
+      <c r="W407" s="19"/>
     </row>
     <row r="408" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W408" s="18"/>
+      <c r="W408" s="19"/>
     </row>
     <row r="409" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W409" s="18"/>
+      <c r="W409" s="19"/>
     </row>
     <row r="410" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W410" s="18"/>
+      <c r="W410" s="19"/>
     </row>
     <row r="411" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W411" s="18"/>
+      <c r="W411" s="19"/>
     </row>
     <row r="412" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W412" s="18"/>
+      <c r="W412" s="19"/>
     </row>
     <row r="413" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W413" s="18"/>
+      <c r="W413" s="19"/>
     </row>
     <row r="414" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W414" s="18"/>
+      <c r="W414" s="19"/>
     </row>
     <row r="415" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W415" s="18"/>
+      <c r="W415" s="19"/>
     </row>
     <row r="416" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W416" s="18"/>
+      <c r="W416" s="19"/>
     </row>
     <row r="417" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W417" s="18"/>
+      <c r="W417" s="19"/>
     </row>
     <row r="418" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W418" s="18"/>
+      <c r="W418" s="19"/>
     </row>
     <row r="419" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W419" s="18"/>
+      <c r="W419" s="19"/>
     </row>
     <row r="420" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W420" s="18"/>
+      <c r="W420" s="19"/>
     </row>
     <row r="421" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W421" s="18"/>
+      <c r="W421" s="19"/>
     </row>
     <row r="422" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W422" s="18"/>
+      <c r="W422" s="19"/>
     </row>
     <row r="423" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W423" s="18"/>
+      <c r="W423" s="19"/>
     </row>
     <row r="424" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W424" s="18"/>
+      <c r="W424" s="19"/>
     </row>
     <row r="425" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W425" s="18"/>
+      <c r="W425" s="19"/>
     </row>
     <row r="426" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W426" s="18"/>
+      <c r="W426" s="19"/>
     </row>
     <row r="427" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W427" s="18"/>
+      <c r="W427" s="19"/>
     </row>
     <row r="428" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W428" s="18"/>
+      <c r="W428" s="19"/>
     </row>
     <row r="429" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W429" s="18"/>
+      <c r="W429" s="19"/>
     </row>
     <row r="430" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W430" s="18"/>
+      <c r="W430" s="19"/>
     </row>
     <row r="431" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W431" s="18"/>
+      <c r="W431" s="19"/>
     </row>
     <row r="432" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W432" s="18"/>
+      <c r="W432" s="19"/>
     </row>
     <row r="433" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W433" s="18"/>
+      <c r="W433" s="19"/>
     </row>
     <row r="434" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W434" s="18"/>
+      <c r="W434" s="19"/>
     </row>
     <row r="435" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W435" s="18"/>
+      <c r="W435" s="19"/>
     </row>
     <row r="436" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W436" s="18"/>
+      <c r="W436" s="19"/>
     </row>
     <row r="437" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W437" s="18"/>
+      <c r="W437" s="19"/>
     </row>
     <row r="438" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W438" s="18"/>
+      <c r="W438" s="19"/>
     </row>
     <row r="439" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W439" s="18"/>
+      <c r="W439" s="19"/>
     </row>
     <row r="440" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W440" s="18"/>
+      <c r="W440" s="19"/>
     </row>
     <row r="441" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W441" s="18"/>
+      <c r="W441" s="19"/>
     </row>
     <row r="442" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W442" s="18"/>
+      <c r="W442" s="19"/>
     </row>
     <row r="443" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W443" s="18"/>
+      <c r="W443" s="19"/>
     </row>
     <row r="444" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W444" s="18"/>
+      <c r="W444" s="19"/>
     </row>
     <row r="445" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W445" s="18"/>
+      <c r="W445" s="19"/>
     </row>
     <row r="446" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W446" s="18"/>
+      <c r="W446" s="19"/>
     </row>
     <row r="447" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W447" s="18"/>
+      <c r="W447" s="19"/>
     </row>
     <row r="448" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W448" s="18"/>
+      <c r="W448" s="19"/>
     </row>
     <row r="449" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W449" s="18"/>
+      <c r="W449" s="19"/>
     </row>
     <row r="450" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W450" s="18"/>
+      <c r="W450" s="19"/>
     </row>
     <row r="451" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W451" s="18"/>
+      <c r="W451" s="19"/>
     </row>
     <row r="452" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W452" s="18"/>
+      <c r="W452" s="19"/>
     </row>
     <row r="453" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W453" s="18"/>
+      <c r="W453" s="19"/>
     </row>
     <row r="454" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W454" s="18"/>
+      <c r="W454" s="19"/>
     </row>
     <row r="455" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W455" s="18"/>
+      <c r="W455" s="19"/>
     </row>
     <row r="456" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W456" s="18"/>
+      <c r="W456" s="19"/>
     </row>
     <row r="457" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W457" s="18"/>
+      <c r="W457" s="19"/>
     </row>
     <row r="458" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W458" s="18"/>
+      <c r="W458" s="19"/>
     </row>
     <row r="459" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W459" s="18"/>
+      <c r="W459" s="19"/>
     </row>
     <row r="460" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W460" s="18"/>
+      <c r="W460" s="19"/>
     </row>
     <row r="461" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W461" s="18"/>
+      <c r="W461" s="19"/>
     </row>
     <row r="462" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W462" s="18"/>
+      <c r="W462" s="19"/>
     </row>
     <row r="463" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W463" s="18"/>
+      <c r="W463" s="19"/>
     </row>
     <row r="464" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W464" s="18"/>
+      <c r="W464" s="19"/>
     </row>
     <row r="465" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W465" s="18"/>
+      <c r="W465" s="19"/>
     </row>
     <row r="466" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W466" s="18"/>
+      <c r="W466" s="19"/>
     </row>
     <row r="467" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W467" s="18"/>
+      <c r="W467" s="19"/>
     </row>
     <row r="468" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W468" s="18"/>
+      <c r="W468" s="19"/>
     </row>
     <row r="469" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W469" s="18"/>
+      <c r="W469" s="19"/>
     </row>
     <row r="470" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W470" s="18"/>
+      <c r="W470" s="19"/>
     </row>
     <row r="471" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W471" s="18"/>
+      <c r="W471" s="19"/>
     </row>
     <row r="472" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W472" s="18"/>
+      <c r="W472" s="19"/>
     </row>
     <row r="473" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W473" s="18"/>
+      <c r="W473" s="19"/>
     </row>
     <row r="474" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W474" s="18"/>
+      <c r="W474" s="19"/>
     </row>
     <row r="475" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W475" s="18"/>
+      <c r="W475" s="19"/>
     </row>
     <row r="476" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W476" s="18"/>
+      <c r="W476" s="19"/>
     </row>
     <row r="477" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W477" s="18"/>
+      <c r="W477" s="19"/>
     </row>
     <row r="478" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W478" s="18"/>
+      <c r="W478" s="19"/>
     </row>
     <row r="479" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W479" s="18"/>
+      <c r="W479" s="19"/>
     </row>
     <row r="480" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W480" s="18"/>
+      <c r="W480" s="19"/>
     </row>
     <row r="481" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W481" s="18"/>
+      <c r="W481" s="19"/>
     </row>
     <row r="482" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W482" s="18"/>
+      <c r="W482" s="19"/>
     </row>
     <row r="483" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W483" s="18"/>
+      <c r="W483" s="19"/>
     </row>
     <row r="484" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W484" s="18"/>
+      <c r="W484" s="19"/>
     </row>
     <row r="485" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W485" s="18"/>
+      <c r="W485" s="19"/>
     </row>
     <row r="486" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W486" s="18"/>
+      <c r="W486" s="19"/>
     </row>
     <row r="487" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W487" s="18"/>
+      <c r="W487" s="19"/>
     </row>
     <row r="488" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W488" s="18"/>
+      <c r="W488" s="19"/>
     </row>
     <row r="489" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W489" s="18"/>
+      <c r="W489" s="19"/>
     </row>
     <row r="490" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W490" s="18"/>
+      <c r="W490" s="19"/>
     </row>
     <row r="491" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W491" s="18"/>
+      <c r="W491" s="19"/>
     </row>
     <row r="492" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W492" s="18"/>
+      <c r="W492" s="19"/>
     </row>
     <row r="493" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W493" s="18"/>
+      <c r="W493" s="19"/>
     </row>
     <row r="494" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W494" s="18"/>
+      <c r="W494" s="19"/>
     </row>
     <row r="495" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W495" s="18"/>
+      <c r="W495" s="19"/>
     </row>
     <row r="496" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W496" s="18"/>
+      <c r="W496" s="19"/>
     </row>
     <row r="497" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W497" s="18"/>
+      <c r="W497" s="19"/>
     </row>
     <row r="498" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W498" s="18"/>
+      <c r="W498" s="19"/>
     </row>
     <row r="499" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W499" s="18"/>
+      <c r="W499" s="19"/>
     </row>
     <row r="500" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W500" s="18"/>
+      <c r="W500" s="19"/>
     </row>
     <row r="501" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W501" s="18"/>
+      <c r="W501" s="19"/>
     </row>
     <row r="502" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W502" s="18"/>
+      <c r="W502" s="19"/>
     </row>
     <row r="503" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W503" s="18"/>
+      <c r="W503" s="19"/>
     </row>
     <row r="504" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W504" s="18"/>
+      <c r="W504" s="19"/>
     </row>
     <row r="505" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W505" s="18"/>
+      <c r="W505" s="19"/>
     </row>
     <row r="506" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W506" s="18"/>
+      <c r="W506" s="19"/>
     </row>
     <row r="507" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W507" s="18"/>
+      <c r="W507" s="19"/>
     </row>
     <row r="508" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W508" s="18"/>
+      <c r="W508" s="19"/>
     </row>
     <row r="509" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W509" s="18"/>
+      <c r="W509" s="19"/>
     </row>
     <row r="510" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W510" s="18"/>
+      <c r="W510" s="19"/>
     </row>
     <row r="511" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W511" s="18"/>
+      <c r="W511" s="19"/>
     </row>
     <row r="512" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W512" s="18"/>
+      <c r="W512" s="19"/>
     </row>
     <row r="513" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W513" s="18"/>
+      <c r="W513" s="19"/>
     </row>
     <row r="514" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W514" s="18"/>
+      <c r="W514" s="19"/>
     </row>
     <row r="515" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W515" s="18"/>
+      <c r="W515" s="19"/>
     </row>
     <row r="516" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W516" s="18"/>
+      <c r="W516" s="19"/>
     </row>
     <row r="517" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W517" s="18"/>
+      <c r="W517" s="19"/>
     </row>
     <row r="518" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W518" s="18"/>
+      <c r="W518" s="19"/>
     </row>
     <row r="519" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W519" s="18"/>
+      <c r="W519" s="19"/>
     </row>
     <row r="520" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W520" s="18"/>
+      <c r="W520" s="19"/>
     </row>
     <row r="521" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W521" s="18"/>
+      <c r="W521" s="19"/>
     </row>
     <row r="522" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W522" s="18"/>
+      <c r="W522" s="19"/>
     </row>
     <row r="523" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W523" s="18"/>
+      <c r="W523" s="19"/>
     </row>
     <row r="524" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W524" s="18"/>
+      <c r="W524" s="19"/>
     </row>
     <row r="525" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W525" s="18"/>
+      <c r="W525" s="19"/>
     </row>
     <row r="526" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W526" s="18"/>
+      <c r="W526" s="19"/>
     </row>
     <row r="527" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W527" s="18"/>
+      <c r="W527" s="19"/>
     </row>
     <row r="528" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W528" s="18"/>
+      <c r="W528" s="19"/>
     </row>
     <row r="529" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W529" s="18"/>
+      <c r="W529" s="19"/>
     </row>
     <row r="530" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W530" s="18"/>
+      <c r="W530" s="19"/>
     </row>
     <row r="531" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W531" s="18"/>
+      <c r="W531" s="19"/>
     </row>
     <row r="532" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W532" s="18"/>
+      <c r="W532" s="19"/>
     </row>
     <row r="533" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W533" s="18"/>
+      <c r="W533" s="19"/>
     </row>
     <row r="534" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W534" s="18"/>
+      <c r="W534" s="19"/>
     </row>
     <row r="535" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W535" s="18"/>
+      <c r="W535" s="19"/>
     </row>
     <row r="536" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W536" s="18"/>
+      <c r="W536" s="19"/>
     </row>
     <row r="537" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W537" s="18"/>
+      <c r="W537" s="19"/>
     </row>
     <row r="538" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W538" s="18"/>
+      <c r="W538" s="19"/>
     </row>
     <row r="539" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W539" s="18"/>
+      <c r="W539" s="19"/>
     </row>
     <row r="540" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W540" s="18"/>
+      <c r="W540" s="19"/>
     </row>
     <row r="541" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W541" s="18"/>
+      <c r="W541" s="19"/>
     </row>
     <row r="542" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W542" s="18"/>
+      <c r="W542" s="19"/>
     </row>
     <row r="543" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W543" s="18"/>
+      <c r="W543" s="19"/>
     </row>
     <row r="544" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W544" s="18"/>
+      <c r="W544" s="19"/>
     </row>
     <row r="545" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W545" s="18"/>
+      <c r="W545" s="19"/>
     </row>
     <row r="546" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W546" s="18"/>
+      <c r="W546" s="19"/>
     </row>
     <row r="547" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W547" s="18"/>
+      <c r="W547" s="19"/>
     </row>
     <row r="548" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W548" s="18"/>
+      <c r="W548" s="19"/>
     </row>
     <row r="549" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W549" s="18"/>
+      <c r="W549" s="19"/>
     </row>
     <row r="550" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W550" s="18"/>
+      <c r="W550" s="19"/>
     </row>
     <row r="551" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W551" s="18"/>
+      <c r="W551" s="19"/>
     </row>
     <row r="552" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W552" s="18"/>
+      <c r="W552" s="19"/>
     </row>
     <row r="553" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W553" s="18"/>
+      <c r="W553" s="19"/>
     </row>
     <row r="554" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W554" s="18"/>
+      <c r="W554" s="19"/>
     </row>
     <row r="555" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W555" s="18"/>
+      <c r="W555" s="19"/>
     </row>
     <row r="556" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W556" s="18"/>
+      <c r="W556" s="19"/>
     </row>
     <row r="557" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W557" s="18"/>
+      <c r="W557" s="19"/>
     </row>
     <row r="558" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W558" s="18"/>
+      <c r="W558" s="19"/>
     </row>
     <row r="559" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W559" s="18"/>
+      <c r="W559" s="19"/>
     </row>
     <row r="560" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W560" s="18"/>
+      <c r="W560" s="19"/>
     </row>
     <row r="561" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W561" s="18"/>
+      <c r="W561" s="19"/>
     </row>
     <row r="562" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W562" s="18"/>
+      <c r="W562" s="19"/>
     </row>
     <row r="563" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W563" s="18"/>
+      <c r="W563" s="19"/>
     </row>
     <row r="564" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W564" s="18"/>
+      <c r="W564" s="19"/>
     </row>
     <row r="565" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W565" s="18"/>
+      <c r="W565" s="19"/>
     </row>
     <row r="566" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W566" s="18"/>
+      <c r="W566" s="19"/>
     </row>
     <row r="567" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W567" s="18"/>
+      <c r="W567" s="19"/>
     </row>
     <row r="568" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W568" s="18"/>
+      <c r="W568" s="19"/>
     </row>
     <row r="569" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W569" s="18"/>
+      <c r="W569" s="19"/>
     </row>
     <row r="570" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W570" s="18"/>
+      <c r="W570" s="19"/>
     </row>
     <row r="571" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W571" s="18"/>
+      <c r="W571" s="19"/>
     </row>
     <row r="572" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W572" s="18"/>
+      <c r="W572" s="19"/>
     </row>
     <row r="573" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W573" s="18"/>
+      <c r="W573" s="19"/>
     </row>
     <row r="574" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W574" s="18"/>
+      <c r="W574" s="19"/>
     </row>
     <row r="575" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W575" s="18"/>
+      <c r="W575" s="19"/>
     </row>
     <row r="576" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W576" s="18"/>
+      <c r="W576" s="19"/>
     </row>
     <row r="577" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W577" s="18"/>
+      <c r="W577" s="19"/>
     </row>
     <row r="578" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W578" s="18"/>
+      <c r="W578" s="19"/>
     </row>
     <row r="579" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W579" s="18"/>
+      <c r="W579" s="19"/>
     </row>
     <row r="580" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W580" s="18"/>
+      <c r="W580" s="19"/>
     </row>
   </sheetData>
   <autoFilter ref="A9:W25"/>
@@ -8005,49 +8005,49 @@
   </sheetPr>
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="7" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="7" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="7" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="7" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="7" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="7" t="s">
         <v>70</v>
       </c>
     </row>
@@ -8069,7 +8069,7 @@
   </sheetPr>
   <dimension ref="A1:G960"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
@@ -8077,180 +8077,180 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="33.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="102"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="7.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="23.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="33.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="102"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="7" width="8.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="7" width="9.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="7" width="7.86"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="49" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="50" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="51" t="s">
         <v>144</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="52" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="51" t="s">
         <v>146</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="52" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="D4" s="52" t="s">
+      <c r="D4" s="53" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="51" t="s">
         <v>152</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="D5" s="52" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="53" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="49" t="s">
+    <row r="7" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="51" t="s">
         <v>158</v>
       </c>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="53" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="50" t="s">
         <v>160</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="51" t="s">
         <v>161</v>
       </c>
-      <c r="D8" s="52" t="s">
+      <c r="D8" s="53" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="86.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="49" t="s">
+    <row r="9" customFormat="false" ht="84.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="51" t="s">
         <v>164</v>
       </c>
-      <c r="D9" s="52" t="s">
+      <c r="D9" s="53" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="49" t="s">
+    <row r="10" customFormat="false" ht="184.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="50" t="s">
         <v>166</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="54" t="s">
         <v>167</v>
       </c>
-      <c r="D10" s="51" t="s">
+      <c r="D10" s="52" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="50" t="s">
         <v>169</v>
       </c>
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="C11" s="50" t="s">
+      <c r="C11" s="51" t="s">
         <v>170</v>
       </c>
-      <c r="D11" s="52" t="s">
+      <c r="D11" s="53" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D12" s="54"/>
+      <c r="D12" s="55"/>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D13" s="54"/>
+      <c r="D13" s="55"/>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -9219,44 +9219,44 @@
   </sheetPr>
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="8.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="13.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="7" width="8.86"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="21" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="21" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="21" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="55"/>
-      <c r="B4" s="55"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
